--- a/laval_comparison.xlsx
+++ b/laval_comparison.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GIT\compressible_flows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GitHub\compressible_flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB8A92B-94FB-4E0F-BB97-3820185E4BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13272"/>
   </bookViews>
   <sheets>
     <sheet name="Laval Stoß" sheetId="1" r:id="rId1"/>
@@ -77,7 +76,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -170,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -311,7 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,7 +328,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -356,6 +355,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2328,7 +2328,7 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -2653,307 +2653,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.67318800000000001</c:v>
+                  <c:v>0.67335599999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68431399999999998</c:v>
+                  <c:v>0.68447199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.695434</c:v>
+                  <c:v>0.69558299999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70665900000000004</c:v>
+                  <c:v>0.70684899999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71809100000000003</c:v>
+                  <c:v>0.71827399999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72967899999999997</c:v>
+                  <c:v>0.72985800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74136000000000002</c:v>
+                  <c:v>0.74159900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75325699999999995</c:v>
+                  <c:v>0.753498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76530799999999999</c:v>
+                  <c:v>0.76555399999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77751199999999998</c:v>
+                  <c:v>0.77776699999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78986800000000001</c:v>
+                  <c:v>0.79013699999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80237499999999995</c:v>
+                  <c:v>0.80266099999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.815029</c:v>
+                  <c:v>0.81533999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82782999999999995</c:v>
+                  <c:v>0.82817399999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84077400000000002</c:v>
+                  <c:v>0.84116100000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85385900000000003</c:v>
+                  <c:v>0.85429999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86707999999999996</c:v>
+                  <c:v>0.86759299999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88043300000000002</c:v>
+                  <c:v>0.88103900000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.89409899999999998</c:v>
+                  <c:v>0.89463999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90771999999999997</c:v>
+                  <c:v>0.90839899999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92144999999999999</c:v>
+                  <c:v>0.92232499999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93527300000000002</c:v>
+                  <c:v>0.93643200000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94953900000000002</c:v>
+                  <c:v>0.95075600000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.963534</c:v>
+                  <c:v>0.965387</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97741800000000001</c:v>
+                  <c:v>0.98062899999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99099599999999999</c:v>
+                  <c:v>0.99851000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0192639999999999</c:v>
+                  <c:v>1.015323</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0353619999999999</c:v>
+                  <c:v>1.033123</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0508519999999999</c:v>
+                  <c:v>1.0490619999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.065831</c:v>
+                  <c:v>1.0646</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0808960000000001</c:v>
+                  <c:v>1.080025</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0963229999999999</c:v>
+                  <c:v>1.0954360000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1115470000000001</c:v>
+                  <c:v>1.110873</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1270720000000001</c:v>
+                  <c:v>1.1263559999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1424620000000001</c:v>
+                  <c:v>1.141896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.15811</c:v>
+                  <c:v>1.157497</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.173659</c:v>
+                  <c:v>1.1731590000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.189433</c:v>
+                  <c:v>1.1888840000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.20513</c:v>
+                  <c:v>1.2046699999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2208969999999999</c:v>
+                  <c:v>1.220515</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2368509999999999</c:v>
+                  <c:v>1.236416</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2527429999999999</c:v>
+                  <c:v>1.2523709999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2687999999999999</c:v>
+                  <c:v>1.2683770000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2847999999999999</c:v>
+                  <c:v>1.28443</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.300851</c:v>
+                  <c:v>1.3005279999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3170029999999999</c:v>
+                  <c:v>1.316667</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.339081</c:v>
+                  <c:v>1.3328450000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.71021999999999996</c:v>
+                  <c:v>0.71744699999999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.75078999999999996</c:v>
+                  <c:v>0.75150600000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.73905299999999996</c:v>
+                  <c:v>0.73912800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.72543000000000002</c:v>
+                  <c:v>0.72551399999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.71223000000000003</c:v>
+                  <c:v>0.712337</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.69940199999999997</c:v>
+                  <c:v>0.69952099999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.68697299999999994</c:v>
+                  <c:v>0.68703999999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.67480099999999998</c:v>
+                  <c:v>0.67486999999999997</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.66292499999999999</c:v>
+                  <c:v>0.662991</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.65132800000000002</c:v>
+                  <c:v>0.65138700000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.63995199999999997</c:v>
+                  <c:v>0.64004499999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.62887300000000002</c:v>
+                  <c:v>0.62895199999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.61803300000000005</c:v>
+                  <c:v>0.61809800000000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.60738999999999999</c:v>
+                  <c:v>0.60747300000000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.59700600000000004</c:v>
+                  <c:v>0.59706899999999996</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.58680299999999996</c:v>
+                  <c:v>0.58687999999999996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.57684299999999999</c:v>
+                  <c:v>0.57689800000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.56705499999999998</c:v>
+                  <c:v>0.56711699999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.55746300000000004</c:v>
+                  <c:v>0.557531</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.54809200000000002</c:v>
+                  <c:v>0.54813599999999996</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.53888000000000003</c:v>
+                  <c:v>0.53892700000000004</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.52985199999999999</c:v>
+                  <c:v>0.52989900000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.52100000000000002</c:v>
+                  <c:v>0.52104799999999996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.51232299999999997</c:v>
+                  <c:v>0.51236999999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.50381799999999999</c:v>
+                  <c:v>0.50385999999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.495477</c:v>
+                  <c:v>0.49551600000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.48727999999999999</c:v>
+                  <c:v>0.48733399999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.47926200000000002</c:v>
+                  <c:v>0.47931099999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.47139999999999999</c:v>
+                  <c:v>0.47144200000000003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.46369199999999999</c:v>
+                  <c:v>0.46372600000000003</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.45611499999999999</c:v>
+                  <c:v>0.45615800000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.44870199999999999</c:v>
+                  <c:v>0.44873600000000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.44141599999999998</c:v>
+                  <c:v>0.44145800000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.43428699999999998</c:v>
+                  <c:v>0.43431999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.42728100000000002</c:v>
+                  <c:v>0.427319</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.42042499999999999</c:v>
+                  <c:v>0.42045199999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.41368700000000003</c:v>
+                  <c:v>0.41371799999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.407078</c:v>
+                  <c:v>0.40711399999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.40059800000000001</c:v>
+                  <c:v>0.40063599999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.394256</c:v>
+                  <c:v>0.39428200000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.38802300000000001</c:v>
+                  <c:v>0.38805099999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.381911</c:v>
+                  <c:v>0.38193899999999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.375915</c:v>
+                  <c:v>0.375944</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.37003599999999998</c:v>
+                  <c:v>0.370064</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.36426999999999998</c:v>
+                  <c:v>0.36429699999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.35861300000000002</c:v>
+                  <c:v>0.35864000000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.35306599999999999</c:v>
+                  <c:v>0.35309099999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.34762500000000002</c:v>
+                  <c:v>0.34764800000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.34228700000000001</c:v>
+                  <c:v>0.34230899999999997</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.33704400000000001</c:v>
+                  <c:v>0.33707199999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.33190799999999998</c:v>
+                  <c:v>0.33193400000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.326872</c:v>
+                  <c:v>0.32689400000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.32192900000000002</c:v>
+                  <c:v>0.32195000000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.31702999999999998</c:v>
+                  <c:v>0.317052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,6 +3001,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3070,6 +3071,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3123,8 +3125,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.71626248127197301"/>
           <c:y val="0.11254415492176562"/>
-          <c:w val="0.20657125242552882"/>
-          <c:h val="0.18943542933712607"/>
+          <c:w val="0.23559019412830393"/>
+          <c:h val="0.29427679985098265"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3200,7 +3202,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3227,6 +3229,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5199,7 +5202,7 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -5524,304 +5527,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.73810799999999999</c:v>
+                  <c:v>0.73800100000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73087899999999995</c:v>
+                  <c:v>0.73078200000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72367000000000004</c:v>
+                  <c:v>0.72358199999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71638000000000002</c:v>
+                  <c:v>0.716256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70891999999999999</c:v>
+                  <c:v>0.70880299999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70133599999999996</c:v>
+                  <c:v>0.70122700000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.693689</c:v>
+                  <c:v>0.69352999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68587399999999998</c:v>
+                  <c:v>0.68571599999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67794699999999997</c:v>
+                  <c:v>0.67778700000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66991299999999998</c:v>
+                  <c:v>0.66974800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.661775</c:v>
+                  <c:v>0.66160200000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.65353799999999995</c:v>
+                  <c:v>0.65335399999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.645208</c:v>
+                  <c:v>0.645007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63678999999999997</c:v>
+                  <c:v>0.63656699999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62828899999999999</c:v>
+                  <c:v>0.62803799999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.61971299999999996</c:v>
+                  <c:v>0.61942600000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.61106799999999994</c:v>
+                  <c:v>0.61073299999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.60236199999999995</c:v>
+                  <c:v>0.601966</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.593472</c:v>
+                  <c:v>0.59312900000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.58465500000000004</c:v>
+                  <c:v>0.58422300000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57580699999999996</c:v>
+                  <c:v>0.57524900000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.56694199999999995</c:v>
+                  <c:v>0.56620400000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55783300000000002</c:v>
+                  <c:v>0.55707099999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54895700000000003</c:v>
+                  <c:v>0.54779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.54020400000000002</c:v>
+                  <c:v>0.53821200000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.53169100000000002</c:v>
+                  <c:v>0.52708100000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.51434999999999997</c:v>
+                  <c:v>0.51674600000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50461</c:v>
+                  <c:v>0.50595500000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.49532300000000001</c:v>
+                  <c:v>0.49638199999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.48641200000000001</c:v>
+                  <c:v>0.48713499999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47753200000000001</c:v>
+                  <c:v>0.47804200000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.46853899999999998</c:v>
+                  <c:v>0.46904699999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.45974399999999999</c:v>
+                  <c:v>0.46012799999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.45088099999999998</c:v>
+                  <c:v>0.45127800000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.44218099999999999</c:v>
+                  <c:v>0.44249500000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.433448</c:v>
+                  <c:v>0.43377900000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.42486400000000002</c:v>
+                  <c:v>0.42513299999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.41627500000000001</c:v>
+                  <c:v>0.41655999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.407827</c:v>
+                  <c:v>0.40806500000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.399453</c:v>
+                  <c:v>0.39965099999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.39110499999999998</c:v>
+                  <c:v>0.391322</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.38289800000000002</c:v>
+                  <c:v>0.38308300000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.37473499999999998</c:v>
+                  <c:v>0.37493700000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.36671300000000001</c:v>
+                  <c:v>0.36688799999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35878700000000002</c:v>
+                  <c:v>0.35893900000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.35094199999999998</c:v>
+                  <c:v>0.35109499999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.34105099999999999</c:v>
+                  <c:v>0.34335700000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.70121</c:v>
+                  <c:v>0.69505700000000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.66465600000000002</c:v>
+                  <c:v>0.66411799999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.67153099999999999</c:v>
+                  <c:v>0.67150799999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.67999100000000001</c:v>
+                  <c:v>0.67996100000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.68816500000000003</c:v>
+                  <c:v>0.688114</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.69608199999999998</c:v>
+                  <c:v>0.69601999999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.703712</c:v>
+                  <c:v>0.70369400000000004</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.71116800000000002</c:v>
+                  <c:v>0.711148</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.71841100000000002</c:v>
+                  <c:v>0.71839299999999995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.72545099999999996</c:v>
+                  <c:v>0.72543800000000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.73233499999999996</c:v>
+                  <c:v>0.73229100000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.73898900000000001</c:v>
+                  <c:v>0.73895699999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.74546100000000004</c:v>
+                  <c:v>0.745444</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.75179300000000004</c:v>
+                  <c:v>0.75175599999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.75791799999999998</c:v>
+                  <c:v>0.75789899999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.763907</c:v>
+                  <c:v>0.763876</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.76970300000000003</c:v>
+                  <c:v>0.76969100000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.77537100000000003</c:v>
+                  <c:v>0.77534999999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.78088100000000005</c:v>
+                  <c:v>0.78085400000000005</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.78621399999999997</c:v>
+                  <c:v>0.78620900000000005</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.79142299999999999</c:v>
+                  <c:v>0.79141700000000004</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.79649000000000003</c:v>
+                  <c:v>0.79648099999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.80141300000000004</c:v>
+                  <c:v>0.80140599999999995</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.80619799999999997</c:v>
+                  <c:v>0.80619300000000005</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.81084999999999996</c:v>
+                  <c:v>0.81084599999999996</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.81536799999999998</c:v>
+                  <c:v>0.81536900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.81977800000000001</c:v>
+                  <c:v>0.81976300000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.82404100000000002</c:v>
+                  <c:v>0.82403300000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.82818199999999997</c:v>
+                  <c:v>0.82818099999999994</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.832206</c:v>
+                  <c:v>0.83221000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.83612799999999998</c:v>
+                  <c:v>0.83612200000000003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.83991899999999997</c:v>
+                  <c:v>0.83992199999999995</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.84361600000000003</c:v>
+                  <c:v>0.84360999999999997</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.84718800000000005</c:v>
+                  <c:v>0.84719100000000003</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.85067000000000004</c:v>
+                  <c:v>0.85066699999999995</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.85403300000000004</c:v>
+                  <c:v>0.85404100000000005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.85731199999999996</c:v>
+                  <c:v>0.85731500000000005</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.86048999999999998</c:v>
+                  <c:v>0.86049100000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.86357499999999998</c:v>
+                  <c:v>0.86357399999999995</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.86655400000000005</c:v>
+                  <c:v>0.866564</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.86945700000000004</c:v>
+                  <c:v>0.86946500000000004</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.87227299999999997</c:v>
+                  <c:v>0.87227900000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.87500100000000003</c:v>
+                  <c:v>0.87500800000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.87764799999999998</c:v>
+                  <c:v>0.87765499999999996</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.880216</c:v>
+                  <c:v>0.88022199999999995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.88270300000000002</c:v>
+                  <c:v>0.88271200000000005</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.88511600000000001</c:v>
+                  <c:v>0.88512599999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.88745700000000005</c:v>
+                  <c:v>0.88746700000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.88972300000000004</c:v>
+                  <c:v>0.889737</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.89193299999999998</c:v>
+                  <c:v>0.89193699999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.89406300000000005</c:v>
+                  <c:v>0.89407099999999995</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.89613100000000001</c:v>
+                  <c:v>0.89614000000000005</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.89813299999999996</c:v>
+                  <c:v>0.898146</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.9</c:v>
@@ -5872,6 +5875,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5941,6 +5945,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6071,7 +6076,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8398,312 +8403,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Laval Stoß'!$R$7:$R$107</c:f>
+              <c:f>'Laval Stoß'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99983900000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99973199999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99963800000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99951999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99939500000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99928499999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99915200000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99901399999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99887099999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.998722</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.99856900000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99841100000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99824800000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.998081</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99790999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99773500000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.997556</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.99735300000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.99716800000000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.99697800000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.99678800000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.99657399999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.99637799999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.99617900000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.99596899999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.99589899999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.99590000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.99590199999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.99587999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.99585400000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.99584799999999996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.99581600000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.99580299999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.99576200000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.99574200000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.99569399999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.995668</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.99561299999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.99555400000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.99551599999999996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.995452</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.99540600000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.99533499999999997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.99525799999999998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.99519400000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.99694300000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.98161600000000004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.96598600000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.96528400000000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.965194</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.96510600000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.96502200000000005</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.96492199999999995</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.96484599999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.96477500000000005</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.96470800000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.96466200000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.96460400000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.96454600000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.96451299999999995</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.96446699999999996</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.96443699999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.96440000000000003</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.96438000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.96435999999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.96433400000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.96431999999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.96431299999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.96430499999999997</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.96429900000000002</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.96430000000000005</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.96430000000000005</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.964314</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.96431800000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.96432399999999996</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.964337</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.96435800000000005</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.96436999999999995</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.964395</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.96440999999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.96443699999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.96445499999999995</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.96448400000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.96450899999999995</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.96453999999999995</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.96456200000000003</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.96459399999999995</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.96462599999999998</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.96465500000000004</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.96468900000000002</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.96472199999999997</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.96475299999999997</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.96478799999999998</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.96482199999999996</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.96485399999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96489599999999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.96492800000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.96496300000000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.96499500000000005</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.96492699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8751,6 +8456,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8820,6 +8526,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8950,7 +8657,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8989,6 +8696,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10669,307 +10377,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.67316699999999996</c:v>
+                  <c:v>0.67335599999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68429399999999996</c:v>
+                  <c:v>0.68447199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69541600000000003</c:v>
+                  <c:v>0.69558299999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70664300000000002</c:v>
+                  <c:v>0.70684999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71807699999999997</c:v>
+                  <c:v>0.718275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72966799999999998</c:v>
+                  <c:v>0.72985800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74135099999999998</c:v>
+                  <c:v>0.74159900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75324999999999998</c:v>
+                  <c:v>0.753498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76530399999999998</c:v>
+                  <c:v>0.76555499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77751099999999995</c:v>
+                  <c:v>0.77776800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78986900000000004</c:v>
+                  <c:v>0.79013699999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80237800000000004</c:v>
+                  <c:v>0.80266199999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81503499999999995</c:v>
+                  <c:v>0.81534099999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82783899999999999</c:v>
+                  <c:v>0.82817399999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84078600000000003</c:v>
+                  <c:v>0.84116100000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85387299999999999</c:v>
+                  <c:v>0.85430099999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86709599999999998</c:v>
+                  <c:v>0.86759299999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88044999999999995</c:v>
+                  <c:v>0.88103900000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.89411700000000005</c:v>
+                  <c:v>0.89463999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90773700000000002</c:v>
+                  <c:v>0.90839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92146499999999998</c:v>
+                  <c:v>0.92232499999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93528199999999995</c:v>
+                  <c:v>0.93643299999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94953600000000005</c:v>
+                  <c:v>0.95075699999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.963507</c:v>
+                  <c:v>0.96538800000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97733800000000004</c:v>
+                  <c:v>0.98063</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99172700000000003</c:v>
+                  <c:v>0.99851199999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.019396</c:v>
+                  <c:v>1.015325</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0353399999999999</c:v>
+                  <c:v>1.0331239999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.050241</c:v>
+                  <c:v>1.0490630000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0655969999999999</c:v>
+                  <c:v>1.0646009999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0806100000000001</c:v>
+                  <c:v>1.0800259999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.096001</c:v>
+                  <c:v>1.095437</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.111202</c:v>
+                  <c:v>1.1108739999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1267119999999999</c:v>
+                  <c:v>1.1263570000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1420939999999999</c:v>
+                  <c:v>1.1418969999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.157737</c:v>
+                  <c:v>1.1574979999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.173284</c:v>
+                  <c:v>1.17316</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1889110000000001</c:v>
+                  <c:v>1.188885</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2047479999999999</c:v>
+                  <c:v>1.204671</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.22051</c:v>
+                  <c:v>1.2205159999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.236461</c:v>
+                  <c:v>1.2364170000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.252348</c:v>
+                  <c:v>1.252372</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.268295</c:v>
+                  <c:v>1.268378</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.284402</c:v>
+                  <c:v>1.2844310000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3004530000000001</c:v>
+                  <c:v>1.300529</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3165519999999999</c:v>
+                  <c:v>1.3166679999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3327850000000001</c:v>
+                  <c:v>1.3328450000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.348965</c:v>
+                  <c:v>1.349057</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.365181</c:v>
+                  <c:v>1.3653</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.3814299999999999</c:v>
+                  <c:v>1.381572</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.397783</c:v>
+                  <c:v>1.3978680000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4140820000000001</c:v>
+                  <c:v>1.414185</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.430404</c:v>
+                  <c:v>1.4305209999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4467429999999999</c:v>
+                  <c:v>1.4468719999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.463096</c:v>
+                  <c:v>1.4632350000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4794620000000001</c:v>
+                  <c:v>1.4796069999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.4958370000000001</c:v>
+                  <c:v>1.4959849999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5122169999999999</c:v>
+                  <c:v>1.512367</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.5286</c:v>
+                  <c:v>1.528748</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5449820000000001</c:v>
+                  <c:v>1.5451280000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.5613589999999999</c:v>
+                  <c:v>1.5615030000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.5777319999999999</c:v>
+                  <c:v>1.5778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.594096</c:v>
+                  <c:v>1.5942259999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.6104480000000001</c:v>
+                  <c:v>1.610571</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6267879999999999</c:v>
+                  <c:v>1.6269</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6430579999999999</c:v>
+                  <c:v>1.6432119999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.6593640000000001</c:v>
+                  <c:v>1.659505</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6756489999999999</c:v>
+                  <c:v>1.6757759999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.691862</c:v>
+                  <c:v>1.692024</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7081010000000001</c:v>
+                  <c:v>1.7082459999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.724315</c:v>
+                  <c:v>1.7244409999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7404520000000001</c:v>
+                  <c:v>1.7406060000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7566059999999999</c:v>
+                  <c:v>1.7567410000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7726850000000001</c:v>
+                  <c:v>1.772842</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7887740000000001</c:v>
+                  <c:v>1.78891</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.8047850000000001</c:v>
+                  <c:v>1.804942</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.820762</c:v>
+                  <c:v>1.8209360000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.836743</c:v>
+                  <c:v>1.836892</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.8526450000000001</c:v>
+                  <c:v>1.852808</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.868506</c:v>
+                  <c:v>1.8686830000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.884328</c:v>
+                  <c:v>1.8845160000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9001459999999999</c:v>
+                  <c:v>1.9003049999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9158820000000001</c:v>
+                  <c:v>1.9160489999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.9315739999999999</c:v>
+                  <c:v>1.931748</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.94722</c:v>
+                  <c:v>1.9474009999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9628209999999999</c:v>
+                  <c:v>1.963006</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.978375</c:v>
+                  <c:v>1.9785630000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.9938800000000001</c:v>
+                  <c:v>1.9940709999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0093380000000001</c:v>
+                  <c:v>2.0095299999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.0247459999999999</c:v>
+                  <c:v>2.0249380000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.0401039999999999</c:v>
+                  <c:v>2.040295</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.055412</c:v>
+                  <c:v>2.0556000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.0706660000000001</c:v>
+                  <c:v>2.0708530000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.0858370000000002</c:v>
+                  <c:v>2.0860539999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1009899999999999</c:v>
+                  <c:v>2.1012019999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.1160899999999998</c:v>
+                  <c:v>2.1162960000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.1311360000000001</c:v>
+                  <c:v>2.1313360000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.1460970000000001</c:v>
+                  <c:v>2.1463220000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.1610360000000002</c:v>
+                  <c:v>2.1612529999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.1758929999999999</c:v>
+                  <c:v>2.1761300000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.1873209999999998</c:v>
+                  <c:v>2.1761300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11029,6 +10737,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11134,6 +10843,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11213,10 +10923,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74781149762229915"/>
-          <c:y val="0.17728555835239346"/>
-          <c:w val="0.22569404223595366"/>
-          <c:h val="0.1808357423023422"/>
+          <c:x val="0.67103307756398933"/>
+          <c:y val="0.52832358908794008"/>
+          <c:w val="0.26291988149264167"/>
+          <c:h val="0.24706922947143778"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11295,7 +11005,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11329,6 +11039,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13009,307 +12720,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.73812199999999994</c:v>
+                  <c:v>0.73800100000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73089099999999996</c:v>
+                  <c:v>0.73078200000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72367899999999996</c:v>
+                  <c:v>0.72358199999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.716387</c:v>
+                  <c:v>0.71625499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70892500000000003</c:v>
+                  <c:v>0.70880299999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70133900000000005</c:v>
+                  <c:v>0.70122700000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69369000000000003</c:v>
+                  <c:v>0.69352999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68587299999999995</c:v>
+                  <c:v>0.68571599999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67794399999999999</c:v>
+                  <c:v>0.67778700000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66990700000000003</c:v>
+                  <c:v>0.66974800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66176699999999999</c:v>
+                  <c:v>0.66160200000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.653528</c:v>
+                  <c:v>0.65335299999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64519599999999999</c:v>
+                  <c:v>0.645007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63677600000000001</c:v>
+                  <c:v>0.63656699999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62827299999999997</c:v>
+                  <c:v>0.62803799999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.61969600000000002</c:v>
+                  <c:v>0.619425</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.61104899999999995</c:v>
+                  <c:v>0.61073299999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.60234200000000004</c:v>
+                  <c:v>0.601966</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59345199999999998</c:v>
+                  <c:v>0.59312799999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.58463600000000004</c:v>
+                  <c:v>0.58422200000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.575789</c:v>
+                  <c:v>0.57524900000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.56692799999999999</c:v>
+                  <c:v>0.56620400000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55782699999999996</c:v>
+                  <c:v>0.55707099999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54896699999999998</c:v>
+                  <c:v>0.54779999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.54024700000000003</c:v>
+                  <c:v>0.53821200000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.53122999999999998</c:v>
+                  <c:v>0.52707999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.51426300000000003</c:v>
+                  <c:v>0.51674500000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50461500000000004</c:v>
+                  <c:v>0.50595500000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.495666</c:v>
+                  <c:v>0.49638199999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.48653600000000002</c:v>
+                  <c:v>0.48713499999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.477682</c:v>
+                  <c:v>0.47804099999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.46870400000000001</c:v>
+                  <c:v>0.46904600000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.45991799999999999</c:v>
+                  <c:v>0.46012799999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.45105800000000001</c:v>
+                  <c:v>0.45127800000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.442359</c:v>
+                  <c:v>0.442494</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.43362499999999998</c:v>
+                  <c:v>0.433778</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.42503800000000003</c:v>
+                  <c:v>0.42513200000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.416514</c:v>
+                  <c:v>0.41655999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.40799600000000003</c:v>
+                  <c:v>0.40806500000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.39961999999999998</c:v>
+                  <c:v>0.39965099999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.39127099999999998</c:v>
+                  <c:v>0.391322</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.38306099999999998</c:v>
+                  <c:v>0.38308199999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.37494</c:v>
+                  <c:v>0.37493599999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.36686999999999997</c:v>
+                  <c:v>0.36688700000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35893999999999998</c:v>
+                  <c:v>0.35893900000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.35111100000000001</c:v>
+                  <c:v>0.35109499999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.34335199999999999</c:v>
+                  <c:v>0.34335700000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.33573700000000001</c:v>
+                  <c:v>0.33572999999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.32823099999999999</c:v>
+                  <c:v>0.32821499999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.32083899999999999</c:v>
+                  <c:v>0.32081599999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.31353599999999998</c:v>
+                  <c:v>0.31353300000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.30637799999999998</c:v>
+                  <c:v>0.30636999999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.29933999999999999</c:v>
+                  <c:v>0.29932700000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.29242299999999999</c:v>
+                  <c:v>0.292406</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.28562799999999999</c:v>
+                  <c:v>0.285609</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.27895599999999998</c:v>
+                  <c:v>0.27893499999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.27240799999999998</c:v>
+                  <c:v>0.27238699999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.26598500000000003</c:v>
+                  <c:v>0.26596399999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.259687</c:v>
+                  <c:v>0.25966600000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.25351400000000002</c:v>
+                  <c:v>0.25349500000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.24746499999999999</c:v>
+                  <c:v>0.247449</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.24154300000000001</c:v>
+                  <c:v>0.24152799999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.23574400000000001</c:v>
+                  <c:v>0.235732</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.23007</c:v>
+                  <c:v>0.23005999999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.22452</c:v>
+                  <c:v>0.22451199999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.21910299999999999</c:v>
+                  <c:v>0.219086</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.21379500000000001</c:v>
+                  <c:v>0.213781</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.20860799999999999</c:v>
+                  <c:v>0.208597</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.20354900000000001</c:v>
+                  <c:v>0.20353199999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.198597</c:v>
+                  <c:v>0.19858500000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.19376299999999999</c:v>
+                  <c:v>0.19375300000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.189051</c:v>
+                  <c:v>0.18903700000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.18444199999999999</c:v>
+                  <c:v>0.18443300000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.179954</c:v>
+                  <c:v>0.17993999999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.175566</c:v>
+                  <c:v>0.17555699999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.171294</c:v>
+                  <c:v>0.17128199999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.167127</c:v>
+                  <c:v>0.16711200000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.16305600000000001</c:v>
+                  <c:v>0.163046</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.15909499999999999</c:v>
+                  <c:v>0.159082</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.15523200000000001</c:v>
+                  <c:v>0.15521799999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.15146799999999999</c:v>
+                  <c:v>0.151453</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.14779300000000001</c:v>
+                  <c:v>0.147783</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.14421900000000001</c:v>
+                  <c:v>0.144207</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.140736</c:v>
+                  <c:v>0.14072399999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.13734299999999999</c:v>
+                  <c:v>0.13733000000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.13403799999999999</c:v>
+                  <c:v>0.13402500000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.13081899999999999</c:v>
+                  <c:v>0.130805</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.12768299999999999</c:v>
+                  <c:v>0.12767000000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.124629</c:v>
+                  <c:v>0.12461700000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.121656</c:v>
+                  <c:v>0.121644</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.11876100000000001</c:v>
+                  <c:v>0.11874899999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.115942</c:v>
+                  <c:v>0.11593100000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.11319700000000001</c:v>
+                  <c:v>0.11318599999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.110528</c:v>
+                  <c:v>0.110515</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.107927</c:v>
+                  <c:v>0.107914</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.105394</c:v>
+                  <c:v>0.105382</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.10292900000000001</c:v>
+                  <c:v>0.102918</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.100532</c:v>
+                  <c:v>0.100518</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.8195000000000005E-2</c:v>
+                  <c:v>9.8183000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.5922999999999994E-2</c:v>
+                  <c:v>9.5908999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.4E-2</c:v>
+                  <c:v>9.5908999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13369,6 +13080,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13474,6 +13186,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13555,8 +13268,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.6124597653193169"/>
           <c:y val="0.17728557134026493"/>
-          <c:w val="0.26298259122263284"/>
-          <c:h val="0.1808357423023422"/>
+          <c:w val="0.33045449315973946"/>
+          <c:h val="0.26031239928533656"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -13635,7 +13348,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13674,6 +13387,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15357,304 +15071,304 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99983699999999998</c:v>
+                  <c:v>0.99984399999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99973000000000001</c:v>
+                  <c:v>0.99974200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99963400000000002</c:v>
+                  <c:v>0.99963599999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99951599999999996</c:v>
+                  <c:v>0.99952300000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99938899999999997</c:v>
+                  <c:v>0.99940499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.999278</c:v>
+                  <c:v>0.99928099999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99914400000000003</c:v>
+                  <c:v>0.99914999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99900500000000003</c:v>
+                  <c:v>0.99901399999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.998861</c:v>
+                  <c:v>0.99887199999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99871100000000002</c:v>
+                  <c:v>0.99872499999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99855700000000003</c:v>
+                  <c:v>0.99857200000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99839900000000004</c:v>
+                  <c:v>0.99841299999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99823499999999998</c:v>
+                  <c:v>0.99824900000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99806799999999996</c:v>
+                  <c:v>0.99807999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99789600000000001</c:v>
+                  <c:v>0.99790699999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99772099999999997</c:v>
+                  <c:v>0.99772799999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99754100000000001</c:v>
+                  <c:v>0.99754600000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99733799999999995</c:v>
+                  <c:v>0.997359</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99715299999999996</c:v>
+                  <c:v>0.99716899999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99696399999999996</c:v>
+                  <c:v>0.99697499999999994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99677300000000002</c:v>
+                  <c:v>0.99677800000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99656</c:v>
+                  <c:v>0.99657899999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99636499999999995</c:v>
+                  <c:v>0.99637799999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.996166</c:v>
+                  <c:v>0.99617800000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99594800000000006</c:v>
+                  <c:v>0.99599499999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99588699999999997</c:v>
+                  <c:v>0.99589799999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99588500000000002</c:v>
+                  <c:v>0.995892</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99585800000000002</c:v>
+                  <c:v>0.99588200000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99585000000000001</c:v>
+                  <c:v>0.99587000000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99581699999999995</c:v>
+                  <c:v>0.99585400000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99580299999999999</c:v>
+                  <c:v>0.995834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99576500000000001</c:v>
+                  <c:v>0.995811</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99574499999999999</c:v>
+                  <c:v>0.99578500000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.995699</c:v>
+                  <c:v>0.99575400000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99567300000000003</c:v>
+                  <c:v>0.99572099999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99561999999999995</c:v>
+                  <c:v>0.99568299999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99556500000000003</c:v>
+                  <c:v>0.995641</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.995529</c:v>
+                  <c:v>0.99559600000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.99546400000000002</c:v>
+                  <c:v>0.99554699999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.99542299999999995</c:v>
+                  <c:v>0.99549399999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99535099999999999</c:v>
+                  <c:v>0.99543700000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99527600000000005</c:v>
+                  <c:v>0.99537699999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99522500000000003</c:v>
+                  <c:v>0.99531199999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.995143</c:v>
+                  <c:v>0.99524400000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.995062</c:v>
+                  <c:v>0.99517199999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99499800000000005</c:v>
+                  <c:v>0.99509599999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99490999999999996</c:v>
+                  <c:v>0.99501700000000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99481600000000003</c:v>
+                  <c:v>0.99493399999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99472300000000002</c:v>
+                  <c:v>0.99484700000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.99464699999999995</c:v>
+                  <c:v>0.994757</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99454799999999999</c:v>
+                  <c:v>0.99466299999999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99444600000000005</c:v>
+                  <c:v>0.99456599999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99434199999999995</c:v>
+                  <c:v>0.99446599999999996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99423099999999998</c:v>
+                  <c:v>0.994363</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99412199999999995</c:v>
+                  <c:v>0.99425600000000003</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99400999999999995</c:v>
+                  <c:v>0.99414599999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.99389700000000003</c:v>
+                  <c:v>0.99403399999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99378100000000003</c:v>
+                  <c:v>0.99391799999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99366200000000005</c:v>
+                  <c:v>0.99380000000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.993537</c:v>
+                  <c:v>0.99367899999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99341400000000002</c:v>
+                  <c:v>0.99355499999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99329000000000001</c:v>
+                  <c:v>0.99342900000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99316400000000005</c:v>
+                  <c:v>0.99330099999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99304099999999995</c:v>
+                  <c:v>0.99317</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.99288900000000002</c:v>
+                  <c:v>0.99303799999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99275800000000003</c:v>
+                  <c:v>0.99290299999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99262499999999998</c:v>
+                  <c:v>0.99276600000000004</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99246900000000005</c:v>
+                  <c:v>0.99262799999999995</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99233400000000005</c:v>
+                  <c:v>0.99248700000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99220399999999997</c:v>
+                  <c:v>0.99234599999999995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99204400000000004</c:v>
+                  <c:v>0.99220200000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99190599999999995</c:v>
+                  <c:v>0.99205699999999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99175100000000005</c:v>
+                  <c:v>0.99191099999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99161100000000002</c:v>
+                  <c:v>0.99176399999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99144900000000002</c:v>
+                  <c:v>0.99161600000000005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99129299999999998</c:v>
+                  <c:v>0.99146599999999996</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.99115200000000003</c:v>
+                  <c:v>0.99131599999999997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.99099499999999996</c:v>
+                  <c:v>0.99116400000000004</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.99083200000000005</c:v>
+                  <c:v>0.99101300000000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.99067499999999997</c:v>
+                  <c:v>0.99085999999999996</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.990533</c:v>
+                  <c:v>0.990707</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.99037600000000003</c:v>
+                  <c:v>0.99055300000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.99021899999999996</c:v>
+                  <c:v>0.99039900000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.99005600000000005</c:v>
+                  <c:v>0.99024400000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.9899</c:v>
+                  <c:v>0.990089</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.98974499999999999</c:v>
+                  <c:v>0.98993399999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.98958299999999999</c:v>
+                  <c:v>0.98977899999999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.98942799999999997</c:v>
+                  <c:v>0.98962399999999995</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.98927399999999999</c:v>
+                  <c:v>0.98946900000000004</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.98912</c:v>
+                  <c:v>0.98931400000000003</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.98896600000000001</c:v>
+                  <c:v>0.98915900000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.98880699999999999</c:v>
+                  <c:v>0.98900399999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.98863599999999996</c:v>
+                  <c:v>0.98884899999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.98848499999999995</c:v>
+                  <c:v>0.98869499999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.98833499999999996</c:v>
+                  <c:v>0.988541</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.98818499999999998</c:v>
+                  <c:v>0.98838700000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.98801700000000003</c:v>
+                  <c:v>0.98823399999999995</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.987869</c:v>
+                  <c:v>0.98808099999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.98770599999999997</c:v>
+                  <c:v>0.98792899999999995</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.98536800000000002</c:v>
+                  <c:v>0.98792899999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15714,6 +15428,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15819,6 +15534,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17993,26 +17709,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="18210" topLeftCell="A7"/>
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="51048" topLeftCell="A7"/>
+      <selection activeCell="AD13" sqref="AD13"/>
       <selection pane="bottomLeft" activeCell="P109" sqref="P109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18041,7 +17757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18070,7 +17786,7 @@
         <v>0.3173507452317274</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G5" s="13"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -18090,7 +17806,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -18146,7 +17862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18199,17 +17915,17 @@
       <c r="O7" s="7">
         <v>1</v>
       </c>
-      <c r="P7" s="6">
-        <v>0.67318800000000001</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0.73810799999999999</v>
-      </c>
-      <c r="R7" s="7">
+      <c r="P7">
+        <v>0.67335599999999995</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0.73800100000000002</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>A7+1</f>
         <v>2</v>
@@ -18263,17 +17979,17 @@
       <c r="O8" s="7">
         <v>0.99997599999999998</v>
       </c>
-      <c r="P8" s="6">
-        <v>0.68431399999999998</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0.73087899999999995</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0.99983900000000003</v>
+      <c r="P8">
+        <v>0.68447199999999997</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.73078200000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.99984399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ref="A9:A72" si="4">A8+1</f>
         <v>3</v>
@@ -18327,17 +18043,17 @@
       <c r="O9" s="7">
         <v>1.0000089999999999</v>
       </c>
-      <c r="P9" s="6">
-        <v>0.695434</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0.72367000000000004</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0.99973199999999995</v>
+      <c r="P9">
+        <v>0.69558299999999995</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.72358199999999995</v>
+      </c>
+      <c r="R9">
+        <v>0.99974200000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -18391,17 +18107,17 @@
       <c r="O10" s="7">
         <v>1.000046</v>
       </c>
-      <c r="P10" s="6">
-        <v>0.70665900000000004</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0.71638000000000002</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0.99963800000000003</v>
+      <c r="P10">
+        <v>0.70684899999999995</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.716256</v>
+      </c>
+      <c r="R10">
+        <v>0.99963599999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -18455,17 +18171,17 @@
       <c r="O11" s="7">
         <v>1.000065</v>
       </c>
-      <c r="P11" s="6">
-        <v>0.71809100000000003</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0.70891999999999999</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0.99951999999999996</v>
+      <c r="P11">
+        <v>0.71827399999999997</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.70880299999999996</v>
+      </c>
+      <c r="R11">
+        <v>0.99952300000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -18519,17 +18235,17 @@
       <c r="O12" s="7">
         <v>1.000068</v>
       </c>
-      <c r="P12" s="6">
-        <v>0.72967899999999997</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0.70133599999999996</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0.99939500000000003</v>
+      <c r="P12">
+        <v>0.72985800000000001</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.70122700000000004</v>
+      </c>
+      <c r="R12">
+        <v>0.99940499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -18583,17 +18299,17 @@
       <c r="O13" s="7">
         <v>1.0000640000000001</v>
       </c>
-      <c r="P13" s="6">
-        <v>0.74136000000000002</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0.693689</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0.99928499999999998</v>
+      <c r="P13">
+        <v>0.74159900000000001</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.69352999999999998</v>
+      </c>
+      <c r="R13">
+        <v>0.99928099999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -18647,17 +18363,17 @@
       <c r="O14" s="7">
         <v>1.0000579999999999</v>
       </c>
-      <c r="P14" s="6">
-        <v>0.75325699999999995</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0.68587399999999998</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0.99915200000000004</v>
+      <c r="P14">
+        <v>0.753498</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.68571599999999999</v>
+      </c>
+      <c r="R14">
+        <v>0.99914999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -18711,17 +18427,17 @@
       <c r="O15" s="7">
         <v>1.0000560000000001</v>
       </c>
-      <c r="P15" s="6">
-        <v>0.76530799999999999</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0.67794699999999997</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="P15">
+        <v>0.76555399999999996</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.67778700000000003</v>
+      </c>
+      <c r="R15">
         <v>0.99901399999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -18775,17 +18491,17 @@
       <c r="O16" s="7">
         <v>1.0000549999999999</v>
       </c>
-      <c r="P16" s="6">
-        <v>0.77751199999999998</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0.66991299999999998</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0.99887099999999995</v>
+      <c r="P16">
+        <v>0.77776699999999999</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.66974800000000001</v>
+      </c>
+      <c r="R16">
+        <v>0.99887199999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -18839,17 +18555,17 @@
       <c r="O17" s="7">
         <v>1.000057</v>
       </c>
-      <c r="P17" s="6">
-        <v>0.78986800000000001</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0.661775</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0.998722</v>
+      <c r="P17">
+        <v>0.79013699999999998</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.66160200000000002</v>
+      </c>
+      <c r="R17">
+        <v>0.99872499999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -18903,17 +18619,17 @@
       <c r="O18" s="7">
         <v>1.0000579999999999</v>
       </c>
-      <c r="P18" s="6">
-        <v>0.80237499999999995</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0.65353799999999995</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0.99856900000000004</v>
+      <c r="P18">
+        <v>0.80266099999999996</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0.65335399999999999</v>
+      </c>
+      <c r="R18">
+        <v>0.99857200000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -18967,17 +18683,17 @@
       <c r="O19" s="7">
         <v>1.0000599999999999</v>
       </c>
-      <c r="P19" s="6">
-        <v>0.815029</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0.645208</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0.99841100000000005</v>
+      <c r="P19">
+        <v>0.81533999999999995</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.645007</v>
+      </c>
+      <c r="R19">
+        <v>0.99841299999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -19031,17 +18747,17 @@
       <c r="O20" s="7">
         <v>1.0000610000000001</v>
       </c>
-      <c r="P20" s="6">
-        <v>0.82782999999999995</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0.63678999999999997</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0.99824800000000002</v>
+      <c r="P20">
+        <v>0.82817399999999997</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.63656699999999999</v>
+      </c>
+      <c r="R20">
+        <v>0.99824900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -19095,17 +18811,17 @@
       <c r="O21" s="7">
         <v>1.0000629999999999</v>
       </c>
-      <c r="P21" s="6">
-        <v>0.84077400000000002</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0.62828899999999999</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0.998081</v>
+      <c r="P21">
+        <v>0.84116100000000005</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.62803799999999999</v>
+      </c>
+      <c r="R21">
+        <v>0.99807999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -19159,17 +18875,17 @@
       <c r="O22" s="7">
         <v>1.0000640000000001</v>
       </c>
-      <c r="P22" s="6">
-        <v>0.85385900000000003</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0.61971299999999996</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0.99790999999999996</v>
+      <c r="P22">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0.61942600000000003</v>
+      </c>
+      <c r="R22">
+        <v>0.99790699999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -19223,17 +18939,17 @@
       <c r="O23" s="7">
         <v>1.0000640000000001</v>
       </c>
-      <c r="P23" s="6">
-        <v>0.86707999999999996</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0.61106799999999994</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0.99773500000000004</v>
+      <c r="P23">
+        <v>0.86759299999999995</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0.61073299999999997</v>
+      </c>
+      <c r="R23">
+        <v>0.99772799999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -19287,17 +19003,17 @@
       <c r="O24" s="7">
         <v>1.000065</v>
       </c>
-      <c r="P24" s="6">
-        <v>0.88043300000000002</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0.60236199999999995</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0.997556</v>
+      <c r="P24">
+        <v>0.88103900000000002</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0.601966</v>
+      </c>
+      <c r="R24">
+        <v>0.99754600000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -19351,17 +19067,17 @@
       <c r="O25" s="7">
         <v>1.0000659999999999</v>
       </c>
-      <c r="P25" s="6">
-        <v>0.89409899999999998</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0.593472</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0.99735300000000005</v>
+      <c r="P25">
+        <v>0.89463999999999999</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.59312900000000002</v>
+      </c>
+      <c r="R25">
+        <v>0.997359</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -19415,17 +19131,17 @@
       <c r="O26" s="7">
         <v>1.000068</v>
       </c>
-      <c r="P26" s="6">
-        <v>0.90771999999999997</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0.58465500000000004</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0.99716800000000005</v>
+      <c r="P26">
+        <v>0.90839899999999996</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.58422300000000005</v>
+      </c>
+      <c r="R26">
+        <v>0.99716899999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -19479,17 +19195,17 @@
       <c r="O27" s="7">
         <v>1.0000690000000001</v>
       </c>
-      <c r="P27" s="6">
-        <v>0.92144999999999999</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0.57580699999999996</v>
-      </c>
-      <c r="R27" s="7">
-        <v>0.99697800000000003</v>
+      <c r="P27">
+        <v>0.92232499999999995</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0.57524900000000001</v>
+      </c>
+      <c r="R27">
+        <v>0.99697499999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -19543,17 +19259,17 @@
       <c r="O28" s="7">
         <v>1.00007</v>
       </c>
-      <c r="P28" s="6">
-        <v>0.93527300000000002</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0.56694199999999995</v>
-      </c>
-      <c r="R28" s="7">
-        <v>0.99678800000000001</v>
+      <c r="P28">
+        <v>0.93643200000000004</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0.56620400000000004</v>
+      </c>
+      <c r="R28">
+        <v>0.99677800000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -19607,17 +19323,17 @@
       <c r="O29" s="7">
         <v>1.0000709999999999</v>
       </c>
-      <c r="P29" s="6">
-        <v>0.94953900000000002</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0.55783300000000002</v>
-      </c>
-      <c r="R29" s="7">
-        <v>0.99657399999999996</v>
+      <c r="P29">
+        <v>0.95075600000000005</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0.55707099999999998</v>
+      </c>
+      <c r="R29">
+        <v>0.99657899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -19671,17 +19387,17 @@
       <c r="O30" s="7">
         <v>1.0000720000000001</v>
       </c>
-      <c r="P30" s="6">
-        <v>0.963534</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0.54895700000000003</v>
-      </c>
-      <c r="R30" s="7">
+      <c r="P30">
+        <v>0.965387</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="R30">
         <v>0.99637799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -19735,17 +19451,17 @@
       <c r="O31" s="7">
         <v>1.000073</v>
       </c>
-      <c r="P31" s="6">
-        <v>0.97741800000000001</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>0.54020400000000002</v>
-      </c>
-      <c r="R31" s="7">
-        <v>0.99617900000000004</v>
+      <c r="P31">
+        <v>0.98062899999999997</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0.53821200000000002</v>
+      </c>
+      <c r="R31">
+        <v>0.99617699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -19799,17 +19515,17 @@
       <c r="O32" s="7">
         <v>1.0000739999999999</v>
       </c>
-      <c r="P32" s="6">
-        <v>0.99099599999999999</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>0.53169100000000002</v>
-      </c>
-      <c r="R32" s="7">
-        <v>0.99596899999999999</v>
+      <c r="P32">
+        <v>0.99851000000000001</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0.52708100000000002</v>
+      </c>
+      <c r="R32">
+        <v>0.99599499999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -19863,17 +19579,17 @@
       <c r="O33" s="7">
         <v>1.0000739999999999</v>
       </c>
-      <c r="P33" s="6">
-        <v>1.0192639999999999</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0.51434999999999997</v>
-      </c>
-      <c r="R33" s="7">
-        <v>0.99589899999999998</v>
+      <c r="P33">
+        <v>1.015323</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0.51674600000000004</v>
+      </c>
+      <c r="R33">
+        <v>0.99589799999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -19927,17 +19643,17 @@
       <c r="O34" s="7">
         <v>1.0000739999999999</v>
       </c>
-      <c r="P34" s="6">
-        <v>1.0353619999999999</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0.50461</v>
-      </c>
-      <c r="R34" s="7">
-        <v>0.99590000000000001</v>
+      <c r="P34">
+        <v>1.033123</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0.50595500000000004</v>
+      </c>
+      <c r="R34">
+        <v>0.995892</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -19991,17 +19707,17 @@
       <c r="O35" s="7">
         <v>1.0000739999999999</v>
       </c>
-      <c r="P35" s="6">
-        <v>1.0508519999999999</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>0.49532300000000001</v>
-      </c>
-      <c r="R35" s="7">
-        <v>0.99590199999999995</v>
+      <c r="P35">
+        <v>1.0490619999999999</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0.49638199999999999</v>
+      </c>
+      <c r="R35">
+        <v>0.99588200000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -20055,17 +19771,17 @@
       <c r="O36" s="7">
         <v>1.000073</v>
       </c>
-      <c r="P36" s="6">
-        <v>1.065831</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0.48641200000000001</v>
-      </c>
-      <c r="R36" s="7">
-        <v>0.99587999999999999</v>
+      <c r="P36">
+        <v>1.0646</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0.48713499999999998</v>
+      </c>
+      <c r="R36">
+        <v>0.995869</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -20119,17 +19835,17 @@
       <c r="O37" s="7">
         <v>1.000075</v>
       </c>
-      <c r="P37" s="6">
-        <v>1.0808960000000001</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0.47753200000000001</v>
-      </c>
-      <c r="R37" s="7">
-        <v>0.99585400000000002</v>
+      <c r="P37">
+        <v>1.080025</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0.47804200000000002</v>
+      </c>
+      <c r="R37">
+        <v>0.99585299999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -20183,17 +19899,17 @@
       <c r="O38" s="7">
         <v>1.0000819999999999</v>
       </c>
-      <c r="P38" s="6">
-        <v>1.0963229999999999</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>0.46853899999999998</v>
-      </c>
-      <c r="R38" s="7">
-        <v>0.99584799999999996</v>
+      <c r="P38">
+        <v>1.0954360000000001</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0.46904699999999999</v>
+      </c>
+      <c r="R38">
+        <v>0.995834</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -20247,17 +19963,17 @@
       <c r="O39" s="7">
         <v>1.000097</v>
       </c>
-      <c r="P39" s="6">
-        <v>1.1115470000000001</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>0.45974399999999999</v>
-      </c>
-      <c r="R39" s="7">
-        <v>0.99581600000000003</v>
+      <c r="P39">
+        <v>1.110873</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0.46012799999999998</v>
+      </c>
+      <c r="R39">
+        <v>0.995811</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -20311,17 +20027,17 @@
       <c r="O40" s="7">
         <v>1.0001230000000001</v>
       </c>
-      <c r="P40" s="6">
-        <v>1.1270720000000001</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>0.45088099999999998</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0.99580299999999999</v>
+      <c r="P40">
+        <v>1.1263559999999999</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0.45127800000000001</v>
+      </c>
+      <c r="R40">
+        <v>0.995784</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -20375,17 +20091,17 @@
       <c r="O41" s="7">
         <v>1.000157</v>
       </c>
-      <c r="P41" s="6">
-        <v>1.1424620000000001</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>0.44218099999999999</v>
-      </c>
-      <c r="R41" s="7">
-        <v>0.99576200000000004</v>
+      <c r="P41">
+        <v>1.141896</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0.44249500000000003</v>
+      </c>
+      <c r="R41">
+        <v>0.99575400000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -20439,17 +20155,17 @@
       <c r="O42" s="7">
         <v>1.000186</v>
       </c>
-      <c r="P42" s="6">
-        <v>1.15811</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>0.433448</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0.99574200000000002</v>
+      <c r="P42">
+        <v>1.157497</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0.43377900000000003</v>
+      </c>
+      <c r="R42">
+        <v>0.99572000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -20503,17 +20219,17 @@
       <c r="O43" s="7">
         <v>1.000178</v>
       </c>
-      <c r="P43" s="6">
-        <v>1.173659</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>0.42486400000000002</v>
-      </c>
-      <c r="R43" s="7">
-        <v>0.99569399999999997</v>
+      <c r="P43">
+        <v>1.1731590000000001</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0.42513299999999998</v>
+      </c>
+      <c r="R43">
+        <v>0.99568299999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -20567,17 +20283,17 @@
       <c r="O44" s="7">
         <v>1.000089</v>
       </c>
-      <c r="P44" s="6">
-        <v>1.189433</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>0.41627500000000001</v>
-      </c>
-      <c r="R44" s="7">
-        <v>0.995668</v>
+      <c r="P44">
+        <v>1.1888840000000001</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0.41655999999999999</v>
+      </c>
+      <c r="R44">
+        <v>0.995641</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -20631,17 +20347,17 @@
       <c r="O45" s="7">
         <v>0.99988299999999997</v>
       </c>
-      <c r="P45" s="6">
-        <v>1.20513</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>0.407827</v>
-      </c>
-      <c r="R45" s="7">
-        <v>0.99561299999999997</v>
+      <c r="P45">
+        <v>1.2046699999999999</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0.40806500000000001</v>
+      </c>
+      <c r="R45">
+        <v>0.99559600000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -20695,17 +20411,17 @@
       <c r="O46" s="7">
         <v>0.99959600000000004</v>
       </c>
-      <c r="P46" s="6">
-        <v>1.2208969999999999</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>0.399453</v>
-      </c>
-      <c r="R46" s="7">
-        <v>0.99555400000000005</v>
+      <c r="P46">
+        <v>1.220515</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0.39965099999999998</v>
+      </c>
+      <c r="R46">
+        <v>0.99554699999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -20759,17 +20475,17 @@
       <c r="O47" s="7">
         <v>0.99943800000000005</v>
       </c>
-      <c r="P47" s="6">
-        <v>1.2368509999999999</v>
-      </c>
-      <c r="Q47" s="6">
-        <v>0.39110499999999998</v>
-      </c>
-      <c r="R47" s="7">
-        <v>0.99551599999999996</v>
+      <c r="P47">
+        <v>1.236416</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0.391322</v>
+      </c>
+      <c r="R47">
+        <v>0.99549399999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -20823,17 +20539,17 @@
       <c r="O48" s="7">
         <v>0.99981200000000003</v>
       </c>
-      <c r="P48" s="6">
-        <v>1.2527429999999999</v>
-      </c>
-      <c r="Q48" s="6">
-        <v>0.38289800000000002</v>
-      </c>
-      <c r="R48" s="7">
-        <v>0.995452</v>
+      <c r="P48">
+        <v>1.2523709999999999</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>0.38308300000000001</v>
+      </c>
+      <c r="R48">
+        <v>0.99543700000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -20887,17 +20603,17 @@
       <c r="O49" s="7">
         <v>1.001163</v>
       </c>
-      <c r="P49" s="6">
-        <v>1.2687999999999999</v>
-      </c>
-      <c r="Q49" s="6">
-        <v>0.37473499999999998</v>
-      </c>
-      <c r="R49" s="7">
-        <v>0.99540600000000001</v>
+      <c r="P49">
+        <v>1.2683770000000001</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>0.37493700000000002</v>
+      </c>
+      <c r="R49">
+        <v>0.99537600000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -20951,17 +20667,17 @@
       <c r="O50" s="7">
         <v>1.003738</v>
       </c>
-      <c r="P50" s="6">
-        <v>1.2847999999999999</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>0.36671300000000001</v>
-      </c>
-      <c r="R50" s="7">
-        <v>0.99533499999999997</v>
+      <c r="P50">
+        <v>1.28443</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0.36688799999999999</v>
+      </c>
+      <c r="R50">
+        <v>0.99531199999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -21015,17 +20731,17 @@
       <c r="O51" s="7">
         <v>1.0071129999999999</v>
       </c>
-      <c r="P51" s="6">
-        <v>1.300851</v>
-      </c>
-      <c r="Q51" s="6">
-        <v>0.35878700000000002</v>
-      </c>
-      <c r="R51" s="7">
-        <v>0.99525799999999998</v>
+      <c r="P51">
+        <v>1.3005279999999999</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>0.35893900000000001</v>
+      </c>
+      <c r="R51">
+        <v>0.99524400000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -21079,17 +20795,17 @@
       <c r="O52" s="7">
         <v>1.0085770000000001</v>
       </c>
-      <c r="P52" s="6">
-        <v>1.3170029999999999</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>0.35094199999999998</v>
-      </c>
-      <c r="R52" s="7">
-        <v>0.99519400000000002</v>
+      <c r="P52">
+        <v>1.316667</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0.35109499999999999</v>
+      </c>
+      <c r="R52">
+        <v>0.99517199999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -21143,17 +20859,17 @@
       <c r="O53" s="7">
         <v>1.001104</v>
       </c>
-      <c r="P53" s="6">
-        <v>1.339081</v>
-      </c>
-      <c r="Q53" s="6">
-        <v>0.34105099999999999</v>
-      </c>
-      <c r="R53" s="7">
-        <v>0.99694300000000002</v>
+      <c r="P53">
+        <v>1.3328450000000001</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>0.34335700000000002</v>
+      </c>
+      <c r="R53">
+        <v>0.99509599999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -21207,17 +20923,17 @@
       <c r="O54" s="7">
         <v>0.97677000000000003</v>
       </c>
-      <c r="P54" s="6">
-        <v>0.71021999999999996</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>0.70121</v>
-      </c>
-      <c r="R54" s="7">
-        <v>0.98161600000000004</v>
+      <c r="P54">
+        <v>0.71744699999999995</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0.69505700000000004</v>
+      </c>
+      <c r="R54">
+        <v>0.97940000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -21271,17 +20987,17 @@
       <c r="O55" s="7">
         <v>0.94658299999999995</v>
       </c>
-      <c r="P55" s="6">
-        <v>0.75078999999999996</v>
-      </c>
-      <c r="Q55" s="6">
-        <v>0.66465600000000002</v>
-      </c>
-      <c r="R55" s="7">
-        <v>0.96598600000000001</v>
+      <c r="P55">
+        <v>0.75150600000000001</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0.66411799999999999</v>
+      </c>
+      <c r="R55">
+        <v>0.96585799999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -21335,17 +21051,17 @@
       <c r="O56" s="7">
         <v>0.93520599999999998</v>
       </c>
-      <c r="P56" s="6">
-        <v>0.73905299999999996</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>0.67153099999999999</v>
-      </c>
-      <c r="R56" s="7">
-        <v>0.96528400000000003</v>
+      <c r="P56">
+        <v>0.73912800000000001</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0.67150799999999999</v>
+      </c>
+      <c r="R56">
+        <v>0.96531900000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -21399,17 +21115,17 @@
       <c r="O57" s="7">
         <v>0.94570200000000004</v>
       </c>
-      <c r="P57" s="6">
-        <v>0.72543000000000002</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>0.67999100000000001</v>
-      </c>
-      <c r="R57" s="7">
-        <v>0.965194</v>
+      <c r="P57">
+        <v>0.72551399999999999</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0.67996100000000004</v>
+      </c>
+      <c r="R57">
+        <v>0.96522600000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -21463,17 +21179,17 @@
       <c r="O58" s="7">
         <v>0.96060800000000002</v>
       </c>
-      <c r="P58" s="6">
-        <v>0.71223000000000003</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>0.68816500000000003</v>
-      </c>
-      <c r="R58" s="7">
-        <v>0.96510600000000002</v>
+      <c r="P58">
+        <v>0.712337</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>0.688114</v>
+      </c>
+      <c r="R58">
+        <v>0.96512900000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -21527,17 +21243,17 @@
       <c r="O59" s="7">
         <v>0.96781700000000004</v>
       </c>
-      <c r="P59" s="6">
-        <v>0.69940199999999997</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>0.69608199999999998</v>
-      </c>
-      <c r="R59" s="7">
-        <v>0.96502200000000005</v>
+      <c r="P59">
+        <v>0.69952099999999995</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>0.69601999999999997</v>
+      </c>
+      <c r="R59">
+        <v>0.96503899999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -21591,17 +21307,17 @@
       <c r="O60" s="7">
         <v>0.96819200000000005</v>
       </c>
-      <c r="P60" s="6">
-        <v>0.68697299999999994</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>0.703712</v>
-      </c>
-      <c r="R60" s="7">
-        <v>0.96492199999999995</v>
+      <c r="P60">
+        <v>0.68703999999999998</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0.70369400000000004</v>
+      </c>
+      <c r="R60">
+        <v>0.96495500000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -21655,17 +21371,17 @@
       <c r="O61" s="7">
         <v>0.96644200000000002</v>
       </c>
-      <c r="P61" s="6">
-        <v>0.67480099999999998</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>0.71116800000000002</v>
-      </c>
-      <c r="R61" s="7">
-        <v>0.96484599999999998</v>
+      <c r="P61">
+        <v>0.67486999999999997</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0.711148</v>
+      </c>
+      <c r="R61">
+        <v>0.96487699999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -21719,17 +21435,17 @@
       <c r="O62" s="7">
         <v>0.96507500000000002</v>
       </c>
-      <c r="P62" s="6">
-        <v>0.66292499999999999</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>0.71841100000000002</v>
-      </c>
-      <c r="R62" s="7">
-        <v>0.96477500000000005</v>
+      <c r="P62">
+        <v>0.662991</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0.71839299999999995</v>
+      </c>
+      <c r="R62">
+        <v>0.96480500000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -21783,17 +21499,17 @@
       <c r="O63" s="7">
         <v>0.96467400000000003</v>
       </c>
-      <c r="P63" s="6">
-        <v>0.65132800000000002</v>
-      </c>
-      <c r="Q63" s="6">
-        <v>0.72545099999999996</v>
-      </c>
-      <c r="R63" s="7">
-        <v>0.96470800000000001</v>
+      <c r="P63">
+        <v>0.65138700000000005</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0.72543800000000003</v>
+      </c>
+      <c r="R63">
+        <v>0.96473900000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -21847,17 +21563,17 @@
       <c r="O64" s="7">
         <v>0.96489800000000003</v>
       </c>
-      <c r="P64" s="6">
-        <v>0.63995199999999997</v>
-      </c>
-      <c r="Q64" s="6">
-        <v>0.73233499999999996</v>
-      </c>
-      <c r="R64" s="7">
-        <v>0.96466200000000002</v>
+      <c r="P64">
+        <v>0.64004499999999998</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>0.73229100000000003</v>
+      </c>
+      <c r="R64">
+        <v>0.96467899999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -21911,17 +21627,17 @@
       <c r="O65" s="7">
         <v>0.96524900000000002</v>
       </c>
-      <c r="P65" s="6">
-        <v>0.62887300000000002</v>
-      </c>
-      <c r="Q65" s="6">
-        <v>0.73898900000000001</v>
-      </c>
-      <c r="R65" s="7">
-        <v>0.96460400000000002</v>
+      <c r="P65">
+        <v>0.62895199999999996</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>0.73895699999999997</v>
+      </c>
+      <c r="R65">
+        <v>0.96462400000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -21975,17 +21691,17 @@
       <c r="O66" s="7">
         <v>0.96544700000000006</v>
       </c>
-      <c r="P66" s="6">
-        <v>0.61803300000000005</v>
-      </c>
-      <c r="Q66" s="6">
-        <v>0.74546100000000004</v>
-      </c>
-      <c r="R66" s="7">
-        <v>0.96454600000000001</v>
+      <c r="P66">
+        <v>0.61809800000000004</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>0.745444</v>
+      </c>
+      <c r="R66">
+        <v>0.96457400000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -22039,17 +21755,17 @@
       <c r="O67" s="7">
         <v>0.96547000000000005</v>
       </c>
-      <c r="P67" s="6">
-        <v>0.60738999999999999</v>
-      </c>
-      <c r="Q67" s="6">
-        <v>0.75179300000000004</v>
-      </c>
-      <c r="R67" s="7">
-        <v>0.96451299999999995</v>
+      <c r="P67">
+        <v>0.60747300000000004</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0.75175599999999998</v>
+      </c>
+      <c r="R67">
+        <v>0.96452899999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -22103,17 +21819,17 @@
       <c r="O68" s="7">
         <v>0.96541699999999997</v>
       </c>
-      <c r="P68" s="6">
-        <v>0.59700600000000004</v>
-      </c>
-      <c r="Q68" s="6">
-        <v>0.75791799999999998</v>
-      </c>
-      <c r="R68" s="7">
-        <v>0.96446699999999996</v>
+      <c r="P68">
+        <v>0.59706899999999996</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0.75789899999999999</v>
+      </c>
+      <c r="R68">
+        <v>0.96448999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -22167,17 +21883,17 @@
       <c r="O69" s="7">
         <v>0.96537300000000004</v>
       </c>
-      <c r="P69" s="6">
-        <v>0.58680299999999996</v>
-      </c>
-      <c r="Q69" s="6">
-        <v>0.763907</v>
-      </c>
-      <c r="R69" s="7">
-        <v>0.96443699999999999</v>
+      <c r="P69">
+        <v>0.58687999999999996</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>0.763876</v>
+      </c>
+      <c r="R69">
+        <v>0.96445499999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -22231,17 +21947,17 @@
       <c r="O70" s="7">
         <v>0.96536200000000005</v>
       </c>
-      <c r="P70" s="6">
-        <v>0.57684299999999999</v>
-      </c>
-      <c r="Q70" s="6">
-        <v>0.76970300000000003</v>
-      </c>
-      <c r="R70" s="7">
-        <v>0.96440000000000003</v>
+      <c r="P70">
+        <v>0.57689800000000002</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>0.76969100000000001</v>
+      </c>
+      <c r="R70">
+        <v>0.96442399999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -22295,17 +22011,17 @@
       <c r="O71" s="7">
         <v>0.96536900000000003</v>
       </c>
-      <c r="P71" s="6">
-        <v>0.56705499999999998</v>
-      </c>
-      <c r="Q71" s="6">
-        <v>0.77537100000000003</v>
-      </c>
-      <c r="R71" s="7">
-        <v>0.96438000000000001</v>
+      <c r="P71">
+        <v>0.56711699999999998</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>0.77534999999999998</v>
+      </c>
+      <c r="R71">
+        <v>0.96439799999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -22359,17 +22075,17 @@
       <c r="O72" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P72" s="6">
-        <v>0.55746300000000004</v>
-      </c>
-      <c r="Q72" s="6">
-        <v>0.78088100000000005</v>
-      </c>
-      <c r="R72" s="7">
-        <v>0.96435999999999999</v>
+      <c r="P72">
+        <v>0.557531</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>0.78085400000000005</v>
+      </c>
+      <c r="R72">
+        <v>0.96437600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ref="A73:A106" si="12">A72+1</f>
         <v>67</v>
@@ -22423,17 +22139,17 @@
       <c r="O73" s="7">
         <v>0.96538100000000004</v>
       </c>
-      <c r="P73" s="6">
-        <v>0.54809200000000002</v>
-      </c>
-      <c r="Q73" s="6">
-        <v>0.78621399999999997</v>
-      </c>
-      <c r="R73" s="7">
-        <v>0.96433400000000002</v>
+      <c r="P73">
+        <v>0.54813599999999996</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>0.78620900000000005</v>
+      </c>
+      <c r="R73">
+        <v>0.96435899999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="12"/>
         <v>68</v>
@@ -22487,17 +22203,17 @@
       <c r="O74" s="7">
         <v>0.96538000000000002</v>
       </c>
-      <c r="P74" s="6">
-        <v>0.53888000000000003</v>
-      </c>
-      <c r="Q74" s="6">
-        <v>0.79142299999999999</v>
-      </c>
-      <c r="R74" s="7">
-        <v>0.96431999999999995</v>
+      <c r="P74">
+        <v>0.53892700000000004</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>0.79141700000000004</v>
+      </c>
+      <c r="R74">
+        <v>0.96434500000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="12"/>
         <v>69</v>
@@ -22551,17 +22267,17 @@
       <c r="O75" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P75" s="6">
-        <v>0.52985199999999999</v>
-      </c>
-      <c r="Q75" s="6">
-        <v>0.79649000000000003</v>
-      </c>
-      <c r="R75" s="7">
-        <v>0.96431299999999998</v>
+      <c r="P75">
+        <v>0.52989900000000001</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>0.79648099999999999</v>
+      </c>
+      <c r="R75">
+        <v>0.96433400000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="12"/>
         <v>70</v>
@@ -22615,17 +22331,17 @@
       <c r="O76" s="7">
         <v>0.96537700000000004</v>
       </c>
-      <c r="P76" s="6">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="Q76" s="6">
-        <v>0.80141300000000004</v>
-      </c>
-      <c r="R76" s="7">
-        <v>0.96430499999999997</v>
+      <c r="P76">
+        <v>0.52104799999999996</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>0.80140599999999995</v>
+      </c>
+      <c r="R76">
+        <v>0.96432700000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="12"/>
         <v>71</v>
@@ -22679,17 +22395,17 @@
       <c r="O77" s="7">
         <v>0.96537700000000004</v>
       </c>
-      <c r="P77" s="6">
-        <v>0.51232299999999997</v>
-      </c>
-      <c r="Q77" s="6">
-        <v>0.80619799999999997</v>
-      </c>
-      <c r="R77" s="7">
-        <v>0.96429900000000002</v>
+      <c r="P77">
+        <v>0.51236999999999999</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>0.80619300000000005</v>
+      </c>
+      <c r="R77">
+        <v>0.96432399999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="12"/>
         <v>72</v>
@@ -22743,17 +22459,17 @@
       <c r="O78" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P78" s="6">
-        <v>0.50381799999999999</v>
-      </c>
-      <c r="Q78" s="6">
-        <v>0.81084999999999996</v>
-      </c>
-      <c r="R78" s="7">
-        <v>0.96430000000000005</v>
+      <c r="P78">
+        <v>0.50385999999999997</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0.81084599999999996</v>
+      </c>
+      <c r="R78">
+        <v>0.96432300000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="12"/>
         <v>73</v>
@@ -22807,17 +22523,17 @@
       <c r="O79" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P79" s="6">
-        <v>0.495477</v>
-      </c>
-      <c r="Q79" s="6">
-        <v>0.81536799999999998</v>
-      </c>
-      <c r="R79" s="7">
-        <v>0.96430000000000005</v>
+      <c r="P79">
+        <v>0.49551600000000001</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>0.81536900000000001</v>
+      </c>
+      <c r="R79">
+        <v>0.96432600000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="12"/>
         <v>74</v>
@@ -22871,17 +22587,17 @@
       <c r="O80" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P80" s="6">
-        <v>0.48727999999999999</v>
-      </c>
-      <c r="Q80" s="6">
-        <v>0.81977800000000001</v>
-      </c>
-      <c r="R80" s="7">
-        <v>0.964314</v>
+      <c r="P80">
+        <v>0.48733399999999999</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>0.81976300000000002</v>
+      </c>
+      <c r="R80">
+        <v>0.96433100000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="12"/>
         <v>75</v>
@@ -22935,17 +22651,17 @@
       <c r="O81" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P81" s="6">
-        <v>0.47926200000000002</v>
-      </c>
-      <c r="Q81" s="6">
-        <v>0.82404100000000002</v>
-      </c>
-      <c r="R81" s="7">
-        <v>0.96431800000000001</v>
+      <c r="P81">
+        <v>0.47931099999999999</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0.82403300000000002</v>
+      </c>
+      <c r="R81">
+        <v>0.96433899999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="12"/>
         <v>76</v>
@@ -22999,17 +22715,17 @@
       <c r="O82" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P82" s="6">
-        <v>0.47139999999999999</v>
-      </c>
-      <c r="Q82" s="6">
-        <v>0.82818199999999997</v>
-      </c>
-      <c r="R82" s="7">
-        <v>0.96432399999999996</v>
+      <c r="P82">
+        <v>0.47144200000000003</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>0.82818099999999994</v>
+      </c>
+      <c r="R82">
+        <v>0.96434900000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="12"/>
         <v>77</v>
@@ -23063,17 +22779,17 @@
       <c r="O83" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P83" s="6">
-        <v>0.46369199999999999</v>
-      </c>
-      <c r="Q83" s="6">
-        <v>0.832206</v>
-      </c>
-      <c r="R83" s="7">
-        <v>0.964337</v>
+      <c r="P83">
+        <v>0.46372600000000003</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>0.83221000000000001</v>
+      </c>
+      <c r="R83">
+        <v>0.96436200000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="12"/>
         <v>78</v>
@@ -23127,17 +22843,17 @@
       <c r="O84" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P84" s="6">
-        <v>0.45611499999999999</v>
-      </c>
-      <c r="Q84" s="6">
-        <v>0.83612799999999998</v>
-      </c>
-      <c r="R84" s="7">
-        <v>0.96435800000000005</v>
+      <c r="P84">
+        <v>0.45615800000000001</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>0.83612200000000003</v>
+      </c>
+      <c r="R84">
+        <v>0.96437600000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="12"/>
         <v>79</v>
@@ -23191,17 +22907,17 @@
       <c r="O85" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P85" s="6">
-        <v>0.44870199999999999</v>
-      </c>
-      <c r="Q85" s="6">
-        <v>0.83991899999999997</v>
-      </c>
-      <c r="R85" s="7">
-        <v>0.96436999999999995</v>
+      <c r="P85">
+        <v>0.44873600000000002</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>0.83992199999999995</v>
+      </c>
+      <c r="R85">
+        <v>0.96439299999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="12"/>
         <v>80</v>
@@ -23255,17 +22971,17 @@
       <c r="O86" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P86" s="6">
-        <v>0.44141599999999998</v>
-      </c>
-      <c r="Q86" s="6">
-        <v>0.84361600000000003</v>
-      </c>
-      <c r="R86" s="7">
-        <v>0.964395</v>
+      <c r="P86">
+        <v>0.44145800000000002</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>0.84360999999999997</v>
+      </c>
+      <c r="R86">
+        <v>0.96441200000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="12"/>
         <v>81</v>
@@ -23319,17 +23035,17 @@
       <c r="O87" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P87" s="6">
-        <v>0.43428699999999998</v>
-      </c>
-      <c r="Q87" s="6">
-        <v>0.84718800000000005</v>
-      </c>
-      <c r="R87" s="7">
-        <v>0.96440999999999999</v>
+      <c r="P87">
+        <v>0.43431999999999998</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>0.84719100000000003</v>
+      </c>
+      <c r="R87">
+        <v>0.96443299999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="12"/>
         <v>82</v>
@@ -23383,17 +23099,17 @@
       <c r="O88" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P88" s="6">
-        <v>0.42728100000000002</v>
-      </c>
-      <c r="Q88" s="6">
-        <v>0.85067000000000004</v>
-      </c>
-      <c r="R88" s="7">
-        <v>0.96443699999999999</v>
+      <c r="P88">
+        <v>0.427319</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>0.85066699999999995</v>
+      </c>
+      <c r="R88">
+        <v>0.96445499999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="12"/>
         <v>83</v>
@@ -23447,17 +23163,17 @@
       <c r="O89" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P89" s="6">
-        <v>0.42042499999999999</v>
-      </c>
-      <c r="Q89" s="6">
-        <v>0.85403300000000004</v>
-      </c>
-      <c r="R89" s="7">
-        <v>0.96445499999999995</v>
+      <c r="P89">
+        <v>0.42045199999999999</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>0.85404100000000005</v>
+      </c>
+      <c r="R89">
+        <v>0.96447899999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="12"/>
         <v>84</v>
@@ -23511,17 +23227,17 @@
       <c r="O90" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P90" s="6">
-        <v>0.41368700000000003</v>
-      </c>
-      <c r="Q90" s="6">
-        <v>0.85731199999999996</v>
-      </c>
-      <c r="R90" s="7">
-        <v>0.96448400000000001</v>
+      <c r="P90">
+        <v>0.41371799999999997</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0.85731500000000005</v>
+      </c>
+      <c r="R90">
+        <v>0.96450400000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="12"/>
         <v>85</v>
@@ -23575,17 +23291,17 @@
       <c r="O91" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P91" s="6">
-        <v>0.407078</v>
-      </c>
-      <c r="Q91" s="6">
-        <v>0.86048999999999998</v>
-      </c>
-      <c r="R91" s="7">
-        <v>0.96450899999999995</v>
+      <c r="P91">
+        <v>0.40711399999999998</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>0.86049100000000001</v>
+      </c>
+      <c r="R91">
+        <v>0.96453</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="12"/>
         <v>86</v>
@@ -23639,17 +23355,17 @@
       <c r="O92" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P92" s="6">
-        <v>0.40059800000000001</v>
-      </c>
-      <c r="Q92" s="6">
-        <v>0.86357499999999998</v>
-      </c>
-      <c r="R92" s="7">
-        <v>0.96453999999999995</v>
+      <c r="P92">
+        <v>0.40063599999999999</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>0.86357399999999995</v>
+      </c>
+      <c r="R92">
+        <v>0.96455800000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="12"/>
         <v>87</v>
@@ -23703,17 +23419,17 @@
       <c r="O93" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P93" s="6">
-        <v>0.394256</v>
-      </c>
-      <c r="Q93" s="6">
-        <v>0.86655400000000005</v>
-      </c>
-      <c r="R93" s="7">
-        <v>0.96456200000000003</v>
+      <c r="P93">
+        <v>0.39428200000000002</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>0.866564</v>
+      </c>
+      <c r="R93">
+        <v>0.96458600000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="12"/>
         <v>88</v>
@@ -23767,17 +23483,17 @@
       <c r="O94" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P94" s="6">
-        <v>0.38802300000000001</v>
-      </c>
-      <c r="Q94" s="6">
-        <v>0.86945700000000004</v>
-      </c>
-      <c r="R94" s="7">
-        <v>0.96459399999999995</v>
+      <c r="P94">
+        <v>0.38805099999999998</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>0.86946500000000004</v>
+      </c>
+      <c r="R94">
+        <v>0.96461600000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="12"/>
         <v>89</v>
@@ -23831,17 +23547,17 @@
       <c r="O95" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P95" s="6">
-        <v>0.381911</v>
-      </c>
-      <c r="Q95" s="6">
-        <v>0.87227299999999997</v>
-      </c>
-      <c r="R95" s="7">
-        <v>0.96462599999999998</v>
+      <c r="P95">
+        <v>0.38193899999999997</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>0.87227900000000003</v>
+      </c>
+      <c r="R95">
+        <v>0.96464700000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="12"/>
         <v>90</v>
@@ -23895,17 +23611,17 @@
       <c r="O96" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P96" s="6">
-        <v>0.375915</v>
-      </c>
-      <c r="Q96" s="6">
-        <v>0.87500100000000003</v>
-      </c>
-      <c r="R96" s="7">
-        <v>0.96465500000000004</v>
+      <c r="P96">
+        <v>0.375944</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>0.87500800000000001</v>
+      </c>
+      <c r="R96">
+        <v>0.96467800000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="12"/>
         <v>91</v>
@@ -23959,17 +23675,17 @@
       <c r="O97" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P97" s="6">
-        <v>0.37003599999999998</v>
-      </c>
-      <c r="Q97" s="6">
-        <v>0.87764799999999998</v>
-      </c>
-      <c r="R97" s="7">
-        <v>0.96468900000000002</v>
+      <c r="P97">
+        <v>0.370064</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>0.87765499999999996</v>
+      </c>
+      <c r="R97">
+        <v>0.96470999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="12"/>
         <v>92</v>
@@ -24023,17 +23739,17 @@
       <c r="O98" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P98" s="6">
-        <v>0.36426999999999998</v>
-      </c>
-      <c r="Q98" s="6">
-        <v>0.880216</v>
-      </c>
-      <c r="R98" s="7">
-        <v>0.96472199999999997</v>
+      <c r="P98">
+        <v>0.36429699999999998</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>0.88022199999999995</v>
+      </c>
+      <c r="R98">
+        <v>0.96474300000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="12"/>
         <v>93</v>
@@ -24087,17 +23803,17 @@
       <c r="O99" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P99" s="6">
-        <v>0.35861300000000002</v>
-      </c>
-      <c r="Q99" s="6">
-        <v>0.88270300000000002</v>
-      </c>
-      <c r="R99" s="7">
-        <v>0.96475299999999997</v>
+      <c r="P99">
+        <v>0.35864000000000001</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>0.88271200000000005</v>
+      </c>
+      <c r="R99">
+        <v>0.96477599999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="12"/>
         <v>94</v>
@@ -24151,17 +23867,17 @@
       <c r="O100" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P100" s="6">
-        <v>0.35306599999999999</v>
-      </c>
-      <c r="Q100" s="6">
-        <v>0.88511600000000001</v>
-      </c>
-      <c r="R100" s="7">
-        <v>0.96478799999999998</v>
+      <c r="P100">
+        <v>0.35309099999999999</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>0.88512599999999997</v>
+      </c>
+      <c r="R100">
+        <v>0.96480999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="12"/>
         <v>95</v>
@@ -24215,17 +23931,17 @@
       <c r="O101" s="7">
         <v>0.96537899999999999</v>
       </c>
-      <c r="P101" s="6">
-        <v>0.34762500000000002</v>
-      </c>
-      <c r="Q101" s="6">
-        <v>0.88745700000000005</v>
-      </c>
-      <c r="R101" s="7">
-        <v>0.96482199999999996</v>
+      <c r="P101">
+        <v>0.34764800000000001</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>0.88746700000000001</v>
+      </c>
+      <c r="R101">
+        <v>0.96484400000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="12"/>
         <v>96</v>
@@ -24279,17 +23995,17 @@
       <c r="O102" s="7">
         <v>0.96538199999999996</v>
       </c>
-      <c r="P102" s="6">
-        <v>0.34228700000000001</v>
-      </c>
-      <c r="Q102" s="6">
-        <v>0.88972300000000004</v>
-      </c>
-      <c r="R102" s="7">
-        <v>0.96485399999999999</v>
+      <c r="P102">
+        <v>0.34230899999999997</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>0.889737</v>
+      </c>
+      <c r="R102">
+        <v>0.96487800000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="12"/>
         <v>97</v>
@@ -24343,17 +24059,17 @@
       <c r="O103" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P103" s="6">
-        <v>0.33704400000000001</v>
-      </c>
-      <c r="Q103" s="6">
-        <v>0.89193299999999998</v>
-      </c>
-      <c r="R103" s="7">
-        <v>0.96489599999999998</v>
+      <c r="P103">
+        <v>0.33707199999999998</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>0.89193699999999998</v>
+      </c>
+      <c r="R103">
+        <v>0.96491300000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="12"/>
         <v>98</v>
@@ -24407,17 +24123,17 @@
       <c r="O104" s="7">
         <v>0.96536500000000003</v>
       </c>
-      <c r="P104" s="6">
-        <v>0.33190799999999998</v>
-      </c>
-      <c r="Q104" s="6">
-        <v>0.89406300000000005</v>
-      </c>
-      <c r="R104" s="7">
-        <v>0.96492800000000001</v>
+      <c r="P104">
+        <v>0.33193400000000001</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>0.89407099999999995</v>
+      </c>
+      <c r="R104">
+        <v>0.96494800000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="12"/>
         <v>99</v>
@@ -24471,17 +24187,17 @@
       <c r="O105" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P105" s="6">
-        <v>0.326872</v>
-      </c>
-      <c r="Q105" s="6">
-        <v>0.89613100000000001</v>
-      </c>
-      <c r="R105" s="7">
-        <v>0.96496300000000002</v>
+      <c r="P105">
+        <v>0.32689400000000002</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>0.89614000000000005</v>
+      </c>
+      <c r="R105">
+        <v>0.96498300000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="12"/>
         <v>100</v>
@@ -24535,17 +24251,17 @@
       <c r="O106" s="7">
         <v>0.96543599999999996</v>
       </c>
-      <c r="P106" s="6">
-        <v>0.32192900000000002</v>
-      </c>
-      <c r="Q106" s="6">
-        <v>0.89813299999999996</v>
-      </c>
-      <c r="R106" s="7">
-        <v>0.96499500000000005</v>
+      <c r="P106">
+        <v>0.32195000000000001</v>
+      </c>
+      <c r="Q106" s="7">
+        <v>0.898146</v>
+      </c>
+      <c r="R106">
+        <v>0.96501899999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <f>A106+1</f>
         <v>101</v>
@@ -24599,14 +24315,14 @@
       <c r="O107" s="12">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P107" s="11">
-        <v>0.31702999999999998</v>
-      </c>
-      <c r="Q107" s="11">
+      <c r="P107">
+        <v>0.317052</v>
+      </c>
+      <c r="Q107" s="12">
         <v>0.9</v>
       </c>
-      <c r="R107" s="12">
-        <v>0.96492699999999998</v>
+      <c r="R107">
+        <v>0.96493600000000002</v>
       </c>
     </row>
   </sheetData>
@@ -24618,24 +24334,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R84" sqref="R84"/>
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -24664,7 +24380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -24693,7 +24409,7 @@
         <v>0.31735123117459652</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -24714,7 +24430,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -24761,7 +24477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -24806,16 +24522,16 @@
         <v>1</v>
       </c>
       <c r="M7" s="5">
-        <v>0.67316699999999996</v>
+        <v>0.67335599999999995</v>
       </c>
       <c r="N7" s="6">
-        <v>0.73812199999999994</v>
+        <v>0.73800100000000002</v>
       </c>
       <c r="O7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>A7+1</f>
         <v>2</v>
@@ -24861,16 +24577,16 @@
         <v>0.99997599999999998</v>
       </c>
       <c r="M8" s="5">
-        <v>0.68429399999999996</v>
+        <v>0.68447199999999997</v>
       </c>
       <c r="N8" s="6">
-        <v>0.73089099999999996</v>
+        <v>0.73078200000000004</v>
       </c>
       <c r="O8" s="7">
-        <v>0.99983699999999998</v>
+        <v>0.99984399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A72" si="4">A8+1</f>
         <v>3</v>
@@ -24916,16 +24632,16 @@
         <v>1.0000089999999999</v>
       </c>
       <c r="M9" s="5">
-        <v>0.69541600000000003</v>
+        <v>0.69558299999999995</v>
       </c>
       <c r="N9" s="6">
-        <v>0.72367899999999996</v>
+        <v>0.72358199999999995</v>
       </c>
       <c r="O9" s="7">
-        <v>0.99973000000000001</v>
+        <v>0.99974200000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -24971,16 +24687,16 @@
         <v>1.000046</v>
       </c>
       <c r="M10" s="5">
-        <v>0.70664300000000002</v>
+        <v>0.70684999999999998</v>
       </c>
       <c r="N10" s="6">
-        <v>0.716387</v>
+        <v>0.71625499999999998</v>
       </c>
       <c r="O10" s="7">
-        <v>0.99963400000000002</v>
+        <v>0.99963599999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -25026,16 +24742,16 @@
         <v>1.000065</v>
       </c>
       <c r="M11" s="5">
-        <v>0.71807699999999997</v>
+        <v>0.718275</v>
       </c>
       <c r="N11" s="6">
-        <v>0.70892500000000003</v>
+        <v>0.70880299999999996</v>
       </c>
       <c r="O11" s="7">
-        <v>0.99951599999999996</v>
+        <v>0.99952300000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -25081,16 +24797,16 @@
         <v>1.000068</v>
       </c>
       <c r="M12" s="5">
-        <v>0.72966799999999998</v>
+        <v>0.72985800000000001</v>
       </c>
       <c r="N12" s="6">
-        <v>0.70133900000000005</v>
+        <v>0.70122700000000004</v>
       </c>
       <c r="O12" s="7">
-        <v>0.99938899999999997</v>
+        <v>0.99940499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -25136,16 +24852,16 @@
         <v>1.0000640000000001</v>
       </c>
       <c r="M13" s="5">
-        <v>0.74135099999999998</v>
+        <v>0.74159900000000001</v>
       </c>
       <c r="N13" s="6">
-        <v>0.69369000000000003</v>
+        <v>0.69352999999999998</v>
       </c>
       <c r="O13" s="7">
-        <v>0.999278</v>
+        <v>0.99928099999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -25191,16 +24907,16 @@
         <v>1.0000579999999999</v>
       </c>
       <c r="M14" s="5">
-        <v>0.75324999999999998</v>
+        <v>0.753498</v>
       </c>
       <c r="N14" s="6">
-        <v>0.68587299999999995</v>
+        <v>0.68571599999999999</v>
       </c>
       <c r="O14" s="7">
-        <v>0.99914400000000003</v>
+        <v>0.99914999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -25246,16 +24962,16 @@
         <v>1.0000560000000001</v>
       </c>
       <c r="M15" s="5">
-        <v>0.76530399999999998</v>
+        <v>0.76555499999999999</v>
       </c>
       <c r="N15" s="6">
-        <v>0.67794399999999999</v>
+        <v>0.67778700000000003</v>
       </c>
       <c r="O15" s="7">
-        <v>0.99900500000000003</v>
+        <v>0.99901399999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -25301,16 +25017,16 @@
         <v>1.0000549999999999</v>
       </c>
       <c r="M16" s="5">
-        <v>0.77751099999999995</v>
+        <v>0.77776800000000001</v>
       </c>
       <c r="N16" s="6">
-        <v>0.66990700000000003</v>
+        <v>0.66974800000000001</v>
       </c>
       <c r="O16" s="7">
-        <v>0.998861</v>
+        <v>0.99887199999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -25356,16 +25072,16 @@
         <v>1.000057</v>
       </c>
       <c r="M17" s="5">
-        <v>0.78986900000000004</v>
+        <v>0.79013699999999998</v>
       </c>
       <c r="N17" s="6">
-        <v>0.66176699999999999</v>
+        <v>0.66160200000000002</v>
       </c>
       <c r="O17" s="7">
-        <v>0.99871100000000002</v>
+        <v>0.99872499999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -25411,16 +25127,16 @@
         <v>1.0000579999999999</v>
       </c>
       <c r="M18" s="5">
-        <v>0.80237800000000004</v>
+        <v>0.80266199999999999</v>
       </c>
       <c r="N18" s="6">
-        <v>0.653528</v>
+        <v>0.65335299999999996</v>
       </c>
       <c r="O18" s="7">
-        <v>0.99855700000000003</v>
+        <v>0.99857200000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -25466,16 +25182,16 @@
         <v>1.0000599999999999</v>
       </c>
       <c r="M19" s="5">
-        <v>0.81503499999999995</v>
+        <v>0.81534099999999998</v>
       </c>
       <c r="N19" s="6">
-        <v>0.64519599999999999</v>
+        <v>0.645007</v>
       </c>
       <c r="O19" s="7">
-        <v>0.99839900000000004</v>
+        <v>0.99841299999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -25521,16 +25237,16 @@
         <v>1.0000610000000001</v>
       </c>
       <c r="M20" s="5">
-        <v>0.82783899999999999</v>
+        <v>0.82817399999999997</v>
       </c>
       <c r="N20" s="6">
-        <v>0.63677600000000001</v>
+        <v>0.63656699999999999</v>
       </c>
       <c r="O20" s="7">
-        <v>0.99823499999999998</v>
+        <v>0.99824900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -25576,16 +25292,16 @@
         <v>1.0000629999999999</v>
       </c>
       <c r="M21" s="5">
-        <v>0.84078600000000003</v>
+        <v>0.84116100000000005</v>
       </c>
       <c r="N21" s="6">
-        <v>0.62827299999999997</v>
+        <v>0.62803799999999999</v>
       </c>
       <c r="O21" s="7">
-        <v>0.99806799999999996</v>
+        <v>0.99807999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -25631,16 +25347,16 @@
         <v>1.0000640000000001</v>
       </c>
       <c r="M22" s="5">
-        <v>0.85387299999999999</v>
+        <v>0.85430099999999998</v>
       </c>
       <c r="N22" s="6">
-        <v>0.61969600000000002</v>
+        <v>0.619425</v>
       </c>
       <c r="O22" s="7">
-        <v>0.99789600000000001</v>
+        <v>0.99790699999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -25686,16 +25402,16 @@
         <v>1.0000640000000001</v>
       </c>
       <c r="M23" s="5">
-        <v>0.86709599999999998</v>
+        <v>0.86759299999999995</v>
       </c>
       <c r="N23" s="6">
-        <v>0.61104899999999995</v>
+        <v>0.61073299999999997</v>
       </c>
       <c r="O23" s="7">
-        <v>0.99772099999999997</v>
+        <v>0.99772799999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -25741,16 +25457,16 @@
         <v>1.000065</v>
       </c>
       <c r="M24" s="5">
-        <v>0.88044999999999995</v>
+        <v>0.88103900000000002</v>
       </c>
       <c r="N24" s="6">
-        <v>0.60234200000000004</v>
+        <v>0.601966</v>
       </c>
       <c r="O24" s="7">
-        <v>0.99754100000000001</v>
+        <v>0.99754600000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -25796,16 +25512,16 @@
         <v>1.0000659999999999</v>
       </c>
       <c r="M25" s="5">
-        <v>0.89411700000000005</v>
+        <v>0.89463999999999999</v>
       </c>
       <c r="N25" s="6">
-        <v>0.59345199999999998</v>
+        <v>0.59312799999999999</v>
       </c>
       <c r="O25" s="7">
-        <v>0.99733799999999995</v>
+        <v>0.997359</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -25851,16 +25567,16 @@
         <v>1.000067</v>
       </c>
       <c r="M26" s="5">
-        <v>0.90773700000000002</v>
+        <v>0.90839999999999999</v>
       </c>
       <c r="N26" s="6">
-        <v>0.58463600000000004</v>
+        <v>0.58422200000000002</v>
       </c>
       <c r="O26" s="7">
-        <v>0.99715299999999996</v>
+        <v>0.99716899999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -25906,16 +25622,16 @@
         <v>1.0000690000000001</v>
       </c>
       <c r="M27" s="5">
-        <v>0.92146499999999998</v>
+        <v>0.92232499999999995</v>
       </c>
       <c r="N27" s="6">
-        <v>0.575789</v>
+        <v>0.57524900000000001</v>
       </c>
       <c r="O27" s="7">
-        <v>0.99696399999999996</v>
+        <v>0.99697499999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -25961,16 +25677,16 @@
         <v>1.00007</v>
       </c>
       <c r="M28" s="5">
-        <v>0.93528199999999995</v>
+        <v>0.93643299999999996</v>
       </c>
       <c r="N28" s="6">
-        <v>0.56692799999999999</v>
+        <v>0.56620400000000004</v>
       </c>
       <c r="O28" s="7">
-        <v>0.99677300000000002</v>
+        <v>0.99677800000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -26016,16 +25732,16 @@
         <v>1.0000709999999999</v>
       </c>
       <c r="M29" s="5">
-        <v>0.94953600000000005</v>
+        <v>0.95075699999999996</v>
       </c>
       <c r="N29" s="6">
-        <v>0.55782699999999996</v>
+        <v>0.55707099999999998</v>
       </c>
       <c r="O29" s="7">
-        <v>0.99656</v>
+        <v>0.99657899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -26071,16 +25787,16 @@
         <v>1.0000720000000001</v>
       </c>
       <c r="M30" s="5">
-        <v>0.963507</v>
+        <v>0.96538800000000002</v>
       </c>
       <c r="N30" s="6">
-        <v>0.54896699999999998</v>
+        <v>0.54779999999999995</v>
       </c>
       <c r="O30" s="7">
-        <v>0.99636499999999995</v>
+        <v>0.99637799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -26126,16 +25842,16 @@
         <v>1.000073</v>
       </c>
       <c r="M31" s="5">
-        <v>0.97733800000000004</v>
+        <v>0.98063</v>
       </c>
       <c r="N31" s="6">
-        <v>0.54024700000000003</v>
+        <v>0.53821200000000002</v>
       </c>
       <c r="O31" s="7">
-        <v>0.996166</v>
+        <v>0.99617800000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -26181,16 +25897,16 @@
         <v>1.000075</v>
       </c>
       <c r="M32" s="5">
-        <v>0.99172700000000003</v>
+        <v>0.99851199999999996</v>
       </c>
       <c r="N32" s="6">
-        <v>0.53122999999999998</v>
+        <v>0.52707999999999999</v>
       </c>
       <c r="O32" s="7">
-        <v>0.99594800000000006</v>
+        <v>0.99599499999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -26236,16 +25952,16 @@
         <v>1.000076</v>
       </c>
       <c r="M33" s="5">
-        <v>1.019396</v>
+        <v>1.015325</v>
       </c>
       <c r="N33" s="6">
-        <v>0.51426300000000003</v>
+        <v>0.51674500000000001</v>
       </c>
       <c r="O33" s="7">
-        <v>0.99588699999999997</v>
+        <v>0.99589799999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -26291,16 +26007,16 @@
         <v>1.000078</v>
       </c>
       <c r="M34" s="5">
-        <v>1.0353399999999999</v>
+        <v>1.0331239999999999</v>
       </c>
       <c r="N34" s="6">
-        <v>0.50461500000000004</v>
+        <v>0.50595500000000004</v>
       </c>
       <c r="O34" s="7">
-        <v>0.99588500000000002</v>
+        <v>0.995892</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -26346,16 +26062,16 @@
         <v>1.0000800000000001</v>
       </c>
       <c r="M35" s="5">
-        <v>1.050241</v>
+        <v>1.0490630000000001</v>
       </c>
       <c r="N35" s="6">
-        <v>0.495666</v>
+        <v>0.49638199999999999</v>
       </c>
       <c r="O35" s="7">
-        <v>0.99585800000000002</v>
+        <v>0.99588200000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -26401,16 +26117,16 @@
         <v>1.0000819999999999</v>
       </c>
       <c r="M36" s="5">
-        <v>1.0655969999999999</v>
+        <v>1.0646009999999999</v>
       </c>
       <c r="N36" s="6">
-        <v>0.48653600000000002</v>
+        <v>0.48713499999999998</v>
       </c>
       <c r="O36" s="7">
-        <v>0.99585000000000001</v>
+        <v>0.99587000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -26456,16 +26172,16 @@
         <v>1.000084</v>
       </c>
       <c r="M37" s="5">
-        <v>1.0806100000000001</v>
+        <v>1.0800259999999999</v>
       </c>
       <c r="N37" s="6">
-        <v>0.477682</v>
+        <v>0.47804099999999999</v>
       </c>
       <c r="O37" s="7">
-        <v>0.99581699999999995</v>
+        <v>0.99585400000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -26511,16 +26227,16 @@
         <v>1.000086</v>
       </c>
       <c r="M38" s="5">
-        <v>1.096001</v>
+        <v>1.095437</v>
       </c>
       <c r="N38" s="6">
-        <v>0.46870400000000001</v>
+        <v>0.46904600000000002</v>
       </c>
       <c r="O38" s="7">
-        <v>0.99580299999999999</v>
+        <v>0.995834</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -26566,16 +26282,16 @@
         <v>1.0000880000000001</v>
       </c>
       <c r="M39" s="5">
-        <v>1.111202</v>
+        <v>1.1108739999999999</v>
       </c>
       <c r="N39" s="6">
-        <v>0.45991799999999999</v>
+        <v>0.46012799999999998</v>
       </c>
       <c r="O39" s="7">
-        <v>0.99576500000000001</v>
+        <v>0.995811</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -26621,16 +26337,16 @@
         <v>1.0000899999999999</v>
       </c>
       <c r="M40" s="5">
-        <v>1.1267119999999999</v>
+        <v>1.1263570000000001</v>
       </c>
       <c r="N40" s="6">
-        <v>0.45105800000000001</v>
+        <v>0.45127800000000001</v>
       </c>
       <c r="O40" s="7">
-        <v>0.99574499999999999</v>
+        <v>0.99578500000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -26676,16 +26392,16 @@
         <v>1.0000929999999999</v>
       </c>
       <c r="M41" s="5">
-        <v>1.1420939999999999</v>
+        <v>1.1418969999999999</v>
       </c>
       <c r="N41" s="6">
-        <v>0.442359</v>
+        <v>0.442494</v>
       </c>
       <c r="O41" s="7">
-        <v>0.995699</v>
+        <v>0.99575400000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -26731,16 +26447,16 @@
         <v>1.000095</v>
       </c>
       <c r="M42" s="5">
-        <v>1.157737</v>
+        <v>1.1574979999999999</v>
       </c>
       <c r="N42" s="6">
-        <v>0.43362499999999998</v>
+        <v>0.433778</v>
       </c>
       <c r="O42" s="7">
-        <v>0.99567300000000003</v>
+        <v>0.99572099999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -26786,16 +26502,16 @@
         <v>1.000097</v>
       </c>
       <c r="M43" s="5">
-        <v>1.173284</v>
+        <v>1.17316</v>
       </c>
       <c r="N43" s="6">
-        <v>0.42503800000000003</v>
+        <v>0.42513200000000001</v>
       </c>
       <c r="O43" s="7">
-        <v>0.99561999999999995</v>
+        <v>0.99568299999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -26841,16 +26557,16 @@
         <v>1.0000990000000001</v>
       </c>
       <c r="M44" s="5">
-        <v>1.1889110000000001</v>
+        <v>1.188885</v>
       </c>
       <c r="N44" s="6">
-        <v>0.416514</v>
+        <v>0.41655999999999999</v>
       </c>
       <c r="O44" s="7">
-        <v>0.99556500000000003</v>
+        <v>0.995641</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -26896,16 +26612,16 @@
         <v>1.0001009999999999</v>
       </c>
       <c r="M45" s="5">
-        <v>1.2047479999999999</v>
+        <v>1.204671</v>
       </c>
       <c r="N45" s="6">
-        <v>0.40799600000000003</v>
+        <v>0.40806500000000001</v>
       </c>
       <c r="O45" s="7">
-        <v>0.995529</v>
+        <v>0.99559600000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -26951,16 +26667,16 @@
         <v>1.000103</v>
       </c>
       <c r="M46" s="5">
-        <v>1.22051</v>
+        <v>1.2205159999999999</v>
       </c>
       <c r="N46" s="6">
-        <v>0.39961999999999998</v>
+        <v>0.39965099999999998</v>
       </c>
       <c r="O46" s="7">
-        <v>0.99546400000000002</v>
+        <v>0.99554699999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -27006,16 +26722,16 @@
         <v>1.0001040000000001</v>
       </c>
       <c r="M47" s="5">
-        <v>1.236461</v>
+        <v>1.2364170000000001</v>
       </c>
       <c r="N47" s="6">
-        <v>0.39127099999999998</v>
+        <v>0.391322</v>
       </c>
       <c r="O47" s="7">
-        <v>0.99542299999999995</v>
+        <v>0.99549399999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -27061,16 +26777,16 @@
         <v>1.0001059999999999</v>
       </c>
       <c r="M48" s="5">
-        <v>1.252348</v>
+        <v>1.252372</v>
       </c>
       <c r="N48" s="6">
-        <v>0.38306099999999998</v>
+        <v>0.38308199999999998</v>
       </c>
       <c r="O48" s="7">
-        <v>0.99535099999999999</v>
+        <v>0.99543700000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -27116,16 +26832,16 @@
         <v>1.000108</v>
       </c>
       <c r="M49" s="5">
-        <v>1.268295</v>
+        <v>1.268378</v>
       </c>
       <c r="N49" s="6">
-        <v>0.37494</v>
+        <v>0.37493599999999999</v>
       </c>
       <c r="O49" s="7">
-        <v>0.99527600000000005</v>
+        <v>0.99537699999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -27171,16 +26887,16 @@
         <v>1.0001089999999999</v>
       </c>
       <c r="M50" s="5">
-        <v>1.284402</v>
+        <v>1.2844310000000001</v>
       </c>
       <c r="N50" s="6">
-        <v>0.36686999999999997</v>
+        <v>0.36688700000000002</v>
       </c>
       <c r="O50" s="7">
-        <v>0.99522500000000003</v>
+        <v>0.99531199999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -27226,16 +26942,16 @@
         <v>1.000111</v>
       </c>
       <c r="M51" s="5">
-        <v>1.3004530000000001</v>
+        <v>1.300529</v>
       </c>
       <c r="N51" s="6">
-        <v>0.35893999999999998</v>
+        <v>0.35893900000000001</v>
       </c>
       <c r="O51" s="7">
-        <v>0.995143</v>
+        <v>0.99524400000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -27281,16 +26997,16 @@
         <v>1.0001119999999999</v>
       </c>
       <c r="M52" s="5">
-        <v>1.3165519999999999</v>
+        <v>1.3166679999999999</v>
       </c>
       <c r="N52" s="6">
-        <v>0.35111100000000001</v>
+        <v>0.35109499999999999</v>
       </c>
       <c r="O52" s="7">
-        <v>0.995062</v>
+        <v>0.99517199999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -27336,16 +27052,16 @@
         <v>1.0001139999999999</v>
       </c>
       <c r="M53" s="5">
-        <v>1.3327850000000001</v>
+        <v>1.3328450000000001</v>
       </c>
       <c r="N53" s="6">
-        <v>0.34335199999999999</v>
+        <v>0.34335700000000002</v>
       </c>
       <c r="O53" s="7">
-        <v>0.99499800000000005</v>
+        <v>0.99509599999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -27391,16 +27107,16 @@
         <v>1.0001150000000001</v>
       </c>
       <c r="M54" s="5">
-        <v>1.348965</v>
+        <v>1.349057</v>
       </c>
       <c r="N54" s="6">
-        <v>0.33573700000000001</v>
+        <v>0.33572999999999997</v>
       </c>
       <c r="O54" s="7">
-        <v>0.99490999999999996</v>
+        <v>0.99501700000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -27446,16 +27162,16 @@
         <v>1.000116</v>
       </c>
       <c r="M55" s="5">
-        <v>1.365181</v>
+        <v>1.3653</v>
       </c>
       <c r="N55" s="6">
-        <v>0.32823099999999999</v>
+        <v>0.32821499999999998</v>
       </c>
       <c r="O55" s="7">
-        <v>0.99481600000000003</v>
+        <v>0.99493399999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -27501,16 +27217,16 @@
         <v>1.0001169999999999</v>
       </c>
       <c r="M56" s="5">
-        <v>1.3814299999999999</v>
+        <v>1.381572</v>
       </c>
       <c r="N56" s="6">
-        <v>0.32083899999999999</v>
+        <v>0.32081599999999999</v>
       </c>
       <c r="O56" s="7">
-        <v>0.99472300000000002</v>
+        <v>0.99484700000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -27556,16 +27272,16 @@
         <v>1.0001180000000001</v>
       </c>
       <c r="M57" s="5">
-        <v>1.397783</v>
+        <v>1.3978680000000001</v>
       </c>
       <c r="N57" s="6">
-        <v>0.31353599999999998</v>
+        <v>0.31353300000000001</v>
       </c>
       <c r="O57" s="7">
-        <v>0.99464699999999995</v>
+        <v>0.994757</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -27611,16 +27327,16 @@
         <v>1.0001180000000001</v>
       </c>
       <c r="M58" s="5">
-        <v>1.4140820000000001</v>
+        <v>1.414185</v>
       </c>
       <c r="N58" s="6">
-        <v>0.30637799999999998</v>
+        <v>0.30636999999999998</v>
       </c>
       <c r="O58" s="7">
-        <v>0.99454799999999999</v>
+        <v>0.99466299999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -27666,16 +27382,16 @@
         <v>1.000119</v>
       </c>
       <c r="M59" s="5">
-        <v>1.430404</v>
+        <v>1.4305209999999999</v>
       </c>
       <c r="N59" s="6">
-        <v>0.29933999999999999</v>
+        <v>0.29932700000000001</v>
       </c>
       <c r="O59" s="7">
-        <v>0.99444600000000005</v>
+        <v>0.99456599999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -27721,16 +27437,16 @@
         <v>1.000119</v>
       </c>
       <c r="M60" s="5">
-        <v>1.4467429999999999</v>
+        <v>1.4468719999999999</v>
       </c>
       <c r="N60" s="6">
-        <v>0.29242299999999999</v>
+        <v>0.292406</v>
       </c>
       <c r="O60" s="7">
-        <v>0.99434199999999995</v>
+        <v>0.99446599999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -27776,16 +27492,16 @@
         <v>1.0001199999999999</v>
       </c>
       <c r="M61" s="5">
-        <v>1.463096</v>
+        <v>1.4632350000000001</v>
       </c>
       <c r="N61" s="6">
-        <v>0.28562799999999999</v>
+        <v>0.285609</v>
       </c>
       <c r="O61" s="7">
-        <v>0.99423099999999998</v>
+        <v>0.994363</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -27831,16 +27547,16 @@
         <v>1.0001199999999999</v>
       </c>
       <c r="M62" s="5">
-        <v>1.4794620000000001</v>
+        <v>1.4796069999999999</v>
       </c>
       <c r="N62" s="6">
-        <v>0.27895599999999998</v>
+        <v>0.27893499999999999</v>
       </c>
       <c r="O62" s="7">
-        <v>0.99412199999999995</v>
+        <v>0.99425600000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -27886,16 +27602,16 @@
         <v>1.0001199999999999</v>
       </c>
       <c r="M63" s="5">
-        <v>1.4958370000000001</v>
+        <v>1.4959849999999999</v>
       </c>
       <c r="N63" s="6">
-        <v>0.27240799999999998</v>
+        <v>0.27238699999999999</v>
       </c>
       <c r="O63" s="7">
-        <v>0.99400999999999995</v>
+        <v>0.99414599999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -27941,16 +27657,16 @@
         <v>1.0001199999999999</v>
       </c>
       <c r="M64" s="5">
-        <v>1.5122169999999999</v>
+        <v>1.512367</v>
       </c>
       <c r="N64" s="6">
-        <v>0.26598500000000003</v>
+        <v>0.26596399999999998</v>
       </c>
       <c r="O64" s="7">
-        <v>0.99389700000000003</v>
+        <v>0.99403399999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -27996,16 +27712,16 @@
         <v>1.0001199999999999</v>
       </c>
       <c r="M65" s="5">
-        <v>1.5286</v>
+        <v>1.528748</v>
       </c>
       <c r="N65" s="6">
-        <v>0.259687</v>
+        <v>0.25966600000000001</v>
       </c>
       <c r="O65" s="7">
-        <v>0.99378100000000003</v>
+        <v>0.99391799999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -28051,16 +27767,16 @@
         <v>1.0001199999999999</v>
       </c>
       <c r="M66" s="5">
-        <v>1.5449820000000001</v>
+        <v>1.5451280000000001</v>
       </c>
       <c r="N66" s="6">
-        <v>0.25351400000000002</v>
+        <v>0.25349500000000003</v>
       </c>
       <c r="O66" s="7">
-        <v>0.99366200000000005</v>
+        <v>0.99380000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -28106,16 +27822,16 @@
         <v>1.000119</v>
       </c>
       <c r="M67" s="5">
-        <v>1.5613589999999999</v>
+        <v>1.5615030000000001</v>
       </c>
       <c r="N67" s="6">
-        <v>0.24746499999999999</v>
+        <v>0.247449</v>
       </c>
       <c r="O67" s="7">
-        <v>0.993537</v>
+        <v>0.99367899999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -28161,16 +27877,16 @@
         <v>1.000119</v>
       </c>
       <c r="M68" s="5">
-        <v>1.5777319999999999</v>
+        <v>1.5778700000000001</v>
       </c>
       <c r="N68" s="6">
-        <v>0.24154300000000001</v>
+        <v>0.24152799999999999</v>
       </c>
       <c r="O68" s="7">
-        <v>0.99341400000000002</v>
+        <v>0.99355499999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -28216,16 +27932,16 @@
         <v>1.0001180000000001</v>
       </c>
       <c r="M69" s="5">
-        <v>1.594096</v>
+        <v>1.5942259999999999</v>
       </c>
       <c r="N69" s="6">
-        <v>0.23574400000000001</v>
+        <v>0.235732</v>
       </c>
       <c r="O69" s="7">
-        <v>0.99329000000000001</v>
+        <v>0.99342900000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -28271,16 +27987,16 @@
         <v>1.0001169999999999</v>
       </c>
       <c r="M70" s="5">
-        <v>1.6104480000000001</v>
+        <v>1.610571</v>
       </c>
       <c r="N70" s="6">
-        <v>0.23007</v>
+        <v>0.23005999999999999</v>
       </c>
       <c r="O70" s="7">
-        <v>0.99316400000000005</v>
+        <v>0.99330099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -28326,16 +28042,16 @@
         <v>1.000116</v>
       </c>
       <c r="M71" s="5">
-        <v>1.6267879999999999</v>
+        <v>1.6269</v>
       </c>
       <c r="N71" s="6">
-        <v>0.22452</v>
+        <v>0.22451199999999999</v>
       </c>
       <c r="O71" s="7">
-        <v>0.99304099999999995</v>
+        <v>0.99317</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -28381,16 +28097,16 @@
         <v>1.0001150000000001</v>
       </c>
       <c r="M72" s="5">
-        <v>1.6430579999999999</v>
+        <v>1.6432119999999999</v>
       </c>
       <c r="N72" s="6">
-        <v>0.21910299999999999</v>
+        <v>0.219086</v>
       </c>
       <c r="O72" s="7">
-        <v>0.99288900000000002</v>
+        <v>0.99303799999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <f t="shared" ref="A73:A106" si="12">A72+1</f>
         <v>67</v>
@@ -28436,16 +28152,16 @@
         <v>1.0001139999999999</v>
       </c>
       <c r="M73" s="5">
-        <v>1.6593640000000001</v>
+        <v>1.659505</v>
       </c>
       <c r="N73" s="6">
-        <v>0.21379500000000001</v>
+        <v>0.213781</v>
       </c>
       <c r="O73" s="7">
-        <v>0.99275800000000003</v>
+        <v>0.99290299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <f t="shared" si="12"/>
         <v>68</v>
@@ -28491,16 +28207,16 @@
         <v>1.000113</v>
       </c>
       <c r="M74" s="5">
-        <v>1.6756489999999999</v>
+        <v>1.6757759999999999</v>
       </c>
       <c r="N74" s="6">
-        <v>0.20860799999999999</v>
+        <v>0.208597</v>
       </c>
       <c r="O74" s="7">
-        <v>0.99262499999999998</v>
+        <v>0.99276600000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <f t="shared" si="12"/>
         <v>69</v>
@@ -28546,16 +28262,16 @@
         <v>1.0001119999999999</v>
       </c>
       <c r="M75" s="5">
-        <v>1.691862</v>
+        <v>1.692024</v>
       </c>
       <c r="N75" s="6">
-        <v>0.20354900000000001</v>
+        <v>0.20353199999999999</v>
       </c>
       <c r="O75" s="7">
-        <v>0.99246900000000005</v>
+        <v>0.99262799999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <f t="shared" si="12"/>
         <v>70</v>
@@ -28601,16 +28317,16 @@
         <v>1.000111</v>
       </c>
       <c r="M76" s="5">
-        <v>1.7081010000000001</v>
+        <v>1.7082459999999999</v>
       </c>
       <c r="N76" s="6">
-        <v>0.198597</v>
+        <v>0.19858500000000001</v>
       </c>
       <c r="O76" s="7">
-        <v>0.99233400000000005</v>
+        <v>0.99248700000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <f t="shared" si="12"/>
         <v>71</v>
@@ -28656,16 +28372,16 @@
         <v>1.0001089999999999</v>
       </c>
       <c r="M77" s="5">
-        <v>1.724315</v>
+        <v>1.7244409999999999</v>
       </c>
       <c r="N77" s="6">
-        <v>0.19376299999999999</v>
+        <v>0.19375300000000001</v>
       </c>
       <c r="O77" s="7">
-        <v>0.99220399999999997</v>
+        <v>0.99234599999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <f t="shared" si="12"/>
         <v>72</v>
@@ -28711,16 +28427,16 @@
         <v>1.0001070000000001</v>
       </c>
       <c r="M78" s="5">
-        <v>1.7404520000000001</v>
+        <v>1.7406060000000001</v>
       </c>
       <c r="N78" s="6">
-        <v>0.189051</v>
+        <v>0.18903700000000001</v>
       </c>
       <c r="O78" s="7">
-        <v>0.99204400000000004</v>
+        <v>0.99220200000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <f t="shared" si="12"/>
         <v>73</v>
@@ -28766,16 +28482,16 @@
         <v>1.0001059999999999</v>
       </c>
       <c r="M79" s="5">
-        <v>1.7566059999999999</v>
+        <v>1.7567410000000001</v>
       </c>
       <c r="N79" s="6">
-        <v>0.18444199999999999</v>
+        <v>0.18443300000000001</v>
       </c>
       <c r="O79" s="7">
-        <v>0.99190599999999995</v>
+        <v>0.99205699999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <f t="shared" si="12"/>
         <v>74</v>
@@ -28821,16 +28537,16 @@
         <v>1.0001040000000001</v>
       </c>
       <c r="M80" s="5">
-        <v>1.7726850000000001</v>
+        <v>1.772842</v>
       </c>
       <c r="N80" s="6">
-        <v>0.179954</v>
+        <v>0.17993999999999999</v>
       </c>
       <c r="O80" s="7">
-        <v>0.99175100000000005</v>
+        <v>0.99191099999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <f t="shared" si="12"/>
         <v>75</v>
@@ -28876,16 +28592,16 @@
         <v>1.000102</v>
       </c>
       <c r="M81" s="5">
-        <v>1.7887740000000001</v>
+        <v>1.78891</v>
       </c>
       <c r="N81" s="6">
-        <v>0.175566</v>
+        <v>0.17555699999999999</v>
       </c>
       <c r="O81" s="7">
-        <v>0.99161100000000002</v>
+        <v>0.99176399999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <f t="shared" si="12"/>
         <v>76</v>
@@ -28931,16 +28647,16 @@
         <v>1.0001</v>
       </c>
       <c r="M82" s="5">
-        <v>1.8047850000000001</v>
+        <v>1.804942</v>
       </c>
       <c r="N82" s="6">
-        <v>0.171294</v>
+        <v>0.17128199999999999</v>
       </c>
       <c r="O82" s="7">
-        <v>0.99144900000000002</v>
+        <v>0.99161600000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <f t="shared" si="12"/>
         <v>77</v>
@@ -28986,16 +28702,16 @@
         <v>1.0000979999999999</v>
       </c>
       <c r="M83" s="5">
-        <v>1.820762</v>
+        <v>1.8209360000000001</v>
       </c>
       <c r="N83" s="6">
-        <v>0.167127</v>
+        <v>0.16711200000000001</v>
       </c>
       <c r="O83" s="7">
-        <v>0.99129299999999998</v>
+        <v>0.99146599999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <f t="shared" si="12"/>
         <v>78</v>
@@ -29041,16 +28757,16 @@
         <v>1.0000960000000001</v>
       </c>
       <c r="M84" s="5">
-        <v>1.836743</v>
+        <v>1.836892</v>
       </c>
       <c r="N84" s="6">
-        <v>0.16305600000000001</v>
+        <v>0.163046</v>
       </c>
       <c r="O84" s="7">
-        <v>0.99115200000000003</v>
+        <v>0.99131599999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <f t="shared" si="12"/>
         <v>79</v>
@@ -29096,16 +28812,16 @@
         <v>1.000094</v>
       </c>
       <c r="M85" s="5">
-        <v>1.8526450000000001</v>
+        <v>1.852808</v>
       </c>
       <c r="N85" s="6">
-        <v>0.15909499999999999</v>
+        <v>0.159082</v>
       </c>
       <c r="O85" s="7">
-        <v>0.99099499999999996</v>
+        <v>0.99116400000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <f t="shared" si="12"/>
         <v>80</v>
@@ -29151,16 +28867,16 @@
         <v>1.000092</v>
       </c>
       <c r="M86" s="5">
-        <v>1.868506</v>
+        <v>1.8686830000000001</v>
       </c>
       <c r="N86" s="6">
-        <v>0.15523200000000001</v>
+        <v>0.15521799999999999</v>
       </c>
       <c r="O86" s="7">
-        <v>0.99083200000000005</v>
+        <v>0.99101300000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <f t="shared" si="12"/>
         <v>81</v>
@@ -29206,16 +28922,16 @@
         <v>1.0000899999999999</v>
       </c>
       <c r="M87" s="5">
-        <v>1.884328</v>
+        <v>1.8845160000000001</v>
       </c>
       <c r="N87" s="6">
-        <v>0.15146799999999999</v>
+        <v>0.151453</v>
       </c>
       <c r="O87" s="7">
-        <v>0.99067499999999997</v>
+        <v>0.99085999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <f t="shared" si="12"/>
         <v>82</v>
@@ -29261,16 +28977,16 @@
         <v>1.0000880000000001</v>
       </c>
       <c r="M88" s="5">
-        <v>1.9001459999999999</v>
+        <v>1.9003049999999999</v>
       </c>
       <c r="N88" s="6">
-        <v>0.14779300000000001</v>
+        <v>0.147783</v>
       </c>
       <c r="O88" s="7">
-        <v>0.990533</v>
+        <v>0.990707</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <f t="shared" si="12"/>
         <v>83</v>
@@ -29316,16 +29032,16 @@
         <v>1.0000849999999999</v>
       </c>
       <c r="M89" s="5">
-        <v>1.9158820000000001</v>
+        <v>1.9160489999999999</v>
       </c>
       <c r="N89" s="6">
-        <v>0.14421900000000001</v>
+        <v>0.144207</v>
       </c>
       <c r="O89" s="7">
-        <v>0.99037600000000003</v>
+        <v>0.99055300000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <f t="shared" si="12"/>
         <v>84</v>
@@ -29371,16 +29087,16 @@
         <v>1.0000830000000001</v>
       </c>
       <c r="M90" s="5">
-        <v>1.9315739999999999</v>
+        <v>1.931748</v>
       </c>
       <c r="N90" s="6">
-        <v>0.140736</v>
+        <v>0.14072399999999999</v>
       </c>
       <c r="O90" s="7">
-        <v>0.99021899999999996</v>
+        <v>0.99039900000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <f t="shared" si="12"/>
         <v>85</v>
@@ -29426,16 +29142,16 @@
         <v>1.000081</v>
       </c>
       <c r="M91" s="5">
-        <v>1.94722</v>
+        <v>1.9474009999999999</v>
       </c>
       <c r="N91" s="6">
-        <v>0.13734299999999999</v>
+        <v>0.13733000000000001</v>
       </c>
       <c r="O91" s="7">
-        <v>0.99005600000000005</v>
+        <v>0.99024400000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <f t="shared" si="12"/>
         <v>86</v>
@@ -29481,16 +29197,16 @@
         <v>1.000078</v>
       </c>
       <c r="M92" s="5">
-        <v>1.9628209999999999</v>
+        <v>1.963006</v>
       </c>
       <c r="N92" s="6">
-        <v>0.13403799999999999</v>
+        <v>0.13402500000000001</v>
       </c>
       <c r="O92" s="7">
-        <v>0.9899</v>
+        <v>0.990089</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <f t="shared" si="12"/>
         <v>87</v>
@@ -29536,16 +29252,16 @@
         <v>1.000076</v>
       </c>
       <c r="M93" s="5">
-        <v>1.978375</v>
+        <v>1.9785630000000001</v>
       </c>
       <c r="N93" s="6">
-        <v>0.13081899999999999</v>
+        <v>0.130805</v>
       </c>
       <c r="O93" s="7">
-        <v>0.98974499999999999</v>
+        <v>0.98993399999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <f t="shared" si="12"/>
         <v>88</v>
@@ -29591,16 +29307,16 @@
         <v>1.000073</v>
       </c>
       <c r="M94" s="5">
-        <v>1.9938800000000001</v>
+        <v>1.9940709999999999</v>
       </c>
       <c r="N94" s="6">
-        <v>0.12768299999999999</v>
+        <v>0.12767000000000001</v>
       </c>
       <c r="O94" s="7">
-        <v>0.98958299999999999</v>
+        <v>0.98977899999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <f t="shared" si="12"/>
         <v>89</v>
@@ -29646,16 +29362,16 @@
         <v>1.0000709999999999</v>
       </c>
       <c r="M95" s="5">
-        <v>2.0093380000000001</v>
+        <v>2.0095299999999998</v>
       </c>
       <c r="N95" s="6">
-        <v>0.124629</v>
+        <v>0.12461700000000001</v>
       </c>
       <c r="O95" s="7">
-        <v>0.98942799999999997</v>
+        <v>0.98962399999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <f t="shared" si="12"/>
         <v>90</v>
@@ -29701,16 +29417,16 @@
         <v>1.0000690000000001</v>
       </c>
       <c r="M96" s="5">
-        <v>2.0247459999999999</v>
+        <v>2.0249380000000001</v>
       </c>
       <c r="N96" s="6">
-        <v>0.121656</v>
+        <v>0.121644</v>
       </c>
       <c r="O96" s="7">
-        <v>0.98927399999999999</v>
+        <v>0.98946900000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <f t="shared" si="12"/>
         <v>91</v>
@@ -29756,16 +29472,16 @@
         <v>1.0000659999999999</v>
       </c>
       <c r="M97" s="5">
-        <v>2.0401039999999999</v>
+        <v>2.040295</v>
       </c>
       <c r="N97" s="6">
-        <v>0.11876100000000001</v>
+        <v>0.11874899999999999</v>
       </c>
       <c r="O97" s="7">
-        <v>0.98912</v>
+        <v>0.98931400000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <f t="shared" si="12"/>
         <v>92</v>
@@ -29811,16 +29527,16 @@
         <v>1.0000629999999999</v>
       </c>
       <c r="M98" s="5">
-        <v>2.055412</v>
+        <v>2.0556000000000001</v>
       </c>
       <c r="N98" s="6">
-        <v>0.115942</v>
+        <v>0.11593100000000001</v>
       </c>
       <c r="O98" s="7">
-        <v>0.98896600000000001</v>
+        <v>0.98915900000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <f t="shared" si="12"/>
         <v>93</v>
@@ -29866,16 +29582,16 @@
         <v>1.000057</v>
       </c>
       <c r="M99" s="5">
-        <v>2.0706660000000001</v>
+        <v>2.0708530000000001</v>
       </c>
       <c r="N99" s="6">
-        <v>0.11319700000000001</v>
+        <v>0.11318599999999999</v>
       </c>
       <c r="O99" s="7">
-        <v>0.98880699999999999</v>
+        <v>0.98900399999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <f t="shared" si="12"/>
         <v>94</v>
@@ -29921,16 +29637,16 @@
         <v>1.0000500000000001</v>
       </c>
       <c r="M100" s="5">
-        <v>2.0858370000000002</v>
+        <v>2.0860539999999999</v>
       </c>
       <c r="N100" s="6">
-        <v>0.110528</v>
+        <v>0.110515</v>
       </c>
       <c r="O100" s="7">
-        <v>0.98863599999999996</v>
+        <v>0.98884899999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <f t="shared" si="12"/>
         <v>95</v>
@@ -29976,16 +29692,16 @@
         <v>1.000051</v>
       </c>
       <c r="M101" s="5">
-        <v>2.1009899999999999</v>
+        <v>2.1012019999999998</v>
       </c>
       <c r="N101" s="6">
-        <v>0.107927</v>
+        <v>0.107914</v>
       </c>
       <c r="O101" s="7">
-        <v>0.98848499999999995</v>
+        <v>0.98869499999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <f t="shared" si="12"/>
         <v>96</v>
@@ -30031,16 +29747,16 @@
         <v>1.0000739999999999</v>
       </c>
       <c r="M102" s="5">
-        <v>2.1160899999999998</v>
+        <v>2.1162960000000002</v>
       </c>
       <c r="N102" s="6">
-        <v>0.105394</v>
+        <v>0.105382</v>
       </c>
       <c r="O102" s="7">
-        <v>0.98833499999999996</v>
+        <v>0.988541</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <f t="shared" si="12"/>
         <v>97</v>
@@ -30086,16 +29802,16 @@
         <v>1.0001070000000001</v>
       </c>
       <c r="M103" s="5">
-        <v>2.1311360000000001</v>
+        <v>2.1313360000000001</v>
       </c>
       <c r="N103" s="6">
-        <v>0.10292900000000001</v>
+        <v>0.102918</v>
       </c>
       <c r="O103" s="7">
-        <v>0.98818499999999998</v>
+        <v>0.98838700000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <f t="shared" si="12"/>
         <v>98</v>
@@ -30141,16 +29857,16 @@
         <v>1.0000770000000001</v>
       </c>
       <c r="M104" s="5">
-        <v>2.1460970000000001</v>
+        <v>2.1463220000000001</v>
       </c>
       <c r="N104" s="6">
-        <v>0.100532</v>
+        <v>0.100518</v>
       </c>
       <c r="O104" s="7">
-        <v>0.98801700000000003</v>
+        <v>0.98823399999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <f t="shared" si="12"/>
         <v>99</v>
@@ -30196,16 +29912,16 @@
         <v>0.99989499999999998</v>
       </c>
       <c r="M105" s="5">
-        <v>2.1610360000000002</v>
+        <v>2.1612529999999999</v>
       </c>
       <c r="N105" s="6">
-        <v>9.8195000000000005E-2</v>
+        <v>9.8183000000000006E-2</v>
       </c>
       <c r="O105" s="7">
-        <v>0.987869</v>
+        <v>0.98808099999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <f t="shared" si="12"/>
         <v>100</v>
@@ -30251,16 +29967,16 @@
         <v>0.999664</v>
       </c>
       <c r="M106" s="5">
-        <v>2.1758929999999999</v>
+        <v>2.1761300000000001</v>
       </c>
       <c r="N106" s="6">
-        <v>9.5922999999999994E-2</v>
+        <v>9.5908999999999994E-2</v>
       </c>
       <c r="O106" s="7">
-        <v>0.98770599999999997</v>
+        <v>0.98792899999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <f>A106+1</f>
         <v>101</v>
@@ -30306,13 +30022,13 @@
         <v>0.99989799999999995</v>
       </c>
       <c r="M107" s="10">
-        <v>2.1873209999999998</v>
+        <v>2.1761300000000001</v>
       </c>
       <c r="N107" s="11">
-        <v>9.4E-2</v>
+        <v>9.5908999999999994E-2</v>
       </c>
       <c r="O107" s="12">
-        <v>0.98536800000000002</v>
+        <v>0.98792899999999995</v>
       </c>
     </row>
   </sheetData>

--- a/laval_comparison.xlsx
+++ b/laval_comparison.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GitHub\compressible_flows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GIT\compressible_flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA151F2D-93F9-4441-9E3F-B0CC70B09037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13272"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laval Stoß" sheetId="1" r:id="rId1"/>
@@ -76,7 +77,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -169,7 +170,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -287,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -305,12 +309,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -328,7 +341,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -355,7 +368,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2650,310 +2662,310 @@
             <c:numRef>
               <c:f>'Laval Stoß'!$P$7:$P$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.67335599999999995</c:v>
+                  <c:v>0.67325100000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68447199999999997</c:v>
+                  <c:v>0.68436200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69558299999999995</c:v>
+                  <c:v>0.69546699999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70684899999999995</c:v>
+                  <c:v>0.70672999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71827399999999997</c:v>
+                  <c:v>0.71815099999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72985800000000001</c:v>
+                  <c:v>0.72973100000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74159900000000001</c:v>
+                  <c:v>0.74146800000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.753498</c:v>
+                  <c:v>0.75336199999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76555399999999996</c:v>
+                  <c:v>0.76541300000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77776699999999999</c:v>
+                  <c:v>0.77761999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79013699999999998</c:v>
+                  <c:v>0.78998199999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80266099999999996</c:v>
+                  <c:v>0.80249899999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81533999999999995</c:v>
+                  <c:v>0.81516900000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82817399999999997</c:v>
+                  <c:v>0.82799199999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84116100000000005</c:v>
+                  <c:v>0.84096599999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85429999999999995</c:v>
+                  <c:v>0.85409100000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86759299999999995</c:v>
+                  <c:v>0.86736500000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88103900000000002</c:v>
+                  <c:v>0.88078800000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.89463999999999999</c:v>
+                  <c:v>0.89436000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90839899999999996</c:v>
+                  <c:v>0.90808100000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92232499999999995</c:v>
+                  <c:v>0.92195499999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93643200000000004</c:v>
+                  <c:v>0.93598700000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.95075600000000005</c:v>
+                  <c:v>0.95019600000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.965387</c:v>
+                  <c:v>0.96463299999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98062899999999997</c:v>
+                  <c:v>0.97950499999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99851000000000001</c:v>
+                  <c:v>1.0000530000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.015323</c:v>
+                  <c:v>1.020659</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.033123</c:v>
+                  <c:v>1.0359529999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0490619999999999</c:v>
+                  <c:v>1.051045</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0646</c:v>
+                  <c:v>1.066141</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.080025</c:v>
+                  <c:v>1.081291</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0954360000000001</c:v>
+                  <c:v>1.096514</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.110873</c:v>
+                  <c:v>1.111815</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1263559999999999</c:v>
+                  <c:v>1.1271949999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.141896</c:v>
+                  <c:v>1.1426529999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.157497</c:v>
+                  <c:v>1.1581870000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1731590000000001</c:v>
+                  <c:v>1.1737960000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1888840000000001</c:v>
+                  <c:v>1.1894750000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2046699999999999</c:v>
+                  <c:v>1.2052229999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.220515</c:v>
+                  <c:v>1.221034</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.236416</c:v>
+                  <c:v>1.2369060000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2523709999999999</c:v>
+                  <c:v>1.2528360000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2683770000000001</c:v>
+                  <c:v>1.2688200000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.28443</c:v>
+                  <c:v>1.284853</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3005279999999999</c:v>
+                  <c:v>1.3009329999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.316667</c:v>
+                  <c:v>1.3170569999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3328450000000001</c:v>
+                  <c:v>1.2517480000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.71744699999999995</c:v>
+                  <c:v>0.768289</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.75150600000000001</c:v>
+                  <c:v>0.75296099999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.73912800000000001</c:v>
+                  <c:v>0.73893900000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.72551399999999999</c:v>
+                  <c:v>0.72536199999999995</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.712337</c:v>
+                  <c:v>0.71218400000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.69952099999999995</c:v>
+                  <c:v>0.69937000000000005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.68703999999999998</c:v>
+                  <c:v>0.68689</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.67486999999999997</c:v>
+                  <c:v>0.67472200000000004</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.662991</c:v>
+                  <c:v>0.66284500000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.65138700000000005</c:v>
+                  <c:v>0.65124300000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.64004499999999998</c:v>
+                  <c:v>0.63990400000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.62895199999999996</c:v>
+                  <c:v>0.62881299999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.61809800000000004</c:v>
+                  <c:v>0.61796099999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.60747300000000004</c:v>
+                  <c:v>0.60733899999999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.59706899999999996</c:v>
+                  <c:v>0.59693799999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.58687999999999996</c:v>
+                  <c:v>0.58675100000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.57689800000000002</c:v>
+                  <c:v>0.57677100000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.56711699999999998</c:v>
+                  <c:v>0.56699200000000005</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.557531</c:v>
+                  <c:v>0.55740900000000004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.54813599999999996</c:v>
+                  <c:v>0.54801699999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.53892700000000004</c:v>
+                  <c:v>0.53881000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.52989900000000001</c:v>
+                  <c:v>0.52978400000000003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.52104799999999996</c:v>
+                  <c:v>0.52093500000000004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.51236999999999999</c:v>
+                  <c:v>0.51225900000000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.50385999999999997</c:v>
+                  <c:v>0.50375099999999995</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.49551600000000001</c:v>
+                  <c:v>0.49540899999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.48733399999999999</c:v>
+                  <c:v>0.48722900000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.47931099999999999</c:v>
+                  <c:v>0.47920800000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.47144200000000003</c:v>
+                  <c:v>0.47134100000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.46372600000000003</c:v>
+                  <c:v>0.46362599999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.45615800000000001</c:v>
+                  <c:v>0.45606099999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.44873600000000002</c:v>
+                  <c:v>0.44864100000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.44145800000000002</c:v>
+                  <c:v>0.44136399999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.43431999999999998</c:v>
+                  <c:v>0.434228</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.427319</c:v>
+                  <c:v>0.427228</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.42045199999999999</c:v>
+                  <c:v>0.42036400000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.41371799999999997</c:v>
+                  <c:v>0.41363100000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.40711399999999998</c:v>
+                  <c:v>0.407028</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.40063599999999999</c:v>
+                  <c:v>0.40055200000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.39428200000000002</c:v>
+                  <c:v>0.39419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.38805099999999998</c:v>
+                  <c:v>0.38796999999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.38193899999999997</c:v>
+                  <c:v>0.38185999999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.375944</c:v>
+                  <c:v>0.37586599999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.370064</c:v>
+                  <c:v>0.36998799999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.36429699999999998</c:v>
+                  <c:v>0.36422199999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.35864000000000001</c:v>
+                  <c:v>0.358566</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.35309099999999999</c:v>
+                  <c:v>0.35301900000000003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.34764800000000001</c:v>
+                  <c:v>0.34757700000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.34230899999999997</c:v>
+                  <c:v>0.34223900000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.33707199999999998</c:v>
+                  <c:v>0.337003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.33193400000000001</c:v>
+                  <c:v>0.33186700000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.32689400000000002</c:v>
+                  <c:v>0.32682800000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.32195000000000001</c:v>
+                  <c:v>0.32188499999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.317052</c:v>
+                  <c:v>0.31698700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,7 +3013,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3071,7 +3082,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3202,7 +3212,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3229,7 +3239,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5524,307 +5533,307 @@
             <c:numRef>
               <c:f>'Laval Stoß'!$Q$7:$Q$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.73800100000000002</c:v>
+                  <c:v>0.73806799999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73078200000000004</c:v>
+                  <c:v>0.73085199999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72358199999999995</c:v>
+                  <c:v>0.72365699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.716256</c:v>
+                  <c:v>0.71633199999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70880299999999996</c:v>
+                  <c:v>0.70888200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70122700000000004</c:v>
+                  <c:v>0.70130800000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69352999999999998</c:v>
+                  <c:v>0.69361399999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68571599999999999</c:v>
+                  <c:v>0.68580200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67778700000000003</c:v>
+                  <c:v>0.67787699999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66974800000000001</c:v>
+                  <c:v>0.66984100000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66160200000000002</c:v>
+                  <c:v>0.66169900000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.65335399999999999</c:v>
+                  <c:v>0.65345600000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.645007</c:v>
+                  <c:v>0.64511499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63656699999999999</c:v>
+                  <c:v>0.63668100000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62803799999999999</c:v>
+                  <c:v>0.62816000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.61942600000000003</c:v>
+                  <c:v>0.61955700000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.61073299999999997</c:v>
+                  <c:v>0.61087599999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.601966</c:v>
+                  <c:v>0.60212299999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59312900000000002</c:v>
+                  <c:v>0.59330300000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.58422300000000005</c:v>
+                  <c:v>0.58442099999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57524900000000001</c:v>
+                  <c:v>0.57547999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.56620400000000004</c:v>
+                  <c:v>0.56648100000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55707099999999998</c:v>
+                  <c:v>0.55741799999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54779999999999995</c:v>
+                  <c:v>0.54826600000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.53821200000000002</c:v>
+                  <c:v>0.53890199999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.52708100000000002</c:v>
+                  <c:v>0.52611600000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.51674600000000004</c:v>
+                  <c:v>0.51353199999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50595500000000004</c:v>
+                  <c:v>0.50427999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.49638199999999999</c:v>
+                  <c:v>0.495228</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.48713499999999998</c:v>
+                  <c:v>0.48625400000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47804200000000002</c:v>
+                  <c:v>0.47732999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.46904699999999999</c:v>
+                  <c:v>0.46844999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46012799999999998</c:v>
+                  <c:v>0.45961600000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.45127800000000001</c:v>
+                  <c:v>0.45083099999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.44249500000000003</c:v>
+                  <c:v>0.44209799999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.43377900000000003</c:v>
+                  <c:v>0.433423</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.42513299999999998</c:v>
+                  <c:v>0.42481099999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.41655999999999999</c:v>
+                  <c:v>0.416267</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.40806500000000001</c:v>
+                  <c:v>0.40779599999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.39965099999999998</c:v>
+                  <c:v>0.39940300000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.391322</c:v>
+                  <c:v>0.391092</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.38308300000000001</c:v>
+                  <c:v>0.38286900000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.37493700000000002</c:v>
+                  <c:v>0.37473699999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.36688799999999999</c:v>
+                  <c:v>0.366701</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35893900000000001</c:v>
+                  <c:v>0.35876400000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.35109499999999999</c:v>
+                  <c:v>0.35093000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.34335700000000002</c:v>
+                  <c:v>0.37488900000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.69505700000000004</c:v>
+                  <c:v>0.65317700000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.66411799999999999</c:v>
+                  <c:v>0.66285899999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.67150799999999999</c:v>
+                  <c:v>0.67157800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.67996100000000004</c:v>
+                  <c:v>0.68000099999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.688114</c:v>
+                  <c:v>0.68815599999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.69601999999999997</c:v>
+                  <c:v>0.69606199999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.70369400000000004</c:v>
+                  <c:v>0.70373600000000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.711148</c:v>
+                  <c:v>0.71118999999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.71839299999999995</c:v>
+                  <c:v>0.71843400000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.72543800000000003</c:v>
+                  <c:v>0.72547799999999996</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.73229100000000003</c:v>
+                  <c:v>0.73233000000000004</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.73895699999999997</c:v>
+                  <c:v>0.73899499999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.745444</c:v>
+                  <c:v>0.74548099999999995</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.75175599999999998</c:v>
+                  <c:v>0.75179200000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.75789899999999999</c:v>
+                  <c:v>0.75793299999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.763876</c:v>
+                  <c:v>0.76390899999999995</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.76969100000000001</c:v>
+                  <c:v>0.76972300000000005</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.77534999999999998</c:v>
+                  <c:v>0.77538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.78085400000000005</c:v>
+                  <c:v>0.78088400000000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.78620900000000005</c:v>
+                  <c:v>0.78623699999999996</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.79141700000000004</c:v>
+                  <c:v>0.79144400000000004</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.79648099999999999</c:v>
+                  <c:v>0.79650699999999997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.80140599999999995</c:v>
+                  <c:v>0.801431</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.80619300000000005</c:v>
+                  <c:v>0.80621699999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.81084599999999996</c:v>
+                  <c:v>0.81086899999999995</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.81536900000000001</c:v>
+                  <c:v>0.81538999999999995</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.81976300000000002</c:v>
+                  <c:v>0.81978399999999996</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.82403300000000002</c:v>
+                  <c:v>0.82405300000000004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.82818099999999994</c:v>
+                  <c:v>0.82819900000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.83221000000000001</c:v>
+                  <c:v>0.83222700000000005</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.83612200000000003</c:v>
+                  <c:v>0.83613899999999997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.83992199999999995</c:v>
+                  <c:v>0.83993700000000004</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.84360999999999997</c:v>
+                  <c:v>0.84362499999999996</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.84719100000000003</c:v>
+                  <c:v>0.84720499999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.85066699999999995</c:v>
+                  <c:v>0.85067999999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.85404100000000005</c:v>
+                  <c:v>0.85405299999999995</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.85731500000000005</c:v>
+                  <c:v>0.85732600000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.86049100000000001</c:v>
+                  <c:v>0.86050199999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.86357399999999995</c:v>
+                  <c:v>0.86358299999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.866564</c:v>
+                  <c:v>0.86657300000000004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.86946500000000004</c:v>
+                  <c:v>0.86947300000000005</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.87227900000000003</c:v>
+                  <c:v>0.87228600000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.87500800000000001</c:v>
+                  <c:v>0.87501399999999996</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.87765499999999996</c:v>
+                  <c:v>0.87766100000000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.88022199999999995</c:v>
+                  <c:v>0.88022699999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.88271200000000005</c:v>
+                  <c:v>0.88271599999999995</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.88512599999999997</c:v>
+                  <c:v>0.88512999999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.88746700000000001</c:v>
+                  <c:v>0.88746999999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.889737</c:v>
+                  <c:v>0.88973899999999995</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.89193699999999998</c:v>
+                  <c:v>0.89193900000000004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.89407099999999995</c:v>
+                  <c:v>0.89407300000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.89614000000000005</c:v>
+                  <c:v>0.89614099999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.898146</c:v>
+                  <c:v>0.89814700000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.9</c:v>
@@ -5875,7 +5884,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5945,7 +5953,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6076,7 +6083,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8403,12 +8410,312 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Laval Stoß'!#REF!</c:f>
+              <c:f>'Laval Stoß'!$R$7:$R$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99984399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99974300000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99963599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99952200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99940300000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.999278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99914700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99901099999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99886799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99872000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99856599999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99840700000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99824299999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99807400000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99772099999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99753800000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99735200000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99716099999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99696700000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99677099999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99657099999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99636899999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.996166</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99596099999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99595800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99595199999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99594300000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99592999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99591499999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99589499999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99587300000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99584600000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99581600000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99578199999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99574499999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.995703</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99565800000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99560899999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.995556</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99543899999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99537500000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99530600000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99523499999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97333700000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.96527200000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96535499999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.96524799999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.96514800000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.96505399999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.96496599999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.96488499999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.96480900000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.96474000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96467499999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.96461699999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.96456399999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.96451600000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.96447300000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.96443400000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.96440099999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.96437200000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.96434699999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.96432700000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.96431</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.96429699999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.96428800000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.96428199999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.964279</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.96428000000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.964283</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.96428899999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.96429799999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.96430899999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.96432200000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.96433800000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.96435599999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.96437499999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.96439600000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.96441900000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.96444399999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.96446900000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.96449600000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.96452400000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.96455400000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.964584</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.964615</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.96464700000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.96467899999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.96471200000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.96474599999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.96477999999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.96481499999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96484899999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96488499999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96492</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.96495600000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.96499100000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.96490900000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8456,7 +8763,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8526,7 +8832,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8657,7 +8962,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8696,7 +9001,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10374,310 +10678,310 @@
             <c:numRef>
               <c:f>'Laval Überschall'!$M$7:$M$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.67335599999999995</c:v>
+                  <c:v>0.67325100000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68447199999999997</c:v>
+                  <c:v>0.68436200000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69558299999999995</c:v>
+                  <c:v>0.69546699999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70684999999999998</c:v>
+                  <c:v>0.70672999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.718275</c:v>
+                  <c:v>0.71815200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72985800000000001</c:v>
+                  <c:v>0.72973100000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74159900000000001</c:v>
+                  <c:v>0.74146800000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.753498</c:v>
+                  <c:v>0.75336199999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76555499999999999</c:v>
+                  <c:v>0.76541300000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77776800000000001</c:v>
+                  <c:v>0.77761999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79013699999999998</c:v>
+                  <c:v>0.78998199999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80266199999999999</c:v>
+                  <c:v>0.80249899999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81534099999999998</c:v>
+                  <c:v>0.81516900000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82817399999999997</c:v>
+                  <c:v>0.82799199999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84116100000000005</c:v>
+                  <c:v>0.84096599999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85430099999999998</c:v>
+                  <c:v>0.85409100000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86759299999999995</c:v>
+                  <c:v>0.86736500000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88103900000000002</c:v>
+                  <c:v>0.88078900000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.89463999999999999</c:v>
+                  <c:v>0.89436000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90839999999999999</c:v>
+                  <c:v>0.90808100000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92232499999999995</c:v>
+                  <c:v>0.92195499999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93643299999999996</c:v>
+                  <c:v>0.93598700000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.95075699999999996</c:v>
+                  <c:v>0.95019600000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.96538800000000002</c:v>
+                  <c:v>0.96463399999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98063</c:v>
+                  <c:v>0.97950499999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99851199999999996</c:v>
+                  <c:v>1.0000530000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.015325</c:v>
+                  <c:v>1.020659</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0331239999999999</c:v>
+                  <c:v>1.0359529999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0490630000000001</c:v>
+                  <c:v>1.051045</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0646009999999999</c:v>
+                  <c:v>1.066141</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0800259999999999</c:v>
+                  <c:v>1.0812919999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.095437</c:v>
+                  <c:v>1.096514</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1108739999999999</c:v>
+                  <c:v>1.111815</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1263570000000001</c:v>
+                  <c:v>1.1271949999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1418969999999999</c:v>
+                  <c:v>1.1426529999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1574979999999999</c:v>
+                  <c:v>1.158188</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.17316</c:v>
+                  <c:v>1.1737960000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.188885</c:v>
+                  <c:v>1.189476</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.204671</c:v>
+                  <c:v>1.2052229999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2205159999999999</c:v>
+                  <c:v>1.221034</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2364170000000001</c:v>
+                  <c:v>1.236907</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.252372</c:v>
+                  <c:v>1.2528360000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.268378</c:v>
+                  <c:v>1.2688200000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2844310000000001</c:v>
+                  <c:v>1.2848539999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.300529</c:v>
+                  <c:v>1.300934</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3166679999999999</c:v>
+                  <c:v>1.3170569999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3328450000000001</c:v>
+                  <c:v>1.3332200000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.349057</c:v>
+                  <c:v>1.3494189999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3653</c:v>
+                  <c:v>1.36565</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.381572</c:v>
+                  <c:v>1.38191</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3978680000000001</c:v>
+                  <c:v>1.398196</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.414185</c:v>
+                  <c:v>1.414504</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.4305209999999999</c:v>
+                  <c:v>1.430831</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4468719999999999</c:v>
+                  <c:v>1.447174</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4632350000000001</c:v>
+                  <c:v>1.46353</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4796069999999999</c:v>
+                  <c:v>1.479895</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.4959849999999999</c:v>
+                  <c:v>1.496267</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.512367</c:v>
+                  <c:v>1.512643</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.528748</c:v>
+                  <c:v>1.5290189999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5451280000000001</c:v>
+                  <c:v>1.5453939999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.5615030000000001</c:v>
+                  <c:v>1.561763</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.5778700000000001</c:v>
+                  <c:v>1.5781259999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5942259999999999</c:v>
+                  <c:v>1.5944780000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.610571</c:v>
+                  <c:v>1.610819</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6269</c:v>
+                  <c:v>1.6271439999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6432119999999999</c:v>
+                  <c:v>1.6434530000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.659505</c:v>
+                  <c:v>1.6597420000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.6757759999999999</c:v>
+                  <c:v>1.67601</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.692024</c:v>
+                  <c:v>1.6922550000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7082459999999999</c:v>
+                  <c:v>1.708474</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.7244409999999999</c:v>
+                  <c:v>1.724666</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.7406060000000001</c:v>
+                  <c:v>1.740829</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7567410000000001</c:v>
+                  <c:v>1.756961</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.772842</c:v>
+                  <c:v>1.7730600000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.78891</c:v>
+                  <c:v>1.789126</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.804942</c:v>
+                  <c:v>1.8051550000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.8209360000000001</c:v>
+                  <c:v>1.821148</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.836892</c:v>
+                  <c:v>1.837102</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.852808</c:v>
+                  <c:v>1.853016</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.8686830000000001</c:v>
+                  <c:v>1.868889</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8845160000000001</c:v>
+                  <c:v>1.88472</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9003049999999999</c:v>
+                  <c:v>1.9005080000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9160489999999999</c:v>
+                  <c:v>1.9162509999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.931748</c:v>
+                  <c:v>1.931948</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.9474009999999999</c:v>
+                  <c:v>1.9475990000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.963006</c:v>
+                  <c:v>1.963203</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.9785630000000001</c:v>
+                  <c:v>1.9787589999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.9940709999999999</c:v>
+                  <c:v>1.9942660000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0095299999999998</c:v>
+                  <c:v>2.0097230000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.0249380000000001</c:v>
+                  <c:v>2.0251299999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.040295</c:v>
+                  <c:v>2.040486</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.0556000000000001</c:v>
+                  <c:v>2.0557910000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.0708530000000001</c:v>
+                  <c:v>2.071043</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.0860539999999999</c:v>
+                  <c:v>2.0862430000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1012019999999998</c:v>
+                  <c:v>2.1013890000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.1162960000000002</c:v>
+                  <c:v>2.1164830000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.1313360000000001</c:v>
+                  <c:v>2.1315219999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.1463220000000001</c:v>
+                  <c:v>2.1465070000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.1612529999999999</c:v>
+                  <c:v>2.161438</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.1761300000000001</c:v>
+                  <c:v>2.1763140000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.1761300000000001</c:v>
+                  <c:v>2.1763140000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10737,7 +11041,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10843,7 +11146,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11005,7 +11307,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11039,7 +11341,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12717,310 +13018,310 @@
             <c:numRef>
               <c:f>'Laval Überschall'!$N$7:$N$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.73800100000000002</c:v>
+                  <c:v>0.73806799999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73078200000000004</c:v>
+                  <c:v>0.73085199999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72358199999999995</c:v>
+                  <c:v>0.72365599999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71625499999999998</c:v>
+                  <c:v>0.71633199999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70880299999999996</c:v>
+                  <c:v>0.70888200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70122700000000004</c:v>
+                  <c:v>0.70130800000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69352999999999998</c:v>
+                  <c:v>0.69361399999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68571599999999999</c:v>
+                  <c:v>0.68580200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67778700000000003</c:v>
+                  <c:v>0.67787699999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66974800000000001</c:v>
+                  <c:v>0.66984100000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66160200000000002</c:v>
+                  <c:v>0.66169900000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.65335299999999996</c:v>
+                  <c:v>0.65345600000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.645007</c:v>
+                  <c:v>0.64511499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63656699999999999</c:v>
+                  <c:v>0.63668100000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62803799999999999</c:v>
+                  <c:v>0.62816000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.619425</c:v>
+                  <c:v>0.61955700000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.61073299999999997</c:v>
+                  <c:v>0.61087599999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.601966</c:v>
+                  <c:v>0.60212299999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59312799999999999</c:v>
+                  <c:v>0.59330300000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.58422200000000002</c:v>
+                  <c:v>0.58442099999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57524900000000001</c:v>
+                  <c:v>0.57547999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.56620400000000004</c:v>
+                  <c:v>0.56648100000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55707099999999998</c:v>
+                  <c:v>0.55741799999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54779999999999995</c:v>
+                  <c:v>0.54826600000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.53821200000000002</c:v>
+                  <c:v>0.53890199999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.52707999999999999</c:v>
+                  <c:v>0.52611600000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.51674500000000001</c:v>
+                  <c:v>0.51353199999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50595500000000004</c:v>
+                  <c:v>0.50427999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.49638199999999999</c:v>
+                  <c:v>0.495228</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.48713499999999998</c:v>
+                  <c:v>0.48625400000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47804099999999999</c:v>
+                  <c:v>0.47732999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.46904600000000002</c:v>
+                  <c:v>0.46844999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.46012799999999998</c:v>
+                  <c:v>0.45961600000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.45127800000000001</c:v>
+                  <c:v>0.45083000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.442494</c:v>
+                  <c:v>0.44209799999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.433778</c:v>
+                  <c:v>0.433423</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.42513200000000001</c:v>
+                  <c:v>0.42481099999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.41655999999999999</c:v>
+                  <c:v>0.416267</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.40806500000000001</c:v>
+                  <c:v>0.40779599999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.39965099999999998</c:v>
+                  <c:v>0.39940300000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.391322</c:v>
+                  <c:v>0.391092</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.38308199999999998</c:v>
+                  <c:v>0.38286900000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.37493599999999999</c:v>
+                  <c:v>0.37473699999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.36688700000000002</c:v>
+                  <c:v>0.366701</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35893900000000001</c:v>
+                  <c:v>0.35876400000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.35109499999999999</c:v>
+                  <c:v>0.35093000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.34335700000000002</c:v>
+                  <c:v>0.34320200000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.33572999999999997</c:v>
+                  <c:v>0.33558300000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.32821499999999998</c:v>
+                  <c:v>0.32807599999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.32081599999999999</c:v>
+                  <c:v>0.32068400000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.31353300000000001</c:v>
+                  <c:v>0.31340800000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.30636999999999998</c:v>
+                  <c:v>0.306251</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.29932700000000001</c:v>
+                  <c:v>0.29921399999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.292406</c:v>
+                  <c:v>0.292298</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.285609</c:v>
+                  <c:v>0.28550599999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.27893499999999999</c:v>
+                  <c:v>0.278837</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.27238699999999999</c:v>
+                  <c:v>0.27229300000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.26596399999999998</c:v>
+                  <c:v>0.265874</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.25966600000000001</c:v>
+                  <c:v>0.25957999999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.25349500000000003</c:v>
+                  <c:v>0.25341200000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.247449</c:v>
+                  <c:v>0.24737000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.24152799999999999</c:v>
+                  <c:v>0.241452</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.235732</c:v>
+                  <c:v>0.23565900000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.23005999999999999</c:v>
+                  <c:v>0.22999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.22451199999999999</c:v>
+                  <c:v>0.224444</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.219086</c:v>
+                  <c:v>0.21902099999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.213781</c:v>
+                  <c:v>0.21371899999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.208597</c:v>
+                  <c:v>0.208537</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.20353199999999999</c:v>
+                  <c:v>0.20347399999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.19858500000000001</c:v>
+                  <c:v>0.19852900000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.19375300000000001</c:v>
+                  <c:v>0.19370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.18903700000000001</c:v>
+                  <c:v>0.18898499999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.18443300000000001</c:v>
+                  <c:v>0.18438299999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.17993999999999999</c:v>
+                  <c:v>0.179892</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.17555699999999999</c:v>
+                  <c:v>0.17551</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.17128199999999999</c:v>
+                  <c:v>0.171236</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.16711200000000001</c:v>
+                  <c:v>0.16706799999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.163046</c:v>
+                  <c:v>0.16300400000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.159082</c:v>
+                  <c:v>0.15904199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.15521799999999999</c:v>
+                  <c:v>0.15517900000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.151453</c:v>
+                  <c:v>0.15141499999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.147783</c:v>
+                  <c:v>0.14774599999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.144207</c:v>
+                  <c:v>0.14417199999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.14072399999999999</c:v>
+                  <c:v>0.14068900000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.13733000000000001</c:v>
+                  <c:v>0.137297</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.13402500000000001</c:v>
+                  <c:v>0.133992</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.130805</c:v>
+                  <c:v>0.130774</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.12767000000000001</c:v>
+                  <c:v>0.12764</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.12461700000000001</c:v>
+                  <c:v>0.124587</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.121644</c:v>
+                  <c:v>0.121615</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.11874899999999999</c:v>
+                  <c:v>0.11872099999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.11593100000000001</c:v>
+                  <c:v>0.11590300000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.11318599999999999</c:v>
+                  <c:v>0.11316</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.110515</c:v>
+                  <c:v>0.110489</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.107914</c:v>
+                  <c:v>0.107889</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.105382</c:v>
+                  <c:v>0.10535799999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.102918</c:v>
+                  <c:v>0.102894</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.100518</c:v>
+                  <c:v>0.100496</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.8183000000000006E-2</c:v>
+                  <c:v>9.8160999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.5908999999999994E-2</c:v>
+                  <c:v>9.5888000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.5908999999999994E-2</c:v>
+                  <c:v>9.5888000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13080,7 +13381,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13186,7 +13486,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13348,7 +13647,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13387,7 +13686,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15065,7 +15363,7 @@
             <c:numRef>
               <c:f>'Laval Überschall'!$O$7:$O$107</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -15074,301 +15372,301 @@
                   <c:v>0.99984399999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99974200000000002</c:v>
+                  <c:v>0.99974300000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.99963599999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99952300000000005</c:v>
+                  <c:v>0.99952200000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99940499999999999</c:v>
+                  <c:v>0.99940300000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99928099999999997</c:v>
+                  <c:v>0.999278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99914999999999998</c:v>
+                  <c:v>0.99914700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99901399999999996</c:v>
+                  <c:v>0.99901099999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99887199999999998</c:v>
+                  <c:v>0.99886799999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99872499999999997</c:v>
+                  <c:v>0.99872000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99857200000000002</c:v>
+                  <c:v>0.99856599999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99841299999999999</c:v>
+                  <c:v>0.99840700000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99824900000000005</c:v>
+                  <c:v>0.99824299999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99807999999999997</c:v>
+                  <c:v>0.99807400000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99790699999999999</c:v>
+                  <c:v>0.99790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.99772799999999995</c:v>
+                  <c:v>0.99772099999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.99754600000000004</c:v>
+                  <c:v>0.99753899999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.997359</c:v>
+                  <c:v>0.99735200000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99716899999999997</c:v>
+                  <c:v>0.99716099999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99697499999999994</c:v>
+                  <c:v>0.99696700000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99677800000000005</c:v>
+                  <c:v>0.99677099999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99657899999999999</c:v>
+                  <c:v>0.99657099999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99637799999999999</c:v>
+                  <c:v>0.99636899999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99617800000000001</c:v>
+                  <c:v>0.996166</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99599499999999996</c:v>
+                  <c:v>0.99596099999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99589799999999995</c:v>
+                  <c:v>0.99595800000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.995892</c:v>
+                  <c:v>0.99595199999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99588200000000004</c:v>
+                  <c:v>0.99594300000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99587000000000003</c:v>
+                  <c:v>0.99592999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99585400000000002</c:v>
+                  <c:v>0.99591499999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.995834</c:v>
+                  <c:v>0.99589499999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.995811</c:v>
+                  <c:v>0.99587300000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99578500000000003</c:v>
+                  <c:v>0.99584600000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99575400000000003</c:v>
+                  <c:v>0.99581600000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99572099999999997</c:v>
+                  <c:v>0.99578199999999994</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99568299999999998</c:v>
+                  <c:v>0.99574499999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.995641</c:v>
+                  <c:v>0.995703</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99559600000000004</c:v>
+                  <c:v>0.99565800000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.99554699999999996</c:v>
+                  <c:v>0.99560899999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.99549399999999999</c:v>
+                  <c:v>0.995556</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99543700000000002</c:v>
+                  <c:v>0.99550000000000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99537699999999996</c:v>
+                  <c:v>0.99543899999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99531199999999997</c:v>
+                  <c:v>0.99537500000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99524400000000002</c:v>
+                  <c:v>0.99530700000000005</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99517199999999995</c:v>
+                  <c:v>0.99523499999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99509599999999998</c:v>
+                  <c:v>0.99515900000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99501700000000004</c:v>
+                  <c:v>0.99507999999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99493399999999999</c:v>
+                  <c:v>0.99499700000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99484700000000004</c:v>
+                  <c:v>0.99490999999999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.994757</c:v>
+                  <c:v>0.99482000000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99466299999999996</c:v>
+                  <c:v>0.994726</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99456599999999995</c:v>
+                  <c:v>0.99462899999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99446599999999996</c:v>
+                  <c:v>0.994529</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.994363</c:v>
+                  <c:v>0.99442600000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99425600000000003</c:v>
+                  <c:v>0.99431899999999995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99414599999999997</c:v>
+                  <c:v>0.99420900000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.99403399999999997</c:v>
+                  <c:v>0.99409700000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99391799999999997</c:v>
+                  <c:v>0.993981</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99380000000000002</c:v>
+                  <c:v>0.99386300000000005</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99367899999999998</c:v>
+                  <c:v>0.99374200000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99355499999999997</c:v>
+                  <c:v>0.993618</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99342900000000001</c:v>
+                  <c:v>0.99349200000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99330099999999999</c:v>
+                  <c:v>0.99336400000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99317</c:v>
+                  <c:v>0.99323399999999995</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.99303799999999998</c:v>
+                  <c:v>0.99310100000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99290299999999998</c:v>
+                  <c:v>0.99296600000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99276600000000004</c:v>
+                  <c:v>0.99282899999999996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99262799999999995</c:v>
+                  <c:v>0.99269099999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99248700000000001</c:v>
+                  <c:v>0.99255099999999996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99234599999999995</c:v>
+                  <c:v>0.99240899999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99220200000000003</c:v>
+                  <c:v>0.99226599999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99205699999999997</c:v>
+                  <c:v>0.99212100000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99191099999999999</c:v>
+                  <c:v>0.99197500000000005</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.99176399999999998</c:v>
+                  <c:v>0.99182700000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99161600000000005</c:v>
+                  <c:v>0.99167899999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99146599999999996</c:v>
+                  <c:v>0.99152899999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.99131599999999997</c:v>
+                  <c:v>0.99137900000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.99116400000000004</c:v>
+                  <c:v>0.991228</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.99101300000000003</c:v>
+                  <c:v>0.99107599999999996</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.99085999999999996</c:v>
+                  <c:v>0.990923</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.990707</c:v>
+                  <c:v>0.99077000000000004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.99055300000000002</c:v>
+                  <c:v>0.99061600000000005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.99039900000000003</c:v>
+                  <c:v>0.99046199999999995</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.99024400000000001</c:v>
+                  <c:v>0.99030799999999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.990089</c:v>
+                  <c:v>0.99015299999999995</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.98993399999999998</c:v>
+                  <c:v>0.98999800000000004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.98977899999999996</c:v>
+                  <c:v>0.98984300000000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.98962399999999995</c:v>
+                  <c:v>0.98968699999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.98946900000000004</c:v>
+                  <c:v>0.98953199999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.98931400000000003</c:v>
+                  <c:v>0.98937699999999995</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.98915900000000001</c:v>
+                  <c:v>0.98922200000000005</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.98900399999999999</c:v>
+                  <c:v>0.98906700000000003</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.98884899999999998</c:v>
+                  <c:v>0.98891300000000004</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.98869499999999999</c:v>
+                  <c:v>0.98875800000000003</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.988541</c:v>
+                  <c:v>0.98860400000000004</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.98838700000000002</c:v>
+                  <c:v>0.98845099999999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.98823399999999995</c:v>
+                  <c:v>0.98829699999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.98808099999999999</c:v>
+                  <c:v>0.98814500000000005</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.98792899999999995</c:v>
+                  <c:v>0.98799199999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.98792899999999995</c:v>
+                  <c:v>0.98799199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15428,7 +15726,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15534,7 +15831,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17709,26 +18005,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="51048" topLeftCell="A7"/>
-      <selection activeCell="AD13" sqref="AD13"/>
-      <selection pane="bottomLeft" activeCell="P109" sqref="P109"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG33" sqref="AG33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17757,7 +18052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17786,7 +18081,7 @@
         <v>0.3173507452317274</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G5" s="13"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -17800,13 +18095,13 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="21" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -17834,7 +18129,7 @@
       <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -17843,26 +18138,26 @@
       <c r="L6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="22" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -17915,17 +18210,17 @@
       <c r="O7" s="7">
         <v>1</v>
       </c>
-      <c r="P7">
-        <v>0.67335599999999995</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0.73800100000000002</v>
-      </c>
-      <c r="R7">
+      <c r="P7" s="23">
+        <v>0.67325100000000004</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>0.73806799999999995</v>
+      </c>
+      <c r="R7" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>A7+1</f>
         <v>2</v>
@@ -17979,17 +18274,17 @@
       <c r="O8" s="7">
         <v>0.99997599999999998</v>
       </c>
-      <c r="P8">
-        <v>0.68447199999999997</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0.73078200000000004</v>
-      </c>
-      <c r="R8">
+      <c r="P8" s="23">
+        <v>0.68436200000000003</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0.73085199999999995</v>
+      </c>
+      <c r="R8" s="25">
         <v>0.99984399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" ref="A9:A72" si="4">A8+1</f>
         <v>3</v>
@@ -18043,17 +18338,17 @@
       <c r="O9" s="7">
         <v>1.0000089999999999</v>
       </c>
-      <c r="P9">
-        <v>0.69558299999999995</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0.72358199999999995</v>
-      </c>
-      <c r="R9">
-        <v>0.99974200000000002</v>
+      <c r="P9" s="23">
+        <v>0.69546699999999995</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>0.72365699999999999</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0.99974300000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -18107,17 +18402,17 @@
       <c r="O10" s="7">
         <v>1.000046</v>
       </c>
-      <c r="P10">
-        <v>0.70684899999999995</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0.716256</v>
-      </c>
-      <c r="R10">
+      <c r="P10" s="23">
+        <v>0.70672999999999997</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0.71633199999999997</v>
+      </c>
+      <c r="R10" s="25">
         <v>0.99963599999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -18171,17 +18466,17 @@
       <c r="O11" s="7">
         <v>1.000065</v>
       </c>
-      <c r="P11">
-        <v>0.71827399999999997</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0.70880299999999996</v>
-      </c>
-      <c r="R11">
-        <v>0.99952300000000005</v>
+      <c r="P11" s="23">
+        <v>0.71815099999999998</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0.70888200000000001</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0.99952200000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -18235,17 +18530,17 @@
       <c r="O12" s="7">
         <v>1.000068</v>
       </c>
-      <c r="P12">
-        <v>0.72985800000000001</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0.70122700000000004</v>
-      </c>
-      <c r="R12">
-        <v>0.99940499999999999</v>
+      <c r="P12" s="23">
+        <v>0.72973100000000002</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>0.70130800000000004</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0.99940300000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -18299,17 +18594,17 @@
       <c r="O13" s="7">
         <v>1.0000640000000001</v>
       </c>
-      <c r="P13">
-        <v>0.74159900000000001</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0.69352999999999998</v>
-      </c>
-      <c r="R13">
-        <v>0.99928099999999997</v>
+      <c r="P13" s="23">
+        <v>0.74146800000000002</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>0.69361399999999995</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0.999278</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -18363,17 +18658,17 @@
       <c r="O14" s="7">
         <v>1.0000579999999999</v>
       </c>
-      <c r="P14">
-        <v>0.753498</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0.68571599999999999</v>
-      </c>
-      <c r="R14">
-        <v>0.99914999999999998</v>
+      <c r="P14" s="23">
+        <v>0.75336199999999998</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>0.68580200000000002</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0.99914700000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -18427,17 +18722,17 @@
       <c r="O15" s="7">
         <v>1.0000560000000001</v>
       </c>
-      <c r="P15">
-        <v>0.76555399999999996</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0.67778700000000003</v>
-      </c>
-      <c r="R15">
-        <v>0.99901399999999996</v>
+      <c r="P15" s="23">
+        <v>0.76541300000000001</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>0.67787699999999995</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0.99901099999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -18491,17 +18786,17 @@
       <c r="O16" s="7">
         <v>1.0000549999999999</v>
       </c>
-      <c r="P16">
-        <v>0.77776699999999999</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0.66974800000000001</v>
-      </c>
-      <c r="R16">
-        <v>0.99887199999999998</v>
+      <c r="P16" s="23">
+        <v>0.77761999999999998</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>0.66984100000000002</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0.99886799999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -18555,17 +18850,17 @@
       <c r="O17" s="7">
         <v>1.000057</v>
       </c>
-      <c r="P17">
-        <v>0.79013699999999998</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0.66160200000000002</v>
-      </c>
-      <c r="R17">
-        <v>0.99872499999999997</v>
+      <c r="P17" s="23">
+        <v>0.78998199999999996</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>0.66169900000000004</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0.99872000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -18619,17 +18914,17 @@
       <c r="O18" s="7">
         <v>1.0000579999999999</v>
       </c>
-      <c r="P18">
-        <v>0.80266099999999996</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0.65335399999999999</v>
-      </c>
-      <c r="R18">
-        <v>0.99857200000000002</v>
+      <c r="P18" s="23">
+        <v>0.80249899999999996</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>0.65345600000000004</v>
+      </c>
+      <c r="R18" s="25">
+        <v>0.99856599999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -18683,17 +18978,17 @@
       <c r="O19" s="7">
         <v>1.0000599999999999</v>
       </c>
-      <c r="P19">
-        <v>0.81533999999999995</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0.645007</v>
-      </c>
-      <c r="R19">
-        <v>0.99841299999999999</v>
+      <c r="P19" s="23">
+        <v>0.81516900000000003</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>0.64511499999999999</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0.99840700000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -18747,17 +19042,17 @@
       <c r="O20" s="7">
         <v>1.0000610000000001</v>
       </c>
-      <c r="P20">
-        <v>0.82817399999999997</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0.63656699999999999</v>
-      </c>
-      <c r="R20">
-        <v>0.99824900000000005</v>
+      <c r="P20" s="23">
+        <v>0.82799199999999995</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>0.63668100000000005</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0.99824299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -18811,17 +19106,17 @@
       <c r="O21" s="7">
         <v>1.0000629999999999</v>
       </c>
-      <c r="P21">
-        <v>0.84116100000000005</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0.62803799999999999</v>
-      </c>
-      <c r="R21">
-        <v>0.99807999999999997</v>
+      <c r="P21" s="23">
+        <v>0.84096599999999999</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>0.62816000000000005</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0.99807400000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -18875,17 +19170,17 @@
       <c r="O22" s="7">
         <v>1.0000640000000001</v>
       </c>
-      <c r="P22">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0.61942600000000003</v>
-      </c>
-      <c r="R22">
-        <v>0.99790699999999999</v>
+      <c r="P22" s="23">
+        <v>0.85409100000000004</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0.61955700000000002</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0.99790000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -18939,17 +19234,17 @@
       <c r="O23" s="7">
         <v>1.0000640000000001</v>
       </c>
-      <c r="P23">
-        <v>0.86759299999999995</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0.61073299999999997</v>
-      </c>
-      <c r="R23">
-        <v>0.99772799999999995</v>
+      <c r="P23" s="23">
+        <v>0.86736500000000005</v>
+      </c>
+      <c r="Q23" s="24">
+        <v>0.61087599999999997</v>
+      </c>
+      <c r="R23" s="25">
+        <v>0.99772099999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -19003,17 +19298,17 @@
       <c r="O24" s="7">
         <v>1.000065</v>
       </c>
-      <c r="P24">
-        <v>0.88103900000000002</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0.601966</v>
-      </c>
-      <c r="R24">
-        <v>0.99754600000000004</v>
+      <c r="P24" s="23">
+        <v>0.88078800000000002</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>0.60212299999999996</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0.99753800000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -19067,17 +19362,17 @@
       <c r="O25" s="7">
         <v>1.0000659999999999</v>
       </c>
-      <c r="P25">
-        <v>0.89463999999999999</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0.59312900000000002</v>
-      </c>
-      <c r="R25">
-        <v>0.997359</v>
+      <c r="P25" s="23">
+        <v>0.89436000000000004</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>0.59330300000000002</v>
+      </c>
+      <c r="R25" s="25">
+        <v>0.99735200000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -19131,17 +19426,17 @@
       <c r="O26" s="7">
         <v>1.000068</v>
       </c>
-      <c r="P26">
-        <v>0.90839899999999996</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0.58422300000000005</v>
-      </c>
-      <c r="R26">
-        <v>0.99716899999999997</v>
+      <c r="P26" s="23">
+        <v>0.90808100000000003</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>0.58442099999999997</v>
+      </c>
+      <c r="R26" s="25">
+        <v>0.99716099999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -19195,17 +19490,17 @@
       <c r="O27" s="7">
         <v>1.0000690000000001</v>
       </c>
-      <c r="P27">
-        <v>0.92232499999999995</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>0.57524900000000001</v>
-      </c>
-      <c r="R27">
-        <v>0.99697499999999994</v>
+      <c r="P27" s="23">
+        <v>0.92195499999999997</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>0.57547999999999999</v>
+      </c>
+      <c r="R27" s="25">
+        <v>0.99696700000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -19259,17 +19554,17 @@
       <c r="O28" s="7">
         <v>1.00007</v>
       </c>
-      <c r="P28">
-        <v>0.93643200000000004</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>0.56620400000000004</v>
-      </c>
-      <c r="R28">
-        <v>0.99677800000000005</v>
+      <c r="P28" s="23">
+        <v>0.93598700000000001</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>0.56648100000000001</v>
+      </c>
+      <c r="R28" s="25">
+        <v>0.99677099999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -19323,17 +19618,17 @@
       <c r="O29" s="7">
         <v>1.0000709999999999</v>
       </c>
-      <c r="P29">
-        <v>0.95075600000000005</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0.55707099999999998</v>
-      </c>
-      <c r="R29">
-        <v>0.99657899999999999</v>
+      <c r="P29" s="23">
+        <v>0.95019600000000004</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>0.55741799999999997</v>
+      </c>
+      <c r="R29" s="25">
+        <v>0.99657099999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -19387,17 +19682,17 @@
       <c r="O30" s="7">
         <v>1.0000720000000001</v>
       </c>
-      <c r="P30">
-        <v>0.965387</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0.54779999999999995</v>
-      </c>
-      <c r="R30">
-        <v>0.99637799999999999</v>
+      <c r="P30" s="23">
+        <v>0.96463299999999996</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>0.54826600000000003</v>
+      </c>
+      <c r="R30" s="25">
+        <v>0.99636899999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -19451,17 +19746,17 @@
       <c r="O31" s="7">
         <v>1.000073</v>
       </c>
-      <c r="P31">
-        <v>0.98062899999999997</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>0.53821200000000002</v>
-      </c>
-      <c r="R31">
-        <v>0.99617699999999998</v>
+      <c r="P31" s="23">
+        <v>0.97950499999999996</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>0.53890199999999999</v>
+      </c>
+      <c r="R31" s="25">
+        <v>0.996166</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -19515,17 +19810,17 @@
       <c r="O32" s="7">
         <v>1.0000739999999999</v>
       </c>
-      <c r="P32">
-        <v>0.99851000000000001</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0.52708100000000002</v>
-      </c>
-      <c r="R32">
-        <v>0.99599499999999996</v>
+      <c r="P32" s="23">
+        <v>1.0000530000000001</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>0.52611600000000003</v>
+      </c>
+      <c r="R32" s="25">
+        <v>0.99596099999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -19579,17 +19874,18 @@
       <c r="O33" s="7">
         <v>1.0000739999999999</v>
       </c>
-      <c r="P33">
-        <v>1.015323</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0.51674600000000004</v>
-      </c>
-      <c r="R33">
-        <v>0.99589799999999995</v>
-      </c>
+      <c r="P33" s="23">
+        <v>1.020659</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>0.51353199999999999</v>
+      </c>
+      <c r="R33" s="25">
+        <v>0.99595800000000001</v>
+      </c>
+      <c r="AE33" s="19"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -19643,17 +19939,18 @@
       <c r="O34" s="7">
         <v>1.0000739999999999</v>
       </c>
-      <c r="P34">
-        <v>1.033123</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0.50595500000000004</v>
-      </c>
-      <c r="R34">
-        <v>0.995892</v>
-      </c>
+      <c r="P34" s="23">
+        <v>1.0359529999999999</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>0.50427999999999995</v>
+      </c>
+      <c r="R34" s="25">
+        <v>0.99595199999999995</v>
+      </c>
+      <c r="AE34" s="19"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -19707,17 +20004,18 @@
       <c r="O35" s="7">
         <v>1.0000739999999999</v>
       </c>
-      <c r="P35">
-        <v>1.0490619999999999</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0.49638199999999999</v>
-      </c>
-      <c r="R35">
-        <v>0.99588200000000004</v>
-      </c>
+      <c r="P35" s="23">
+        <v>1.051045</v>
+      </c>
+      <c r="Q35" s="24">
+        <v>0.495228</v>
+      </c>
+      <c r="R35" s="25">
+        <v>0.99594300000000002</v>
+      </c>
+      <c r="AE35" s="19"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -19771,17 +20069,18 @@
       <c r="O36" s="7">
         <v>1.000073</v>
       </c>
-      <c r="P36">
-        <v>1.0646</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>0.48713499999999998</v>
-      </c>
-      <c r="R36">
-        <v>0.995869</v>
-      </c>
+      <c r="P36" s="23">
+        <v>1.066141</v>
+      </c>
+      <c r="Q36" s="24">
+        <v>0.48625400000000002</v>
+      </c>
+      <c r="R36" s="25">
+        <v>0.99592999999999998</v>
+      </c>
+      <c r="AE36" s="19"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -19835,17 +20134,18 @@
       <c r="O37" s="7">
         <v>1.000075</v>
       </c>
-      <c r="P37">
-        <v>1.080025</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>0.47804200000000002</v>
-      </c>
-      <c r="R37">
-        <v>0.99585299999999999</v>
-      </c>
+      <c r="P37" s="23">
+        <v>1.081291</v>
+      </c>
+      <c r="Q37" s="24">
+        <v>0.47732999999999998</v>
+      </c>
+      <c r="R37" s="25">
+        <v>0.99591499999999999</v>
+      </c>
+      <c r="AE37" s="19"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -19899,17 +20199,18 @@
       <c r="O38" s="7">
         <v>1.0000819999999999</v>
       </c>
-      <c r="P38">
-        <v>1.0954360000000001</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0.46904699999999999</v>
-      </c>
-      <c r="R38">
-        <v>0.995834</v>
-      </c>
+      <c r="P38" s="23">
+        <v>1.096514</v>
+      </c>
+      <c r="Q38" s="24">
+        <v>0.46844999999999998</v>
+      </c>
+      <c r="R38" s="25">
+        <v>0.99589499999999997</v>
+      </c>
+      <c r="AE38" s="19"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -19963,17 +20264,18 @@
       <c r="O39" s="7">
         <v>1.000097</v>
       </c>
-      <c r="P39">
-        <v>1.110873</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>0.46012799999999998</v>
-      </c>
-      <c r="R39">
-        <v>0.995811</v>
-      </c>
+      <c r="P39" s="23">
+        <v>1.111815</v>
+      </c>
+      <c r="Q39" s="24">
+        <v>0.45961600000000002</v>
+      </c>
+      <c r="R39" s="25">
+        <v>0.99587300000000001</v>
+      </c>
+      <c r="AE39" s="19"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -20027,17 +20329,18 @@
       <c r="O40" s="7">
         <v>1.0001230000000001</v>
       </c>
-      <c r="P40">
-        <v>1.1263559999999999</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0.45127800000000001</v>
-      </c>
-      <c r="R40">
-        <v>0.995784</v>
-      </c>
+      <c r="P40" s="23">
+        <v>1.1271949999999999</v>
+      </c>
+      <c r="Q40" s="24">
+        <v>0.45083099999999998</v>
+      </c>
+      <c r="R40" s="25">
+        <v>0.99584600000000001</v>
+      </c>
+      <c r="AE40" s="19"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -20091,17 +20394,18 @@
       <c r="O41" s="7">
         <v>1.000157</v>
       </c>
-      <c r="P41">
-        <v>1.141896</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0.44249500000000003</v>
-      </c>
-      <c r="R41">
-        <v>0.99575400000000003</v>
-      </c>
+      <c r="P41" s="23">
+        <v>1.1426529999999999</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>0.44209799999999999</v>
+      </c>
+      <c r="R41" s="25">
+        <v>0.99581600000000003</v>
+      </c>
+      <c r="AE41" s="19"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -20155,17 +20459,18 @@
       <c r="O42" s="7">
         <v>1.000186</v>
       </c>
-      <c r="P42">
-        <v>1.157497</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0.43377900000000003</v>
-      </c>
-      <c r="R42">
-        <v>0.99572000000000005</v>
-      </c>
+      <c r="P42" s="23">
+        <v>1.1581870000000001</v>
+      </c>
+      <c r="Q42" s="24">
+        <v>0.433423</v>
+      </c>
+      <c r="R42" s="25">
+        <v>0.99578199999999994</v>
+      </c>
+      <c r="AE42" s="19"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -20219,17 +20524,18 @@
       <c r="O43" s="7">
         <v>1.000178</v>
       </c>
-      <c r="P43">
-        <v>1.1731590000000001</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>0.42513299999999998</v>
-      </c>
-      <c r="R43">
-        <v>0.99568299999999998</v>
-      </c>
+      <c r="P43" s="23">
+        <v>1.1737960000000001</v>
+      </c>
+      <c r="Q43" s="24">
+        <v>0.42481099999999999</v>
+      </c>
+      <c r="R43" s="25">
+        <v>0.99574499999999999</v>
+      </c>
+      <c r="AE43" s="19"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -20283,17 +20589,18 @@
       <c r="O44" s="7">
         <v>1.000089</v>
       </c>
-      <c r="P44">
-        <v>1.1888840000000001</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>0.41655999999999999</v>
-      </c>
-      <c r="R44">
-        <v>0.995641</v>
-      </c>
+      <c r="P44" s="23">
+        <v>1.1894750000000001</v>
+      </c>
+      <c r="Q44" s="24">
+        <v>0.416267</v>
+      </c>
+      <c r="R44" s="25">
+        <v>0.995703</v>
+      </c>
+      <c r="AE44" s="19"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -20347,17 +20654,18 @@
       <c r="O45" s="7">
         <v>0.99988299999999997</v>
       </c>
-      <c r="P45">
-        <v>1.2046699999999999</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>0.40806500000000001</v>
-      </c>
-      <c r="R45">
-        <v>0.99559600000000004</v>
-      </c>
+      <c r="P45" s="23">
+        <v>1.2052229999999999</v>
+      </c>
+      <c r="Q45" s="24">
+        <v>0.40779599999999999</v>
+      </c>
+      <c r="R45" s="25">
+        <v>0.99565800000000004</v>
+      </c>
+      <c r="AE45" s="19"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -20411,17 +20719,18 @@
       <c r="O46" s="7">
         <v>0.99959600000000004</v>
       </c>
-      <c r="P46">
-        <v>1.220515</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>0.39965099999999998</v>
-      </c>
-      <c r="R46">
-        <v>0.99554699999999996</v>
-      </c>
+      <c r="P46" s="23">
+        <v>1.221034</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>0.39940300000000001</v>
+      </c>
+      <c r="R46" s="25">
+        <v>0.99560899999999997</v>
+      </c>
+      <c r="AE46" s="19"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -20475,17 +20784,18 @@
       <c r="O47" s="7">
         <v>0.99943800000000005</v>
       </c>
-      <c r="P47">
-        <v>1.236416</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>0.391322</v>
-      </c>
-      <c r="R47">
-        <v>0.99549399999999999</v>
-      </c>
+      <c r="P47" s="23">
+        <v>1.2369060000000001</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>0.391092</v>
+      </c>
+      <c r="R47" s="25">
+        <v>0.995556</v>
+      </c>
+      <c r="AE47" s="19"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -20539,17 +20849,18 @@
       <c r="O48" s="7">
         <v>0.99981200000000003</v>
       </c>
-      <c r="P48">
-        <v>1.2523709999999999</v>
-      </c>
-      <c r="Q48" s="7">
-        <v>0.38308300000000001</v>
-      </c>
-      <c r="R48">
-        <v>0.99543700000000002</v>
-      </c>
+      <c r="P48" s="23">
+        <v>1.2528360000000001</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>0.38286900000000001</v>
+      </c>
+      <c r="R48" s="25">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="AE48" s="19"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -20603,17 +20914,18 @@
       <c r="O49" s="7">
         <v>1.001163</v>
       </c>
-      <c r="P49">
-        <v>1.2683770000000001</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>0.37493700000000002</v>
-      </c>
-      <c r="R49">
-        <v>0.99537600000000004</v>
-      </c>
+      <c r="P49" s="23">
+        <v>1.2688200000000001</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>0.37473699999999999</v>
+      </c>
+      <c r="R49" s="25">
+        <v>0.99543899999999996</v>
+      </c>
+      <c r="AE49" s="19"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -20667,17 +20979,18 @@
       <c r="O50" s="7">
         <v>1.003738</v>
       </c>
-      <c r="P50">
-        <v>1.28443</v>
-      </c>
-      <c r="Q50" s="7">
-        <v>0.36688799999999999</v>
-      </c>
-      <c r="R50">
-        <v>0.99531199999999997</v>
-      </c>
+      <c r="P50" s="23">
+        <v>1.284853</v>
+      </c>
+      <c r="Q50" s="24">
+        <v>0.366701</v>
+      </c>
+      <c r="R50" s="25">
+        <v>0.99537500000000001</v>
+      </c>
+      <c r="AE50" s="19"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -20731,17 +21044,18 @@
       <c r="O51" s="7">
         <v>1.0071129999999999</v>
       </c>
-      <c r="P51">
-        <v>1.3005279999999999</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>0.35893900000000001</v>
-      </c>
-      <c r="R51">
-        <v>0.99524400000000002</v>
-      </c>
+      <c r="P51" s="23">
+        <v>1.3009329999999999</v>
+      </c>
+      <c r="Q51" s="24">
+        <v>0.35876400000000003</v>
+      </c>
+      <c r="R51" s="25">
+        <v>0.99530600000000002</v>
+      </c>
+      <c r="AE51" s="19"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -20795,17 +21109,18 @@
       <c r="O52" s="7">
         <v>1.0085770000000001</v>
       </c>
-      <c r="P52">
-        <v>1.316667</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>0.35109499999999999</v>
-      </c>
-      <c r="R52">
-        <v>0.99517199999999995</v>
-      </c>
+      <c r="P52" s="23">
+        <v>1.3170569999999999</v>
+      </c>
+      <c r="Q52" s="24">
+        <v>0.35093000000000002</v>
+      </c>
+      <c r="R52" s="25">
+        <v>0.99523499999999998</v>
+      </c>
+      <c r="AE52" s="19"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -20859,17 +21174,18 @@
       <c r="O53" s="7">
         <v>1.001104</v>
       </c>
-      <c r="P53">
-        <v>1.3328450000000001</v>
-      </c>
-      <c r="Q53" s="7">
-        <v>0.34335700000000002</v>
-      </c>
-      <c r="R53">
-        <v>0.99509599999999998</v>
-      </c>
+      <c r="P53" s="23">
+        <v>1.2517480000000001</v>
+      </c>
+      <c r="Q53" s="24">
+        <v>0.37488900000000003</v>
+      </c>
+      <c r="R53" s="25">
+        <v>0.97333700000000001</v>
+      </c>
+      <c r="AE53" s="19"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -20923,17 +21239,17 @@
       <c r="O54" s="7">
         <v>0.97677000000000003</v>
       </c>
-      <c r="P54">
-        <v>0.71744699999999995</v>
-      </c>
-      <c r="Q54" s="7">
-        <v>0.69505700000000004</v>
-      </c>
-      <c r="R54">
-        <v>0.97940000000000005</v>
+      <c r="P54" s="23">
+        <v>0.768289</v>
+      </c>
+      <c r="Q54" s="24">
+        <v>0.65317700000000001</v>
+      </c>
+      <c r="R54" s="25">
+        <v>0.96527200000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -20987,17 +21303,17 @@
       <c r="O55" s="7">
         <v>0.94658299999999995</v>
       </c>
-      <c r="P55">
-        <v>0.75150600000000001</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>0.66411799999999999</v>
-      </c>
-      <c r="R55">
-        <v>0.96585799999999999</v>
+      <c r="P55" s="23">
+        <v>0.75296099999999999</v>
+      </c>
+      <c r="Q55" s="24">
+        <v>0.66285899999999998</v>
+      </c>
+      <c r="R55" s="25">
+        <v>0.96535499999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -21051,17 +21367,17 @@
       <c r="O56" s="7">
         <v>0.93520599999999998</v>
       </c>
-      <c r="P56">
-        <v>0.73912800000000001</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>0.67150799999999999</v>
-      </c>
-      <c r="R56">
-        <v>0.96531900000000004</v>
+      <c r="P56" s="23">
+        <v>0.73893900000000001</v>
+      </c>
+      <c r="Q56" s="24">
+        <v>0.67157800000000001</v>
+      </c>
+      <c r="R56" s="25">
+        <v>0.96524799999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -21115,17 +21431,17 @@
       <c r="O57" s="7">
         <v>0.94570200000000004</v>
       </c>
-      <c r="P57">
-        <v>0.72551399999999999</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>0.67996100000000004</v>
-      </c>
-      <c r="R57">
-        <v>0.96522600000000003</v>
+      <c r="P57" s="23">
+        <v>0.72536199999999995</v>
+      </c>
+      <c r="Q57" s="24">
+        <v>0.68000099999999997</v>
+      </c>
+      <c r="R57" s="25">
+        <v>0.96514800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -21179,17 +21495,17 @@
       <c r="O58" s="7">
         <v>0.96060800000000002</v>
       </c>
-      <c r="P58">
-        <v>0.712337</v>
-      </c>
-      <c r="Q58" s="7">
-        <v>0.688114</v>
-      </c>
-      <c r="R58">
-        <v>0.96512900000000001</v>
+      <c r="P58" s="23">
+        <v>0.71218400000000004</v>
+      </c>
+      <c r="Q58" s="24">
+        <v>0.68815599999999999</v>
+      </c>
+      <c r="R58" s="25">
+        <v>0.96505399999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -21243,17 +21559,17 @@
       <c r="O59" s="7">
         <v>0.96781700000000004</v>
       </c>
-      <c r="P59">
-        <v>0.69952099999999995</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>0.69601999999999997</v>
-      </c>
-      <c r="R59">
-        <v>0.96503899999999998</v>
+      <c r="P59" s="23">
+        <v>0.69937000000000005</v>
+      </c>
+      <c r="Q59" s="24">
+        <v>0.69606199999999996</v>
+      </c>
+      <c r="R59" s="25">
+        <v>0.96496599999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -21307,17 +21623,17 @@
       <c r="O60" s="7">
         <v>0.96819200000000005</v>
       </c>
-      <c r="P60">
-        <v>0.68703999999999998</v>
-      </c>
-      <c r="Q60" s="7">
-        <v>0.70369400000000004</v>
-      </c>
-      <c r="R60">
-        <v>0.96495500000000001</v>
+      <c r="P60" s="23">
+        <v>0.68689</v>
+      </c>
+      <c r="Q60" s="24">
+        <v>0.70373600000000003</v>
+      </c>
+      <c r="R60" s="25">
+        <v>0.96488499999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -21371,17 +21687,17 @@
       <c r="O61" s="7">
         <v>0.96644200000000002</v>
       </c>
-      <c r="P61">
-        <v>0.67486999999999997</v>
-      </c>
-      <c r="Q61" s="7">
-        <v>0.711148</v>
-      </c>
-      <c r="R61">
-        <v>0.96487699999999998</v>
+      <c r="P61" s="23">
+        <v>0.67472200000000004</v>
+      </c>
+      <c r="Q61" s="24">
+        <v>0.71118999999999999</v>
+      </c>
+      <c r="R61" s="25">
+        <v>0.96480900000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -21435,17 +21751,17 @@
       <c r="O62" s="7">
         <v>0.96507500000000002</v>
       </c>
-      <c r="P62">
-        <v>0.662991</v>
-      </c>
-      <c r="Q62" s="7">
-        <v>0.71839299999999995</v>
-      </c>
-      <c r="R62">
-        <v>0.96480500000000002</v>
+      <c r="P62" s="23">
+        <v>0.66284500000000002</v>
+      </c>
+      <c r="Q62" s="24">
+        <v>0.71843400000000002</v>
+      </c>
+      <c r="R62" s="25">
+        <v>0.96474000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -21499,17 +21815,17 @@
       <c r="O63" s="7">
         <v>0.96467400000000003</v>
       </c>
-      <c r="P63">
-        <v>0.65138700000000005</v>
-      </c>
-      <c r="Q63" s="7">
-        <v>0.72543800000000003</v>
-      </c>
-      <c r="R63">
-        <v>0.96473900000000001</v>
+      <c r="P63" s="23">
+        <v>0.65124300000000002</v>
+      </c>
+      <c r="Q63" s="24">
+        <v>0.72547799999999996</v>
+      </c>
+      <c r="R63" s="25">
+        <v>0.96467499999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -21563,17 +21879,17 @@
       <c r="O64" s="7">
         <v>0.96489800000000003</v>
       </c>
-      <c r="P64">
-        <v>0.64004499999999998</v>
-      </c>
-      <c r="Q64" s="7">
-        <v>0.73229100000000003</v>
-      </c>
-      <c r="R64">
-        <v>0.96467899999999995</v>
+      <c r="P64" s="23">
+        <v>0.63990400000000003</v>
+      </c>
+      <c r="Q64" s="24">
+        <v>0.73233000000000004</v>
+      </c>
+      <c r="R64" s="25">
+        <v>0.96461699999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -21627,17 +21943,17 @@
       <c r="O65" s="7">
         <v>0.96524900000000002</v>
       </c>
-      <c r="P65">
-        <v>0.62895199999999996</v>
-      </c>
-      <c r="Q65" s="7">
-        <v>0.73895699999999997</v>
-      </c>
-      <c r="R65">
-        <v>0.96462400000000004</v>
+      <c r="P65" s="23">
+        <v>0.62881299999999996</v>
+      </c>
+      <c r="Q65" s="24">
+        <v>0.73899499999999996</v>
+      </c>
+      <c r="R65" s="25">
+        <v>0.96456399999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -21691,17 +22007,17 @@
       <c r="O66" s="7">
         <v>0.96544700000000006</v>
       </c>
-      <c r="P66">
-        <v>0.61809800000000004</v>
-      </c>
-      <c r="Q66" s="7">
-        <v>0.745444</v>
-      </c>
-      <c r="R66">
-        <v>0.96457400000000004</v>
+      <c r="P66" s="23">
+        <v>0.61796099999999998</v>
+      </c>
+      <c r="Q66" s="24">
+        <v>0.74548099999999995</v>
+      </c>
+      <c r="R66" s="25">
+        <v>0.96451600000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -21755,17 +22071,17 @@
       <c r="O67" s="7">
         <v>0.96547000000000005</v>
       </c>
-      <c r="P67">
-        <v>0.60747300000000004</v>
-      </c>
-      <c r="Q67" s="7">
-        <v>0.75175599999999998</v>
-      </c>
-      <c r="R67">
-        <v>0.96452899999999997</v>
+      <c r="P67" s="23">
+        <v>0.60733899999999996</v>
+      </c>
+      <c r="Q67" s="24">
+        <v>0.75179200000000002</v>
+      </c>
+      <c r="R67" s="25">
+        <v>0.96447300000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -21819,17 +22135,17 @@
       <c r="O68" s="7">
         <v>0.96541699999999997</v>
       </c>
-      <c r="P68">
-        <v>0.59706899999999996</v>
-      </c>
-      <c r="Q68" s="7">
-        <v>0.75789899999999999</v>
-      </c>
-      <c r="R68">
-        <v>0.96448999999999996</v>
+      <c r="P68" s="23">
+        <v>0.59693799999999997</v>
+      </c>
+      <c r="Q68" s="24">
+        <v>0.75793299999999997</v>
+      </c>
+      <c r="R68" s="25">
+        <v>0.96443400000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -21883,17 +22199,17 @@
       <c r="O69" s="7">
         <v>0.96537300000000004</v>
       </c>
-      <c r="P69">
-        <v>0.58687999999999996</v>
-      </c>
-      <c r="Q69" s="7">
-        <v>0.763876</v>
-      </c>
-      <c r="R69">
-        <v>0.96445499999999995</v>
+      <c r="P69" s="23">
+        <v>0.58675100000000002</v>
+      </c>
+      <c r="Q69" s="24">
+        <v>0.76390899999999995</v>
+      </c>
+      <c r="R69" s="25">
+        <v>0.96440099999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -21947,17 +22263,17 @@
       <c r="O70" s="7">
         <v>0.96536200000000005</v>
       </c>
-      <c r="P70">
-        <v>0.57689800000000002</v>
-      </c>
-      <c r="Q70" s="7">
-        <v>0.76969100000000001</v>
-      </c>
-      <c r="R70">
-        <v>0.96442399999999995</v>
+      <c r="P70" s="23">
+        <v>0.57677100000000003</v>
+      </c>
+      <c r="Q70" s="24">
+        <v>0.76972300000000005</v>
+      </c>
+      <c r="R70" s="25">
+        <v>0.96437200000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -22011,17 +22327,17 @@
       <c r="O71" s="7">
         <v>0.96536900000000003</v>
       </c>
-      <c r="P71">
-        <v>0.56711699999999998</v>
-      </c>
-      <c r="Q71" s="7">
-        <v>0.77534999999999998</v>
-      </c>
-      <c r="R71">
-        <v>0.96439799999999998</v>
+      <c r="P71" s="23">
+        <v>0.56699200000000005</v>
+      </c>
+      <c r="Q71" s="24">
+        <v>0.77538099999999999</v>
+      </c>
+      <c r="R71" s="25">
+        <v>0.96434699999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -22075,17 +22391,17 @@
       <c r="O72" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P72">
-        <v>0.557531</v>
-      </c>
-      <c r="Q72" s="7">
-        <v>0.78085400000000005</v>
-      </c>
-      <c r="R72">
-        <v>0.96437600000000001</v>
+      <c r="P72" s="23">
+        <v>0.55740900000000004</v>
+      </c>
+      <c r="Q72" s="24">
+        <v>0.78088400000000002</v>
+      </c>
+      <c r="R72" s="25">
+        <v>0.96432700000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" ref="A73:A106" si="12">A72+1</f>
         <v>67</v>
@@ -22139,17 +22455,17 @@
       <c r="O73" s="7">
         <v>0.96538100000000004</v>
       </c>
-      <c r="P73">
-        <v>0.54813599999999996</v>
-      </c>
-      <c r="Q73" s="7">
-        <v>0.78620900000000005</v>
-      </c>
-      <c r="R73">
-        <v>0.96435899999999997</v>
+      <c r="P73" s="23">
+        <v>0.54801699999999998</v>
+      </c>
+      <c r="Q73" s="24">
+        <v>0.78623699999999996</v>
+      </c>
+      <c r="R73" s="25">
+        <v>0.96431</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="12"/>
         <v>68</v>
@@ -22203,17 +22519,17 @@
       <c r="O74" s="7">
         <v>0.96538000000000002</v>
       </c>
-      <c r="P74">
-        <v>0.53892700000000004</v>
-      </c>
-      <c r="Q74" s="7">
-        <v>0.79141700000000004</v>
-      </c>
-      <c r="R74">
-        <v>0.96434500000000001</v>
+      <c r="P74" s="23">
+        <v>0.53881000000000001</v>
+      </c>
+      <c r="Q74" s="24">
+        <v>0.79144400000000004</v>
+      </c>
+      <c r="R74" s="25">
+        <v>0.96429699999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="12"/>
         <v>69</v>
@@ -22267,17 +22583,17 @@
       <c r="O75" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P75">
-        <v>0.52989900000000001</v>
-      </c>
-      <c r="Q75" s="7">
-        <v>0.79648099999999999</v>
-      </c>
-      <c r="R75">
-        <v>0.96433400000000002</v>
+      <c r="P75" s="23">
+        <v>0.52978400000000003</v>
+      </c>
+      <c r="Q75" s="24">
+        <v>0.79650699999999997</v>
+      </c>
+      <c r="R75" s="25">
+        <v>0.96428800000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="12"/>
         <v>70</v>
@@ -22331,17 +22647,17 @@
       <c r="O76" s="7">
         <v>0.96537700000000004</v>
       </c>
-      <c r="P76">
-        <v>0.52104799999999996</v>
-      </c>
-      <c r="Q76" s="7">
-        <v>0.80140599999999995</v>
-      </c>
-      <c r="R76">
-        <v>0.96432700000000005</v>
+      <c r="P76" s="23">
+        <v>0.52093500000000004</v>
+      </c>
+      <c r="Q76" s="24">
+        <v>0.801431</v>
+      </c>
+      <c r="R76" s="25">
+        <v>0.96428199999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="12"/>
         <v>71</v>
@@ -22395,17 +22711,17 @@
       <c r="O77" s="7">
         <v>0.96537700000000004</v>
       </c>
-      <c r="P77">
-        <v>0.51236999999999999</v>
-      </c>
-      <c r="Q77" s="7">
-        <v>0.80619300000000005</v>
-      </c>
-      <c r="R77">
-        <v>0.96432399999999996</v>
+      <c r="P77" s="23">
+        <v>0.51225900000000002</v>
+      </c>
+      <c r="Q77" s="24">
+        <v>0.80621699999999996</v>
+      </c>
+      <c r="R77" s="25">
+        <v>0.964279</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="12"/>
         <v>72</v>
@@ -22459,17 +22775,17 @@
       <c r="O78" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P78">
-        <v>0.50385999999999997</v>
-      </c>
-      <c r="Q78" s="7">
-        <v>0.81084599999999996</v>
-      </c>
-      <c r="R78">
-        <v>0.96432300000000004</v>
+      <c r="P78" s="23">
+        <v>0.50375099999999995</v>
+      </c>
+      <c r="Q78" s="24">
+        <v>0.81086899999999995</v>
+      </c>
+      <c r="R78" s="25">
+        <v>0.96428000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="12"/>
         <v>73</v>
@@ -22523,17 +22839,17 @@
       <c r="O79" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P79">
-        <v>0.49551600000000001</v>
-      </c>
-      <c r="Q79" s="7">
-        <v>0.81536900000000001</v>
-      </c>
-      <c r="R79">
-        <v>0.96432600000000002</v>
+      <c r="P79" s="23">
+        <v>0.49540899999999999</v>
+      </c>
+      <c r="Q79" s="24">
+        <v>0.81538999999999995</v>
+      </c>
+      <c r="R79" s="25">
+        <v>0.964283</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="12"/>
         <v>74</v>
@@ -22587,17 +22903,17 @@
       <c r="O80" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P80">
-        <v>0.48733399999999999</v>
-      </c>
-      <c r="Q80" s="7">
-        <v>0.81976300000000002</v>
-      </c>
-      <c r="R80">
-        <v>0.96433100000000005</v>
+      <c r="P80" s="23">
+        <v>0.48722900000000002</v>
+      </c>
+      <c r="Q80" s="24">
+        <v>0.81978399999999996</v>
+      </c>
+      <c r="R80" s="25">
+        <v>0.96428899999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="12"/>
         <v>75</v>
@@ -22651,17 +22967,17 @@
       <c r="O81" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P81">
-        <v>0.47931099999999999</v>
-      </c>
-      <c r="Q81" s="7">
-        <v>0.82403300000000002</v>
-      </c>
-      <c r="R81">
-        <v>0.96433899999999995</v>
+      <c r="P81" s="23">
+        <v>0.47920800000000002</v>
+      </c>
+      <c r="Q81" s="24">
+        <v>0.82405300000000004</v>
+      </c>
+      <c r="R81" s="25">
+        <v>0.96429799999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="12"/>
         <v>76</v>
@@ -22715,17 +23031,17 @@
       <c r="O82" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P82">
-        <v>0.47144200000000003</v>
-      </c>
-      <c r="Q82" s="7">
-        <v>0.82818099999999994</v>
-      </c>
-      <c r="R82">
-        <v>0.96434900000000001</v>
+      <c r="P82" s="23">
+        <v>0.47134100000000001</v>
+      </c>
+      <c r="Q82" s="24">
+        <v>0.82819900000000002</v>
+      </c>
+      <c r="R82" s="25">
+        <v>0.96430899999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="12"/>
         <v>77</v>
@@ -22779,17 +23095,17 @@
       <c r="O83" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P83">
-        <v>0.46372600000000003</v>
-      </c>
-      <c r="Q83" s="7">
-        <v>0.83221000000000001</v>
-      </c>
-      <c r="R83">
-        <v>0.96436200000000005</v>
+      <c r="P83" s="23">
+        <v>0.46362599999999998</v>
+      </c>
+      <c r="Q83" s="24">
+        <v>0.83222700000000005</v>
+      </c>
+      <c r="R83" s="25">
+        <v>0.96432200000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="12"/>
         <v>78</v>
@@ -22843,17 +23159,17 @@
       <c r="O84" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P84">
-        <v>0.45615800000000001</v>
-      </c>
-      <c r="Q84" s="7">
-        <v>0.83612200000000003</v>
-      </c>
-      <c r="R84">
-        <v>0.96437600000000001</v>
+      <c r="P84" s="23">
+        <v>0.45606099999999999</v>
+      </c>
+      <c r="Q84" s="24">
+        <v>0.83613899999999997</v>
+      </c>
+      <c r="R84" s="25">
+        <v>0.96433800000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="12"/>
         <v>79</v>
@@ -22907,17 +23223,17 @@
       <c r="O85" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P85">
-        <v>0.44873600000000002</v>
-      </c>
-      <c r="Q85" s="7">
-        <v>0.83992199999999995</v>
-      </c>
-      <c r="R85">
-        <v>0.96439299999999994</v>
+      <c r="P85" s="23">
+        <v>0.44864100000000001</v>
+      </c>
+      <c r="Q85" s="24">
+        <v>0.83993700000000004</v>
+      </c>
+      <c r="R85" s="25">
+        <v>0.96435599999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="12"/>
         <v>80</v>
@@ -22971,17 +23287,17 @@
       <c r="O86" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P86">
-        <v>0.44145800000000002</v>
-      </c>
-      <c r="Q86" s="7">
-        <v>0.84360999999999997</v>
-      </c>
-      <c r="R86">
-        <v>0.96441200000000005</v>
+      <c r="P86" s="23">
+        <v>0.44136399999999998</v>
+      </c>
+      <c r="Q86" s="24">
+        <v>0.84362499999999996</v>
+      </c>
+      <c r="R86" s="25">
+        <v>0.96437499999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="12"/>
         <v>81</v>
@@ -23035,17 +23351,17 @@
       <c r="O87" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P87">
-        <v>0.43431999999999998</v>
-      </c>
-      <c r="Q87" s="7">
-        <v>0.84719100000000003</v>
-      </c>
-      <c r="R87">
-        <v>0.96443299999999998</v>
+      <c r="P87" s="23">
+        <v>0.434228</v>
+      </c>
+      <c r="Q87" s="24">
+        <v>0.84720499999999999</v>
+      </c>
+      <c r="R87" s="25">
+        <v>0.96439600000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="12"/>
         <v>82</v>
@@ -23099,17 +23415,17 @@
       <c r="O88" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P88">
-        <v>0.427319</v>
-      </c>
-      <c r="Q88" s="7">
-        <v>0.85066699999999995</v>
-      </c>
-      <c r="R88">
-        <v>0.96445499999999995</v>
+      <c r="P88" s="23">
+        <v>0.427228</v>
+      </c>
+      <c r="Q88" s="24">
+        <v>0.85067999999999999</v>
+      </c>
+      <c r="R88" s="25">
+        <v>0.96441900000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="12"/>
         <v>83</v>
@@ -23163,17 +23479,17 @@
       <c r="O89" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P89">
-        <v>0.42045199999999999</v>
-      </c>
-      <c r="Q89" s="7">
-        <v>0.85404100000000005</v>
-      </c>
-      <c r="R89">
-        <v>0.96447899999999998</v>
+      <c r="P89" s="23">
+        <v>0.42036400000000002</v>
+      </c>
+      <c r="Q89" s="24">
+        <v>0.85405299999999995</v>
+      </c>
+      <c r="R89" s="25">
+        <v>0.96444399999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="12"/>
         <v>84</v>
@@ -23227,17 +23543,17 @@
       <c r="O90" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P90">
-        <v>0.41371799999999997</v>
-      </c>
-      <c r="Q90" s="7">
-        <v>0.85731500000000005</v>
-      </c>
-      <c r="R90">
-        <v>0.96450400000000003</v>
+      <c r="P90" s="23">
+        <v>0.41363100000000003</v>
+      </c>
+      <c r="Q90" s="24">
+        <v>0.85732600000000003</v>
+      </c>
+      <c r="R90" s="25">
+        <v>0.96446900000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="12"/>
         <v>85</v>
@@ -23291,17 +23607,17 @@
       <c r="O91" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P91">
-        <v>0.40711399999999998</v>
-      </c>
-      <c r="Q91" s="7">
-        <v>0.86049100000000001</v>
-      </c>
-      <c r="R91">
-        <v>0.96453</v>
+      <c r="P91" s="23">
+        <v>0.407028</v>
+      </c>
+      <c r="Q91" s="24">
+        <v>0.86050199999999999</v>
+      </c>
+      <c r="R91" s="25">
+        <v>0.96449600000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="12"/>
         <v>86</v>
@@ -23355,17 +23671,17 @@
       <c r="O92" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P92">
-        <v>0.40063599999999999</v>
-      </c>
-      <c r="Q92" s="7">
-        <v>0.86357399999999995</v>
-      </c>
-      <c r="R92">
-        <v>0.96455800000000003</v>
+      <c r="P92" s="23">
+        <v>0.40055200000000002</v>
+      </c>
+      <c r="Q92" s="24">
+        <v>0.86358299999999999</v>
+      </c>
+      <c r="R92" s="25">
+        <v>0.96452400000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="12"/>
         <v>87</v>
@@ -23419,17 +23735,17 @@
       <c r="O93" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P93">
-        <v>0.39428200000000002</v>
-      </c>
-      <c r="Q93" s="7">
-        <v>0.866564</v>
-      </c>
-      <c r="R93">
-        <v>0.96458600000000005</v>
+      <c r="P93" s="23">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="Q93" s="24">
+        <v>0.86657300000000004</v>
+      </c>
+      <c r="R93" s="25">
+        <v>0.96455400000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="12"/>
         <v>88</v>
@@ -23483,17 +23799,17 @@
       <c r="O94" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P94">
-        <v>0.38805099999999998</v>
-      </c>
-      <c r="Q94" s="7">
-        <v>0.86946500000000004</v>
-      </c>
-      <c r="R94">
-        <v>0.96461600000000003</v>
+      <c r="P94" s="23">
+        <v>0.38796999999999998</v>
+      </c>
+      <c r="Q94" s="24">
+        <v>0.86947300000000005</v>
+      </c>
+      <c r="R94" s="25">
+        <v>0.964584</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="12"/>
         <v>89</v>
@@ -23547,17 +23863,17 @@
       <c r="O95" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P95">
-        <v>0.38193899999999997</v>
-      </c>
-      <c r="Q95" s="7">
-        <v>0.87227900000000003</v>
-      </c>
-      <c r="R95">
-        <v>0.96464700000000003</v>
+      <c r="P95" s="23">
+        <v>0.38185999999999998</v>
+      </c>
+      <c r="Q95" s="24">
+        <v>0.87228600000000001</v>
+      </c>
+      <c r="R95" s="25">
+        <v>0.964615</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="12"/>
         <v>90</v>
@@ -23611,17 +23927,17 @@
       <c r="O96" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P96">
-        <v>0.375944</v>
-      </c>
-      <c r="Q96" s="7">
-        <v>0.87500800000000001</v>
-      </c>
-      <c r="R96">
-        <v>0.96467800000000004</v>
+      <c r="P96" s="23">
+        <v>0.37586599999999998</v>
+      </c>
+      <c r="Q96" s="24">
+        <v>0.87501399999999996</v>
+      </c>
+      <c r="R96" s="25">
+        <v>0.96464700000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="12"/>
         <v>91</v>
@@ -23675,17 +23991,17 @@
       <c r="O97" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P97">
-        <v>0.370064</v>
-      </c>
-      <c r="Q97" s="7">
-        <v>0.87765499999999996</v>
-      </c>
-      <c r="R97">
-        <v>0.96470999999999996</v>
+      <c r="P97" s="23">
+        <v>0.36998799999999998</v>
+      </c>
+      <c r="Q97" s="24">
+        <v>0.87766100000000002</v>
+      </c>
+      <c r="R97" s="25">
+        <v>0.96467899999999995</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="12"/>
         <v>92</v>
@@ -23739,17 +24055,17 @@
       <c r="O98" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P98">
-        <v>0.36429699999999998</v>
-      </c>
-      <c r="Q98" s="7">
-        <v>0.88022199999999995</v>
-      </c>
-      <c r="R98">
-        <v>0.96474300000000002</v>
+      <c r="P98" s="23">
+        <v>0.36422199999999999</v>
+      </c>
+      <c r="Q98" s="24">
+        <v>0.88022699999999998</v>
+      </c>
+      <c r="R98" s="25">
+        <v>0.96471200000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="12"/>
         <v>93</v>
@@ -23803,17 +24119,17 @@
       <c r="O99" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P99">
-        <v>0.35864000000000001</v>
-      </c>
-      <c r="Q99" s="7">
-        <v>0.88271200000000005</v>
-      </c>
-      <c r="R99">
-        <v>0.96477599999999997</v>
+      <c r="P99" s="23">
+        <v>0.358566</v>
+      </c>
+      <c r="Q99" s="24">
+        <v>0.88271599999999995</v>
+      </c>
+      <c r="R99" s="25">
+        <v>0.96474599999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="12"/>
         <v>94</v>
@@ -23867,17 +24183,17 @@
       <c r="O100" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P100">
-        <v>0.35309099999999999</v>
-      </c>
-      <c r="Q100" s="7">
-        <v>0.88512599999999997</v>
-      </c>
-      <c r="R100">
-        <v>0.96480999999999995</v>
+      <c r="P100" s="23">
+        <v>0.35301900000000003</v>
+      </c>
+      <c r="Q100" s="24">
+        <v>0.88512999999999997</v>
+      </c>
+      <c r="R100" s="25">
+        <v>0.96477999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="12"/>
         <v>95</v>
@@ -23931,17 +24247,17 @@
       <c r="O101" s="7">
         <v>0.96537899999999999</v>
       </c>
-      <c r="P101">
-        <v>0.34764800000000001</v>
-      </c>
-      <c r="Q101" s="7">
-        <v>0.88746700000000001</v>
-      </c>
-      <c r="R101">
-        <v>0.96484400000000003</v>
+      <c r="P101" s="23">
+        <v>0.34757700000000002</v>
+      </c>
+      <c r="Q101" s="24">
+        <v>0.88746999999999998</v>
+      </c>
+      <c r="R101" s="25">
+        <v>0.96481499999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="12"/>
         <v>96</v>
@@ -23995,17 +24311,17 @@
       <c r="O102" s="7">
         <v>0.96538199999999996</v>
       </c>
-      <c r="P102">
-        <v>0.34230899999999997</v>
-      </c>
-      <c r="Q102" s="7">
-        <v>0.889737</v>
-      </c>
-      <c r="R102">
-        <v>0.96487800000000001</v>
+      <c r="P102" s="23">
+        <v>0.34223900000000002</v>
+      </c>
+      <c r="Q102" s="24">
+        <v>0.88973899999999995</v>
+      </c>
+      <c r="R102" s="25">
+        <v>0.96484899999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="12"/>
         <v>97</v>
@@ -24059,17 +24375,17 @@
       <c r="O103" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P103">
-        <v>0.33707199999999998</v>
-      </c>
-      <c r="Q103" s="7">
-        <v>0.89193699999999998</v>
-      </c>
-      <c r="R103">
-        <v>0.96491300000000002</v>
+      <c r="P103" s="23">
+        <v>0.337003</v>
+      </c>
+      <c r="Q103" s="24">
+        <v>0.89193900000000004</v>
+      </c>
+      <c r="R103" s="25">
+        <v>0.96488499999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="12"/>
         <v>98</v>
@@ -24123,17 +24439,17 @@
       <c r="O104" s="7">
         <v>0.96536500000000003</v>
       </c>
-      <c r="P104">
-        <v>0.33193400000000001</v>
-      </c>
-      <c r="Q104" s="7">
-        <v>0.89407099999999995</v>
-      </c>
-      <c r="R104">
-        <v>0.96494800000000003</v>
+      <c r="P104" s="23">
+        <v>0.33186700000000002</v>
+      </c>
+      <c r="Q104" s="24">
+        <v>0.89407300000000001</v>
+      </c>
+      <c r="R104" s="25">
+        <v>0.96492</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="12"/>
         <v>99</v>
@@ -24187,17 +24503,17 @@
       <c r="O105" s="7">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P105">
-        <v>0.32689400000000002</v>
-      </c>
-      <c r="Q105" s="7">
-        <v>0.89614000000000005</v>
-      </c>
-      <c r="R105">
-        <v>0.96498300000000004</v>
+      <c r="P105" s="23">
+        <v>0.32682800000000001</v>
+      </c>
+      <c r="Q105" s="24">
+        <v>0.89614099999999997</v>
+      </c>
+      <c r="R105" s="25">
+        <v>0.96495600000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="12"/>
         <v>100</v>
@@ -24251,17 +24567,17 @@
       <c r="O106" s="7">
         <v>0.96543599999999996</v>
       </c>
-      <c r="P106">
-        <v>0.32195000000000001</v>
-      </c>
-      <c r="Q106" s="7">
-        <v>0.898146</v>
-      </c>
-      <c r="R106">
-        <v>0.96501899999999996</v>
+      <c r="P106" s="23">
+        <v>0.32188499999999998</v>
+      </c>
+      <c r="Q106" s="24">
+        <v>0.89814700000000003</v>
+      </c>
+      <c r="R106" s="25">
+        <v>0.96499100000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107">
         <f>A106+1</f>
         <v>101</v>
@@ -24315,15 +24631,16 @@
       <c r="O107" s="12">
         <v>0.96537799999999996</v>
       </c>
-      <c r="P107">
-        <v>0.317052</v>
-      </c>
-      <c r="Q107" s="12">
+      <c r="P107" s="26">
+        <v>0.31698700000000002</v>
+      </c>
+      <c r="Q107" s="27">
         <v>0.9</v>
       </c>
-      <c r="R107">
-        <v>0.96493600000000002</v>
-      </c>
+      <c r="R107" s="28">
+        <v>0.96490900000000002</v>
+      </c>
+      <c r="AD107" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -24334,24 +24651,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -24380,7 +24697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -24409,7 +24726,7 @@
         <v>0.31735123117459652</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -24430,7 +24747,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -24477,7 +24794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -24521,17 +24838,17 @@
       <c r="L7" s="7">
         <v>1</v>
       </c>
-      <c r="M7" s="5">
-        <v>0.67335599999999995</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0.73800100000000002</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="M7" s="23">
+        <v>0.67325100000000004</v>
+      </c>
+      <c r="N7" s="24">
+        <v>0.73806799999999995</v>
+      </c>
+      <c r="O7" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f>A7+1</f>
         <v>2</v>
@@ -24576,17 +24893,17 @@
       <c r="L8" s="7">
         <v>0.99997599999999998</v>
       </c>
-      <c r="M8" s="5">
-        <v>0.68447199999999997</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.73078200000000004</v>
-      </c>
-      <c r="O8" s="7">
+      <c r="M8" s="23">
+        <v>0.68436200000000003</v>
+      </c>
+      <c r="N8" s="24">
+        <v>0.73085199999999995</v>
+      </c>
+      <c r="O8" s="25">
         <v>0.99984399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A72" si="4">A8+1</f>
         <v>3</v>
@@ -24631,17 +24948,17 @@
       <c r="L9" s="7">
         <v>1.0000089999999999</v>
       </c>
-      <c r="M9" s="5">
-        <v>0.69558299999999995</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.72358199999999995</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0.99974200000000002</v>
+      <c r="M9" s="23">
+        <v>0.69546699999999995</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0.72365599999999997</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0.99974300000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -24686,17 +25003,17 @@
       <c r="L10" s="7">
         <v>1.000046</v>
       </c>
-      <c r="M10" s="5">
-        <v>0.70684999999999998</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.71625499999999998</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="M10" s="23">
+        <v>0.70672999999999997</v>
+      </c>
+      <c r="N10" s="24">
+        <v>0.71633199999999997</v>
+      </c>
+      <c r="O10" s="25">
         <v>0.99963599999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -24741,17 +25058,17 @@
       <c r="L11" s="7">
         <v>1.000065</v>
       </c>
-      <c r="M11" s="5">
-        <v>0.718275</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0.70880299999999996</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0.99952300000000005</v>
+      <c r="M11" s="23">
+        <v>0.71815200000000001</v>
+      </c>
+      <c r="N11" s="24">
+        <v>0.70888200000000001</v>
+      </c>
+      <c r="O11" s="25">
+        <v>0.99952200000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -24796,17 +25113,17 @@
       <c r="L12" s="7">
         <v>1.000068</v>
       </c>
-      <c r="M12" s="5">
-        <v>0.72985800000000001</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0.70122700000000004</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0.99940499999999999</v>
+      <c r="M12" s="23">
+        <v>0.72973100000000002</v>
+      </c>
+      <c r="N12" s="24">
+        <v>0.70130800000000004</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0.99940300000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -24851,17 +25168,17 @@
       <c r="L13" s="7">
         <v>1.0000640000000001</v>
       </c>
-      <c r="M13" s="5">
-        <v>0.74159900000000001</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0.69352999999999998</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0.99928099999999997</v>
+      <c r="M13" s="23">
+        <v>0.74146800000000002</v>
+      </c>
+      <c r="N13" s="24">
+        <v>0.69361399999999995</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0.999278</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -24906,17 +25223,17 @@
       <c r="L14" s="7">
         <v>1.0000579999999999</v>
       </c>
-      <c r="M14" s="5">
-        <v>0.753498</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0.68571599999999999</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0.99914999999999998</v>
+      <c r="M14" s="23">
+        <v>0.75336199999999998</v>
+      </c>
+      <c r="N14" s="24">
+        <v>0.68580200000000002</v>
+      </c>
+      <c r="O14" s="25">
+        <v>0.99914700000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -24961,17 +25278,17 @@
       <c r="L15" s="7">
         <v>1.0000560000000001</v>
       </c>
-      <c r="M15" s="5">
-        <v>0.76555499999999999</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0.67778700000000003</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0.99901399999999996</v>
+      <c r="M15" s="23">
+        <v>0.76541300000000001</v>
+      </c>
+      <c r="N15" s="24">
+        <v>0.67787699999999995</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0.99901099999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -25016,17 +25333,17 @@
       <c r="L16" s="7">
         <v>1.0000549999999999</v>
       </c>
-      <c r="M16" s="5">
-        <v>0.77776800000000001</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0.66974800000000001</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0.99887199999999998</v>
+      <c r="M16" s="23">
+        <v>0.77761999999999998</v>
+      </c>
+      <c r="N16" s="24">
+        <v>0.66984100000000002</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0.99886799999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -25071,17 +25388,17 @@
       <c r="L17" s="7">
         <v>1.000057</v>
       </c>
-      <c r="M17" s="5">
-        <v>0.79013699999999998</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0.66160200000000002</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0.99872499999999997</v>
+      <c r="M17" s="23">
+        <v>0.78998199999999996</v>
+      </c>
+      <c r="N17" s="24">
+        <v>0.66169900000000004</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0.99872000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -25126,17 +25443,17 @@
       <c r="L18" s="7">
         <v>1.0000579999999999</v>
       </c>
-      <c r="M18" s="5">
-        <v>0.80266199999999999</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0.65335299999999996</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0.99857200000000002</v>
+      <c r="M18" s="23">
+        <v>0.80249899999999996</v>
+      </c>
+      <c r="N18" s="24">
+        <v>0.65345600000000004</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0.99856599999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -25181,17 +25498,17 @@
       <c r="L19" s="7">
         <v>1.0000599999999999</v>
       </c>
-      <c r="M19" s="5">
-        <v>0.81534099999999998</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0.645007</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0.99841299999999999</v>
+      <c r="M19" s="23">
+        <v>0.81516900000000003</v>
+      </c>
+      <c r="N19" s="24">
+        <v>0.64511499999999999</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0.99840700000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -25236,17 +25553,17 @@
       <c r="L20" s="7">
         <v>1.0000610000000001</v>
       </c>
-      <c r="M20" s="5">
-        <v>0.82817399999999997</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0.63656699999999999</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0.99824900000000005</v>
+      <c r="M20" s="23">
+        <v>0.82799199999999995</v>
+      </c>
+      <c r="N20" s="24">
+        <v>0.63668100000000005</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0.99824299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -25291,17 +25608,17 @@
       <c r="L21" s="7">
         <v>1.0000629999999999</v>
       </c>
-      <c r="M21" s="5">
-        <v>0.84116100000000005</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0.62803799999999999</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0.99807999999999997</v>
+      <c r="M21" s="23">
+        <v>0.84096599999999999</v>
+      </c>
+      <c r="N21" s="24">
+        <v>0.62816000000000005</v>
+      </c>
+      <c r="O21" s="25">
+        <v>0.99807400000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -25346,17 +25663,17 @@
       <c r="L22" s="7">
         <v>1.0000640000000001</v>
       </c>
-      <c r="M22" s="5">
-        <v>0.85430099999999998</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0.619425</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0.99790699999999999</v>
+      <c r="M22" s="23">
+        <v>0.85409100000000004</v>
+      </c>
+      <c r="N22" s="24">
+        <v>0.61955700000000002</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0.99790000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -25401,17 +25718,17 @@
       <c r="L23" s="7">
         <v>1.0000640000000001</v>
       </c>
-      <c r="M23" s="5">
-        <v>0.86759299999999995</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0.61073299999999997</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0.99772799999999995</v>
+      <c r="M23" s="23">
+        <v>0.86736500000000005</v>
+      </c>
+      <c r="N23" s="24">
+        <v>0.61087599999999997</v>
+      </c>
+      <c r="O23" s="25">
+        <v>0.99772099999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -25456,17 +25773,17 @@
       <c r="L24" s="7">
         <v>1.000065</v>
       </c>
-      <c r="M24" s="5">
-        <v>0.88103900000000002</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0.601966</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0.99754600000000004</v>
+      <c r="M24" s="23">
+        <v>0.88078900000000004</v>
+      </c>
+      <c r="N24" s="24">
+        <v>0.60212299999999996</v>
+      </c>
+      <c r="O24" s="25">
+        <v>0.99753899999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -25511,17 +25828,17 @@
       <c r="L25" s="7">
         <v>1.0000659999999999</v>
       </c>
-      <c r="M25" s="5">
-        <v>0.89463999999999999</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0.59312799999999999</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0.997359</v>
+      <c r="M25" s="23">
+        <v>0.89436000000000004</v>
+      </c>
+      <c r="N25" s="24">
+        <v>0.59330300000000002</v>
+      </c>
+      <c r="O25" s="25">
+        <v>0.99735200000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -25566,17 +25883,17 @@
       <c r="L26" s="7">
         <v>1.000067</v>
       </c>
-      <c r="M26" s="5">
-        <v>0.90839999999999999</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0.58422200000000002</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0.99716899999999997</v>
+      <c r="M26" s="23">
+        <v>0.90808100000000003</v>
+      </c>
+      <c r="N26" s="24">
+        <v>0.58442099999999997</v>
+      </c>
+      <c r="O26" s="25">
+        <v>0.99716099999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -25621,17 +25938,17 @@
       <c r="L27" s="7">
         <v>1.0000690000000001</v>
       </c>
-      <c r="M27" s="5">
-        <v>0.92232499999999995</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0.57524900000000001</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0.99697499999999994</v>
+      <c r="M27" s="23">
+        <v>0.92195499999999997</v>
+      </c>
+      <c r="N27" s="24">
+        <v>0.57547999999999999</v>
+      </c>
+      <c r="O27" s="25">
+        <v>0.99696700000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -25676,17 +25993,17 @@
       <c r="L28" s="7">
         <v>1.00007</v>
       </c>
-      <c r="M28" s="5">
-        <v>0.93643299999999996</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0.56620400000000004</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0.99677800000000005</v>
+      <c r="M28" s="23">
+        <v>0.93598700000000001</v>
+      </c>
+      <c r="N28" s="24">
+        <v>0.56648100000000001</v>
+      </c>
+      <c r="O28" s="25">
+        <v>0.99677099999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -25731,17 +26048,17 @@
       <c r="L29" s="7">
         <v>1.0000709999999999</v>
       </c>
-      <c r="M29" s="5">
-        <v>0.95075699999999996</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0.55707099999999998</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0.99657899999999999</v>
+      <c r="M29" s="23">
+        <v>0.95019600000000004</v>
+      </c>
+      <c r="N29" s="24">
+        <v>0.55741799999999997</v>
+      </c>
+      <c r="O29" s="25">
+        <v>0.99657099999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -25786,17 +26103,17 @@
       <c r="L30" s="7">
         <v>1.0000720000000001</v>
       </c>
-      <c r="M30" s="5">
-        <v>0.96538800000000002</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0.54779999999999995</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0.99637799999999999</v>
+      <c r="M30" s="23">
+        <v>0.96463399999999999</v>
+      </c>
+      <c r="N30" s="24">
+        <v>0.54826600000000003</v>
+      </c>
+      <c r="O30" s="25">
+        <v>0.99636899999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -25841,17 +26158,18 @@
       <c r="L31" s="7">
         <v>1.000073</v>
       </c>
-      <c r="M31" s="5">
-        <v>0.98063</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0.53821200000000002</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0.99617800000000001</v>
-      </c>
+      <c r="M31" s="23">
+        <v>0.97950499999999996</v>
+      </c>
+      <c r="N31" s="24">
+        <v>0.53890199999999999</v>
+      </c>
+      <c r="O31" s="25">
+        <v>0.996166</v>
+      </c>
+      <c r="Z31" s="19"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -25896,17 +26214,18 @@
       <c r="L32" s="7">
         <v>1.000075</v>
       </c>
-      <c r="M32" s="5">
-        <v>0.99851199999999996</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0.52707999999999999</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0.99599499999999996</v>
-      </c>
+      <c r="M32" s="23">
+        <v>1.0000530000000001</v>
+      </c>
+      <c r="N32" s="24">
+        <v>0.52611600000000003</v>
+      </c>
+      <c r="O32" s="25">
+        <v>0.99596099999999999</v>
+      </c>
+      <c r="Z32" s="19"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -25951,17 +26270,18 @@
       <c r="L33" s="7">
         <v>1.000076</v>
       </c>
-      <c r="M33" s="5">
-        <v>1.015325</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0.51674500000000001</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0.99589799999999995</v>
-      </c>
+      <c r="M33" s="23">
+        <v>1.020659</v>
+      </c>
+      <c r="N33" s="24">
+        <v>0.51353199999999999</v>
+      </c>
+      <c r="O33" s="25">
+        <v>0.99595800000000001</v>
+      </c>
+      <c r="Z33" s="19"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -26006,17 +26326,18 @@
       <c r="L34" s="7">
         <v>1.000078</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.0331239999999999</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0.50595500000000004</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0.995892</v>
-      </c>
+      <c r="M34" s="23">
+        <v>1.0359529999999999</v>
+      </c>
+      <c r="N34" s="24">
+        <v>0.50427999999999995</v>
+      </c>
+      <c r="O34" s="25">
+        <v>0.99595199999999995</v>
+      </c>
+      <c r="Z34" s="19"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -26061,17 +26382,18 @@
       <c r="L35" s="7">
         <v>1.0000800000000001</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.0490630000000001</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0.49638199999999999</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0.99588200000000004</v>
-      </c>
+      <c r="M35" s="23">
+        <v>1.051045</v>
+      </c>
+      <c r="N35" s="24">
+        <v>0.495228</v>
+      </c>
+      <c r="O35" s="25">
+        <v>0.99594300000000002</v>
+      </c>
+      <c r="Z35" s="19"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -26116,17 +26438,18 @@
       <c r="L36" s="7">
         <v>1.0000819999999999</v>
       </c>
-      <c r="M36" s="5">
-        <v>1.0646009999999999</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0.48713499999999998</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0.99587000000000003</v>
-      </c>
+      <c r="M36" s="23">
+        <v>1.066141</v>
+      </c>
+      <c r="N36" s="24">
+        <v>0.48625400000000002</v>
+      </c>
+      <c r="O36" s="25">
+        <v>0.99592999999999998</v>
+      </c>
+      <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -26171,17 +26494,18 @@
       <c r="L37" s="7">
         <v>1.000084</v>
       </c>
-      <c r="M37" s="5">
-        <v>1.0800259999999999</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0.47804099999999999</v>
-      </c>
-      <c r="O37" s="7">
-        <v>0.99585400000000002</v>
-      </c>
+      <c r="M37" s="23">
+        <v>1.0812919999999999</v>
+      </c>
+      <c r="N37" s="24">
+        <v>0.47732999999999998</v>
+      </c>
+      <c r="O37" s="25">
+        <v>0.99591499999999999</v>
+      </c>
+      <c r="Z37" s="19"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -26226,17 +26550,18 @@
       <c r="L38" s="7">
         <v>1.000086</v>
       </c>
-      <c r="M38" s="5">
-        <v>1.095437</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0.46904600000000002</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0.995834</v>
-      </c>
+      <c r="M38" s="23">
+        <v>1.096514</v>
+      </c>
+      <c r="N38" s="24">
+        <v>0.46844999999999998</v>
+      </c>
+      <c r="O38" s="25">
+        <v>0.99589499999999997</v>
+      </c>
+      <c r="Z38" s="19"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -26281,17 +26606,18 @@
       <c r="L39" s="7">
         <v>1.0000880000000001</v>
       </c>
-      <c r="M39" s="5">
-        <v>1.1108739999999999</v>
-      </c>
-      <c r="N39" s="6">
-        <v>0.46012799999999998</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0.995811</v>
-      </c>
+      <c r="M39" s="23">
+        <v>1.111815</v>
+      </c>
+      <c r="N39" s="24">
+        <v>0.45961600000000002</v>
+      </c>
+      <c r="O39" s="25">
+        <v>0.99587300000000001</v>
+      </c>
+      <c r="Z39" s="19"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -26336,17 +26662,18 @@
       <c r="L40" s="7">
         <v>1.0000899999999999</v>
       </c>
-      <c r="M40" s="5">
-        <v>1.1263570000000001</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0.45127800000000001</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0.99578500000000003</v>
-      </c>
+      <c r="M40" s="23">
+        <v>1.1271949999999999</v>
+      </c>
+      <c r="N40" s="24">
+        <v>0.45083000000000001</v>
+      </c>
+      <c r="O40" s="25">
+        <v>0.99584600000000001</v>
+      </c>
+      <c r="Z40" s="19"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -26391,17 +26718,18 @@
       <c r="L41" s="7">
         <v>1.0000929999999999</v>
       </c>
-      <c r="M41" s="5">
-        <v>1.1418969999999999</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0.442494</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0.99575400000000003</v>
-      </c>
+      <c r="M41" s="23">
+        <v>1.1426529999999999</v>
+      </c>
+      <c r="N41" s="24">
+        <v>0.44209799999999999</v>
+      </c>
+      <c r="O41" s="25">
+        <v>0.99581600000000003</v>
+      </c>
+      <c r="Z41" s="19"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -26446,17 +26774,18 @@
       <c r="L42" s="7">
         <v>1.000095</v>
       </c>
-      <c r="M42" s="5">
-        <v>1.1574979999999999</v>
-      </c>
-      <c r="N42" s="6">
-        <v>0.433778</v>
-      </c>
-      <c r="O42" s="7">
-        <v>0.99572099999999997</v>
-      </c>
+      <c r="M42" s="23">
+        <v>1.158188</v>
+      </c>
+      <c r="N42" s="24">
+        <v>0.433423</v>
+      </c>
+      <c r="O42" s="25">
+        <v>0.99578199999999994</v>
+      </c>
+      <c r="Z42" s="19"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -26501,17 +26830,18 @@
       <c r="L43" s="7">
         <v>1.000097</v>
       </c>
-      <c r="M43" s="5">
-        <v>1.17316</v>
-      </c>
-      <c r="N43" s="6">
-        <v>0.42513200000000001</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0.99568299999999998</v>
-      </c>
+      <c r="M43" s="23">
+        <v>1.1737960000000001</v>
+      </c>
+      <c r="N43" s="24">
+        <v>0.42481099999999999</v>
+      </c>
+      <c r="O43" s="25">
+        <v>0.99574499999999999</v>
+      </c>
+      <c r="Z43" s="19"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -26556,17 +26886,18 @@
       <c r="L44" s="7">
         <v>1.0000990000000001</v>
       </c>
-      <c r="M44" s="5">
-        <v>1.188885</v>
-      </c>
-      <c r="N44" s="6">
-        <v>0.41655999999999999</v>
-      </c>
-      <c r="O44" s="7">
-        <v>0.995641</v>
-      </c>
+      <c r="M44" s="23">
+        <v>1.189476</v>
+      </c>
+      <c r="N44" s="24">
+        <v>0.416267</v>
+      </c>
+      <c r="O44" s="25">
+        <v>0.995703</v>
+      </c>
+      <c r="Z44" s="19"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -26611,17 +26942,18 @@
       <c r="L45" s="7">
         <v>1.0001009999999999</v>
       </c>
-      <c r="M45" s="5">
-        <v>1.204671</v>
-      </c>
-      <c r="N45" s="6">
-        <v>0.40806500000000001</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0.99559600000000004</v>
-      </c>
+      <c r="M45" s="23">
+        <v>1.2052229999999999</v>
+      </c>
+      <c r="N45" s="24">
+        <v>0.40779599999999999</v>
+      </c>
+      <c r="O45" s="25">
+        <v>0.99565800000000004</v>
+      </c>
+      <c r="Z45" s="19"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -26666,17 +26998,18 @@
       <c r="L46" s="7">
         <v>1.000103</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.2205159999999999</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0.39965099999999998</v>
-      </c>
-      <c r="O46" s="7">
-        <v>0.99554699999999996</v>
-      </c>
+      <c r="M46" s="23">
+        <v>1.221034</v>
+      </c>
+      <c r="N46" s="24">
+        <v>0.39940300000000001</v>
+      </c>
+      <c r="O46" s="25">
+        <v>0.99560899999999997</v>
+      </c>
+      <c r="Z46" s="19"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -26721,17 +27054,18 @@
       <c r="L47" s="7">
         <v>1.0001040000000001</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.2364170000000001</v>
-      </c>
-      <c r="N47" s="6">
-        <v>0.391322</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0.99549399999999999</v>
-      </c>
+      <c r="M47" s="23">
+        <v>1.236907</v>
+      </c>
+      <c r="N47" s="24">
+        <v>0.391092</v>
+      </c>
+      <c r="O47" s="25">
+        <v>0.995556</v>
+      </c>
+      <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -26776,17 +27110,18 @@
       <c r="L48" s="7">
         <v>1.0001059999999999</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.252372</v>
-      </c>
-      <c r="N48" s="6">
-        <v>0.38308199999999998</v>
-      </c>
-      <c r="O48" s="7">
-        <v>0.99543700000000002</v>
-      </c>
+      <c r="M48" s="23">
+        <v>1.2528360000000001</v>
+      </c>
+      <c r="N48" s="24">
+        <v>0.38286900000000001</v>
+      </c>
+      <c r="O48" s="25">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="Z48" s="19"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -26831,17 +27166,18 @@
       <c r="L49" s="7">
         <v>1.000108</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.268378</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0.37493599999999999</v>
-      </c>
-      <c r="O49" s="7">
-        <v>0.99537699999999996</v>
-      </c>
+      <c r="M49" s="23">
+        <v>1.2688200000000001</v>
+      </c>
+      <c r="N49" s="24">
+        <v>0.37473699999999999</v>
+      </c>
+      <c r="O49" s="25">
+        <v>0.99543899999999996</v>
+      </c>
+      <c r="Z49" s="19"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -26886,17 +27222,18 @@
       <c r="L50" s="7">
         <v>1.0001089999999999</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.2844310000000001</v>
-      </c>
-      <c r="N50" s="6">
-        <v>0.36688700000000002</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0.99531199999999997</v>
-      </c>
+      <c r="M50" s="23">
+        <v>1.2848539999999999</v>
+      </c>
+      <c r="N50" s="24">
+        <v>0.366701</v>
+      </c>
+      <c r="O50" s="25">
+        <v>0.99537500000000001</v>
+      </c>
+      <c r="Z50" s="19"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -26941,17 +27278,18 @@
       <c r="L51" s="7">
         <v>1.000111</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.300529</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0.35893900000000001</v>
-      </c>
-      <c r="O51" s="7">
-        <v>0.99524400000000002</v>
-      </c>
+      <c r="M51" s="23">
+        <v>1.300934</v>
+      </c>
+      <c r="N51" s="24">
+        <v>0.35876400000000003</v>
+      </c>
+      <c r="O51" s="25">
+        <v>0.99530700000000005</v>
+      </c>
+      <c r="Z51" s="19"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -26996,17 +27334,18 @@
       <c r="L52" s="7">
         <v>1.0001119999999999</v>
       </c>
-      <c r="M52" s="5">
-        <v>1.3166679999999999</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0.35109499999999999</v>
-      </c>
-      <c r="O52" s="7">
-        <v>0.99517199999999995</v>
-      </c>
+      <c r="M52" s="23">
+        <v>1.3170569999999999</v>
+      </c>
+      <c r="N52" s="24">
+        <v>0.35093000000000002</v>
+      </c>
+      <c r="O52" s="25">
+        <v>0.99523499999999998</v>
+      </c>
+      <c r="Z52" s="19"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -27051,17 +27390,18 @@
       <c r="L53" s="7">
         <v>1.0001139999999999</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.3328450000000001</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0.34335700000000002</v>
-      </c>
-      <c r="O53" s="7">
-        <v>0.99509599999999998</v>
-      </c>
+      <c r="M53" s="23">
+        <v>1.3332200000000001</v>
+      </c>
+      <c r="N53" s="24">
+        <v>0.34320200000000001</v>
+      </c>
+      <c r="O53" s="25">
+        <v>0.99515900000000002</v>
+      </c>
+      <c r="Z53" s="19"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -27106,17 +27446,18 @@
       <c r="L54" s="7">
         <v>1.0001150000000001</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.349057</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0.33572999999999997</v>
-      </c>
-      <c r="O54" s="7">
-        <v>0.99501700000000004</v>
-      </c>
+      <c r="M54" s="23">
+        <v>1.3494189999999999</v>
+      </c>
+      <c r="N54" s="24">
+        <v>0.33558300000000002</v>
+      </c>
+      <c r="O54" s="25">
+        <v>0.99507999999999996</v>
+      </c>
+      <c r="Z54" s="19"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -27161,17 +27502,18 @@
       <c r="L55" s="7">
         <v>1.000116</v>
       </c>
-      <c r="M55" s="5">
-        <v>1.3653</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0.32821499999999998</v>
-      </c>
-      <c r="O55" s="7">
-        <v>0.99493399999999999</v>
-      </c>
+      <c r="M55" s="23">
+        <v>1.36565</v>
+      </c>
+      <c r="N55" s="24">
+        <v>0.32807599999999998</v>
+      </c>
+      <c r="O55" s="25">
+        <v>0.99499700000000002</v>
+      </c>
+      <c r="Z55" s="19"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -27216,17 +27558,18 @@
       <c r="L56" s="7">
         <v>1.0001169999999999</v>
       </c>
-      <c r="M56" s="5">
-        <v>1.381572</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0.32081599999999999</v>
-      </c>
-      <c r="O56" s="7">
-        <v>0.99484700000000004</v>
-      </c>
+      <c r="M56" s="23">
+        <v>1.38191</v>
+      </c>
+      <c r="N56" s="24">
+        <v>0.32068400000000002</v>
+      </c>
+      <c r="O56" s="25">
+        <v>0.99490999999999996</v>
+      </c>
+      <c r="Z56" s="19"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A57" s="8">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -27271,17 +27614,18 @@
       <c r="L57" s="9">
         <v>1.0001180000000001</v>
       </c>
-      <c r="M57" s="5">
-        <v>1.3978680000000001</v>
-      </c>
-      <c r="N57" s="6">
-        <v>0.31353300000000001</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0.994757</v>
-      </c>
+      <c r="M57" s="23">
+        <v>1.398196</v>
+      </c>
+      <c r="N57" s="24">
+        <v>0.31340800000000002</v>
+      </c>
+      <c r="O57" s="25">
+        <v>0.99482000000000004</v>
+      </c>
+      <c r="Z57" s="19"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -27326,17 +27670,18 @@
       <c r="L58" s="7">
         <v>1.0001180000000001</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.414185</v>
-      </c>
-      <c r="N58" s="6">
-        <v>0.30636999999999998</v>
-      </c>
-      <c r="O58" s="7">
-        <v>0.99466299999999996</v>
-      </c>
+      <c r="M58" s="23">
+        <v>1.414504</v>
+      </c>
+      <c r="N58" s="24">
+        <v>0.306251</v>
+      </c>
+      <c r="O58" s="25">
+        <v>0.994726</v>
+      </c>
+      <c r="Z58" s="19"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -27381,17 +27726,18 @@
       <c r="L59" s="7">
         <v>1.000119</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.4305209999999999</v>
-      </c>
-      <c r="N59" s="6">
-        <v>0.29932700000000001</v>
-      </c>
-      <c r="O59" s="7">
-        <v>0.99456599999999995</v>
-      </c>
+      <c r="M59" s="23">
+        <v>1.430831</v>
+      </c>
+      <c r="N59" s="24">
+        <v>0.29921399999999998</v>
+      </c>
+      <c r="O59" s="25">
+        <v>0.99462899999999999</v>
+      </c>
+      <c r="Z59" s="19"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -27436,17 +27782,18 @@
       <c r="L60" s="7">
         <v>1.000119</v>
       </c>
-      <c r="M60" s="5">
-        <v>1.4468719999999999</v>
-      </c>
-      <c r="N60" s="6">
-        <v>0.292406</v>
-      </c>
-      <c r="O60" s="7">
-        <v>0.99446599999999996</v>
-      </c>
+      <c r="M60" s="23">
+        <v>1.447174</v>
+      </c>
+      <c r="N60" s="24">
+        <v>0.292298</v>
+      </c>
+      <c r="O60" s="25">
+        <v>0.994529</v>
+      </c>
+      <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -27491,17 +27838,18 @@
       <c r="L61" s="7">
         <v>1.0001199999999999</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.4632350000000001</v>
-      </c>
-      <c r="N61" s="6">
-        <v>0.285609</v>
-      </c>
-      <c r="O61" s="7">
-        <v>0.994363</v>
-      </c>
+      <c r="M61" s="23">
+        <v>1.46353</v>
+      </c>
+      <c r="N61" s="24">
+        <v>0.28550599999999998</v>
+      </c>
+      <c r="O61" s="25">
+        <v>0.99442600000000003</v>
+      </c>
+      <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -27546,17 +27894,18 @@
       <c r="L62" s="7">
         <v>1.0001199999999999</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.4796069999999999</v>
-      </c>
-      <c r="N62" s="6">
-        <v>0.27893499999999999</v>
-      </c>
-      <c r="O62" s="7">
-        <v>0.99425600000000003</v>
-      </c>
+      <c r="M62" s="23">
+        <v>1.479895</v>
+      </c>
+      <c r="N62" s="24">
+        <v>0.278837</v>
+      </c>
+      <c r="O62" s="25">
+        <v>0.99431899999999995</v>
+      </c>
+      <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -27601,17 +27950,18 @@
       <c r="L63" s="7">
         <v>1.0001199999999999</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.4959849999999999</v>
-      </c>
-      <c r="N63" s="6">
-        <v>0.27238699999999999</v>
-      </c>
-      <c r="O63" s="7">
-        <v>0.99414599999999997</v>
-      </c>
+      <c r="M63" s="23">
+        <v>1.496267</v>
+      </c>
+      <c r="N63" s="24">
+        <v>0.27229300000000001</v>
+      </c>
+      <c r="O63" s="25">
+        <v>0.99420900000000001</v>
+      </c>
+      <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -27656,17 +28006,18 @@
       <c r="L64" s="7">
         <v>1.0001199999999999</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.512367</v>
-      </c>
-      <c r="N64" s="6">
-        <v>0.26596399999999998</v>
-      </c>
-      <c r="O64" s="7">
-        <v>0.99403399999999997</v>
-      </c>
+      <c r="M64" s="23">
+        <v>1.512643</v>
+      </c>
+      <c r="N64" s="24">
+        <v>0.265874</v>
+      </c>
+      <c r="O64" s="25">
+        <v>0.99409700000000001</v>
+      </c>
+      <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -27711,17 +28062,18 @@
       <c r="L65" s="7">
         <v>1.0001199999999999</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.528748</v>
-      </c>
-      <c r="N65" s="6">
-        <v>0.25966600000000001</v>
-      </c>
-      <c r="O65" s="7">
-        <v>0.99391799999999997</v>
-      </c>
+      <c r="M65" s="23">
+        <v>1.5290189999999999</v>
+      </c>
+      <c r="N65" s="24">
+        <v>0.25957999999999998</v>
+      </c>
+      <c r="O65" s="25">
+        <v>0.993981</v>
+      </c>
+      <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -27766,17 +28118,18 @@
       <c r="L66" s="7">
         <v>1.0001199999999999</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.5451280000000001</v>
-      </c>
-      <c r="N66" s="6">
-        <v>0.25349500000000003</v>
-      </c>
-      <c r="O66" s="7">
-        <v>0.99380000000000002</v>
-      </c>
+      <c r="M66" s="23">
+        <v>1.5453939999999999</v>
+      </c>
+      <c r="N66" s="24">
+        <v>0.25341200000000003</v>
+      </c>
+      <c r="O66" s="25">
+        <v>0.99386300000000005</v>
+      </c>
+      <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -27821,17 +28174,18 @@
       <c r="L67" s="7">
         <v>1.000119</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.5615030000000001</v>
-      </c>
-      <c r="N67" s="6">
-        <v>0.247449</v>
-      </c>
-      <c r="O67" s="7">
-        <v>0.99367899999999998</v>
-      </c>
+      <c r="M67" s="23">
+        <v>1.561763</v>
+      </c>
+      <c r="N67" s="24">
+        <v>0.24737000000000001</v>
+      </c>
+      <c r="O67" s="25">
+        <v>0.99374200000000001</v>
+      </c>
+      <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -27876,17 +28230,18 @@
       <c r="L68" s="7">
         <v>1.000119</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.5778700000000001</v>
-      </c>
-      <c r="N68" s="6">
-        <v>0.24152799999999999</v>
-      </c>
-      <c r="O68" s="7">
-        <v>0.99355499999999997</v>
-      </c>
+      <c r="M68" s="23">
+        <v>1.5781259999999999</v>
+      </c>
+      <c r="N68" s="24">
+        <v>0.241452</v>
+      </c>
+      <c r="O68" s="25">
+        <v>0.993618</v>
+      </c>
+      <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -27931,17 +28286,18 @@
       <c r="L69" s="7">
         <v>1.0001180000000001</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.5942259999999999</v>
-      </c>
-      <c r="N69" s="6">
-        <v>0.235732</v>
-      </c>
-      <c r="O69" s="7">
-        <v>0.99342900000000001</v>
-      </c>
+      <c r="M69" s="23">
+        <v>1.5944780000000001</v>
+      </c>
+      <c r="N69" s="24">
+        <v>0.23565900000000001</v>
+      </c>
+      <c r="O69" s="25">
+        <v>0.99349200000000004</v>
+      </c>
+      <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -27986,17 +28342,18 @@
       <c r="L70" s="7">
         <v>1.0001169999999999</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.610571</v>
-      </c>
-      <c r="N70" s="6">
-        <v>0.23005999999999999</v>
-      </c>
-      <c r="O70" s="7">
-        <v>0.99330099999999999</v>
-      </c>
+      <c r="M70" s="23">
+        <v>1.610819</v>
+      </c>
+      <c r="N70" s="24">
+        <v>0.22999</v>
+      </c>
+      <c r="O70" s="25">
+        <v>0.99336400000000002</v>
+      </c>
+      <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -28041,17 +28398,18 @@
       <c r="L71" s="7">
         <v>1.000116</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.6269</v>
-      </c>
-      <c r="N71" s="6">
-        <v>0.22451199999999999</v>
-      </c>
-      <c r="O71" s="7">
-        <v>0.99317</v>
-      </c>
+      <c r="M71" s="23">
+        <v>1.6271439999999999</v>
+      </c>
+      <c r="N71" s="24">
+        <v>0.224444</v>
+      </c>
+      <c r="O71" s="25">
+        <v>0.99323399999999995</v>
+      </c>
+      <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -28096,17 +28454,18 @@
       <c r="L72" s="7">
         <v>1.0001150000000001</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.6432119999999999</v>
-      </c>
-      <c r="N72" s="6">
-        <v>0.219086</v>
-      </c>
-      <c r="O72" s="7">
-        <v>0.99303799999999998</v>
-      </c>
+      <c r="M72" s="23">
+        <v>1.6434530000000001</v>
+      </c>
+      <c r="N72" s="24">
+        <v>0.21902099999999999</v>
+      </c>
+      <c r="O72" s="25">
+        <v>0.99310100000000001</v>
+      </c>
+      <c r="Z72" s="19"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <f t="shared" ref="A73:A106" si="12">A72+1</f>
         <v>67</v>
@@ -28151,17 +28510,18 @@
       <c r="L73" s="7">
         <v>1.0001139999999999</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.659505</v>
-      </c>
-      <c r="N73" s="6">
-        <v>0.213781</v>
-      </c>
-      <c r="O73" s="7">
-        <v>0.99290299999999998</v>
-      </c>
+      <c r="M73" s="23">
+        <v>1.6597420000000001</v>
+      </c>
+      <c r="N73" s="24">
+        <v>0.21371899999999999</v>
+      </c>
+      <c r="O73" s="25">
+        <v>0.99296600000000002</v>
+      </c>
+      <c r="Z73" s="19"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <f t="shared" si="12"/>
         <v>68</v>
@@ -28206,17 +28566,18 @@
       <c r="L74" s="7">
         <v>1.000113</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.6757759999999999</v>
-      </c>
-      <c r="N74" s="6">
-        <v>0.208597</v>
-      </c>
-      <c r="O74" s="7">
-        <v>0.99276600000000004</v>
-      </c>
+      <c r="M74" s="23">
+        <v>1.67601</v>
+      </c>
+      <c r="N74" s="24">
+        <v>0.208537</v>
+      </c>
+      <c r="O74" s="25">
+        <v>0.99282899999999996</v>
+      </c>
+      <c r="Z74" s="19"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <f t="shared" si="12"/>
         <v>69</v>
@@ -28261,17 +28622,18 @@
       <c r="L75" s="7">
         <v>1.0001119999999999</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.692024</v>
-      </c>
-      <c r="N75" s="6">
-        <v>0.20353199999999999</v>
-      </c>
-      <c r="O75" s="7">
-        <v>0.99262799999999995</v>
-      </c>
+      <c r="M75" s="23">
+        <v>1.6922550000000001</v>
+      </c>
+      <c r="N75" s="24">
+        <v>0.20347399999999999</v>
+      </c>
+      <c r="O75" s="25">
+        <v>0.99269099999999999</v>
+      </c>
+      <c r="Z75" s="19"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <f t="shared" si="12"/>
         <v>70</v>
@@ -28316,17 +28678,18 @@
       <c r="L76" s="7">
         <v>1.000111</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.7082459999999999</v>
-      </c>
-      <c r="N76" s="6">
-        <v>0.19858500000000001</v>
-      </c>
-      <c r="O76" s="7">
-        <v>0.99248700000000001</v>
-      </c>
+      <c r="M76" s="23">
+        <v>1.708474</v>
+      </c>
+      <c r="N76" s="24">
+        <v>0.19852900000000001</v>
+      </c>
+      <c r="O76" s="25">
+        <v>0.99255099999999996</v>
+      </c>
+      <c r="Z76" s="19"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <f t="shared" si="12"/>
         <v>71</v>
@@ -28371,17 +28734,18 @@
       <c r="L77" s="7">
         <v>1.0001089999999999</v>
       </c>
-      <c r="M77" s="5">
-        <v>1.7244409999999999</v>
-      </c>
-      <c r="N77" s="6">
-        <v>0.19375300000000001</v>
-      </c>
-      <c r="O77" s="7">
-        <v>0.99234599999999995</v>
-      </c>
+      <c r="M77" s="23">
+        <v>1.724666</v>
+      </c>
+      <c r="N77" s="24">
+        <v>0.19370000000000001</v>
+      </c>
+      <c r="O77" s="25">
+        <v>0.99240899999999999</v>
+      </c>
+      <c r="Z77" s="19"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <f t="shared" si="12"/>
         <v>72</v>
@@ -28426,17 +28790,18 @@
       <c r="L78" s="7">
         <v>1.0001070000000001</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.7406060000000001</v>
-      </c>
-      <c r="N78" s="6">
-        <v>0.18903700000000001</v>
-      </c>
-      <c r="O78" s="7">
-        <v>0.99220200000000003</v>
-      </c>
+      <c r="M78" s="23">
+        <v>1.740829</v>
+      </c>
+      <c r="N78" s="24">
+        <v>0.18898499999999999</v>
+      </c>
+      <c r="O78" s="25">
+        <v>0.99226599999999998</v>
+      </c>
+      <c r="Z78" s="19"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <f t="shared" si="12"/>
         <v>73</v>
@@ -28481,17 +28846,18 @@
       <c r="L79" s="7">
         <v>1.0001059999999999</v>
       </c>
-      <c r="M79" s="5">
-        <v>1.7567410000000001</v>
-      </c>
-      <c r="N79" s="6">
-        <v>0.18443300000000001</v>
-      </c>
-      <c r="O79" s="7">
-        <v>0.99205699999999997</v>
-      </c>
+      <c r="M79" s="23">
+        <v>1.756961</v>
+      </c>
+      <c r="N79" s="24">
+        <v>0.18438299999999999</v>
+      </c>
+      <c r="O79" s="25">
+        <v>0.99212100000000003</v>
+      </c>
+      <c r="Z79" s="19"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <f t="shared" si="12"/>
         <v>74</v>
@@ -28536,17 +28902,18 @@
       <c r="L80" s="7">
         <v>1.0001040000000001</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.772842</v>
-      </c>
-      <c r="N80" s="6">
-        <v>0.17993999999999999</v>
-      </c>
-      <c r="O80" s="7">
-        <v>0.99191099999999999</v>
-      </c>
+      <c r="M80" s="23">
+        <v>1.7730600000000001</v>
+      </c>
+      <c r="N80" s="24">
+        <v>0.179892</v>
+      </c>
+      <c r="O80" s="25">
+        <v>0.99197500000000005</v>
+      </c>
+      <c r="Z80" s="19"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <f t="shared" si="12"/>
         <v>75</v>
@@ -28591,17 +28958,18 @@
       <c r="L81" s="7">
         <v>1.000102</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.78891</v>
-      </c>
-      <c r="N81" s="6">
-        <v>0.17555699999999999</v>
-      </c>
-      <c r="O81" s="7">
-        <v>0.99176399999999998</v>
-      </c>
+      <c r="M81" s="23">
+        <v>1.789126</v>
+      </c>
+      <c r="N81" s="24">
+        <v>0.17551</v>
+      </c>
+      <c r="O81" s="25">
+        <v>0.99182700000000001</v>
+      </c>
+      <c r="Z81" s="19"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <f t="shared" si="12"/>
         <v>76</v>
@@ -28646,17 +29014,18 @@
       <c r="L82" s="7">
         <v>1.0001</v>
       </c>
-      <c r="M82" s="5">
-        <v>1.804942</v>
-      </c>
-      <c r="N82" s="6">
-        <v>0.17128199999999999</v>
-      </c>
-      <c r="O82" s="7">
-        <v>0.99161600000000005</v>
-      </c>
+      <c r="M82" s="23">
+        <v>1.8051550000000001</v>
+      </c>
+      <c r="N82" s="24">
+        <v>0.171236</v>
+      </c>
+      <c r="O82" s="25">
+        <v>0.99167899999999998</v>
+      </c>
+      <c r="Z82" s="19"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <f t="shared" si="12"/>
         <v>77</v>
@@ -28701,17 +29070,18 @@
       <c r="L83" s="7">
         <v>1.0000979999999999</v>
       </c>
-      <c r="M83" s="5">
-        <v>1.8209360000000001</v>
-      </c>
-      <c r="N83" s="6">
-        <v>0.16711200000000001</v>
-      </c>
-      <c r="O83" s="7">
-        <v>0.99146599999999996</v>
-      </c>
+      <c r="M83" s="23">
+        <v>1.821148</v>
+      </c>
+      <c r="N83" s="24">
+        <v>0.16706799999999999</v>
+      </c>
+      <c r="O83" s="25">
+        <v>0.99152899999999999</v>
+      </c>
+      <c r="Z83" s="19"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <f t="shared" si="12"/>
         <v>78</v>
@@ -28756,17 +29126,18 @@
       <c r="L84" s="7">
         <v>1.0000960000000001</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.836892</v>
-      </c>
-      <c r="N84" s="6">
-        <v>0.163046</v>
-      </c>
-      <c r="O84" s="7">
-        <v>0.99131599999999997</v>
-      </c>
+      <c r="M84" s="23">
+        <v>1.837102</v>
+      </c>
+      <c r="N84" s="24">
+        <v>0.16300400000000001</v>
+      </c>
+      <c r="O84" s="25">
+        <v>0.99137900000000001</v>
+      </c>
+      <c r="Z84" s="19"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <f t="shared" si="12"/>
         <v>79</v>
@@ -28811,17 +29182,18 @@
       <c r="L85" s="7">
         <v>1.000094</v>
       </c>
-      <c r="M85" s="5">
-        <v>1.852808</v>
-      </c>
-      <c r="N85" s="6">
-        <v>0.159082</v>
-      </c>
-      <c r="O85" s="7">
-        <v>0.99116400000000004</v>
-      </c>
+      <c r="M85" s="23">
+        <v>1.853016</v>
+      </c>
+      <c r="N85" s="24">
+        <v>0.15904199999999999</v>
+      </c>
+      <c r="O85" s="25">
+        <v>0.991228</v>
+      </c>
+      <c r="Z85" s="19"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <f t="shared" si="12"/>
         <v>80</v>
@@ -28866,17 +29238,18 @@
       <c r="L86" s="7">
         <v>1.000092</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.8686830000000001</v>
-      </c>
-      <c r="N86" s="6">
-        <v>0.15521799999999999</v>
-      </c>
-      <c r="O86" s="7">
-        <v>0.99101300000000003</v>
-      </c>
+      <c r="M86" s="23">
+        <v>1.868889</v>
+      </c>
+      <c r="N86" s="24">
+        <v>0.15517900000000001</v>
+      </c>
+      <c r="O86" s="25">
+        <v>0.99107599999999996</v>
+      </c>
+      <c r="Z86" s="19"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <f t="shared" si="12"/>
         <v>81</v>
@@ -28921,17 +29294,18 @@
       <c r="L87" s="7">
         <v>1.0000899999999999</v>
       </c>
-      <c r="M87" s="5">
-        <v>1.8845160000000001</v>
-      </c>
-      <c r="N87" s="6">
-        <v>0.151453</v>
-      </c>
-      <c r="O87" s="7">
-        <v>0.99085999999999996</v>
-      </c>
+      <c r="M87" s="23">
+        <v>1.88472</v>
+      </c>
+      <c r="N87" s="24">
+        <v>0.15141499999999999</v>
+      </c>
+      <c r="O87" s="25">
+        <v>0.990923</v>
+      </c>
+      <c r="Z87" s="19"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <f t="shared" si="12"/>
         <v>82</v>
@@ -28976,17 +29350,18 @@
       <c r="L88" s="7">
         <v>1.0000880000000001</v>
       </c>
-      <c r="M88" s="5">
-        <v>1.9003049999999999</v>
-      </c>
-      <c r="N88" s="6">
-        <v>0.147783</v>
-      </c>
-      <c r="O88" s="7">
-        <v>0.990707</v>
-      </c>
+      <c r="M88" s="23">
+        <v>1.9005080000000001</v>
+      </c>
+      <c r="N88" s="24">
+        <v>0.14774599999999999</v>
+      </c>
+      <c r="O88" s="25">
+        <v>0.99077000000000004</v>
+      </c>
+      <c r="Z88" s="19"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <f t="shared" si="12"/>
         <v>83</v>
@@ -29031,17 +29406,18 @@
       <c r="L89" s="7">
         <v>1.0000849999999999</v>
       </c>
-      <c r="M89" s="5">
-        <v>1.9160489999999999</v>
-      </c>
-      <c r="N89" s="6">
-        <v>0.144207</v>
-      </c>
-      <c r="O89" s="7">
-        <v>0.99055300000000002</v>
-      </c>
+      <c r="M89" s="23">
+        <v>1.9162509999999999</v>
+      </c>
+      <c r="N89" s="24">
+        <v>0.14417199999999999</v>
+      </c>
+      <c r="O89" s="25">
+        <v>0.99061600000000005</v>
+      </c>
+      <c r="Z89" s="19"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <f t="shared" si="12"/>
         <v>84</v>
@@ -29086,17 +29462,18 @@
       <c r="L90" s="7">
         <v>1.0000830000000001</v>
       </c>
-      <c r="M90" s="5">
-        <v>1.931748</v>
-      </c>
-      <c r="N90" s="6">
-        <v>0.14072399999999999</v>
-      </c>
-      <c r="O90" s="7">
-        <v>0.99039900000000003</v>
-      </c>
+      <c r="M90" s="23">
+        <v>1.931948</v>
+      </c>
+      <c r="N90" s="24">
+        <v>0.14068900000000001</v>
+      </c>
+      <c r="O90" s="25">
+        <v>0.99046199999999995</v>
+      </c>
+      <c r="Z90" s="19"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <f t="shared" si="12"/>
         <v>85</v>
@@ -29141,17 +29518,18 @@
       <c r="L91" s="7">
         <v>1.000081</v>
       </c>
-      <c r="M91" s="5">
-        <v>1.9474009999999999</v>
-      </c>
-      <c r="N91" s="6">
-        <v>0.13733000000000001</v>
-      </c>
-      <c r="O91" s="7">
-        <v>0.99024400000000001</v>
-      </c>
+      <c r="M91" s="23">
+        <v>1.9475990000000001</v>
+      </c>
+      <c r="N91" s="24">
+        <v>0.137297</v>
+      </c>
+      <c r="O91" s="25">
+        <v>0.99030799999999997</v>
+      </c>
+      <c r="Z91" s="19"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <f t="shared" si="12"/>
         <v>86</v>
@@ -29196,17 +29574,18 @@
       <c r="L92" s="7">
         <v>1.000078</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.963006</v>
-      </c>
-      <c r="N92" s="6">
-        <v>0.13402500000000001</v>
-      </c>
-      <c r="O92" s="7">
-        <v>0.990089</v>
-      </c>
+      <c r="M92" s="23">
+        <v>1.963203</v>
+      </c>
+      <c r="N92" s="24">
+        <v>0.133992</v>
+      </c>
+      <c r="O92" s="25">
+        <v>0.99015299999999995</v>
+      </c>
+      <c r="Z92" s="19"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <f t="shared" si="12"/>
         <v>87</v>
@@ -29251,17 +29630,18 @@
       <c r="L93" s="7">
         <v>1.000076</v>
       </c>
-      <c r="M93" s="5">
-        <v>1.9785630000000001</v>
-      </c>
-      <c r="N93" s="6">
-        <v>0.130805</v>
-      </c>
-      <c r="O93" s="7">
-        <v>0.98993399999999998</v>
-      </c>
+      <c r="M93" s="23">
+        <v>1.9787589999999999</v>
+      </c>
+      <c r="N93" s="24">
+        <v>0.130774</v>
+      </c>
+      <c r="O93" s="25">
+        <v>0.98999800000000004</v>
+      </c>
+      <c r="Z93" s="19"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <f t="shared" si="12"/>
         <v>88</v>
@@ -29306,17 +29686,18 @@
       <c r="L94" s="7">
         <v>1.000073</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.9940709999999999</v>
-      </c>
-      <c r="N94" s="6">
-        <v>0.12767000000000001</v>
-      </c>
-      <c r="O94" s="7">
-        <v>0.98977899999999996</v>
-      </c>
+      <c r="M94" s="23">
+        <v>1.9942660000000001</v>
+      </c>
+      <c r="N94" s="24">
+        <v>0.12764</v>
+      </c>
+      <c r="O94" s="25">
+        <v>0.98984300000000003</v>
+      </c>
+      <c r="Z94" s="19"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <f t="shared" si="12"/>
         <v>89</v>
@@ -29361,17 +29742,18 @@
       <c r="L95" s="7">
         <v>1.0000709999999999</v>
       </c>
-      <c r="M95" s="5">
-        <v>2.0095299999999998</v>
-      </c>
-      <c r="N95" s="6">
-        <v>0.12461700000000001</v>
-      </c>
-      <c r="O95" s="7">
-        <v>0.98962399999999995</v>
-      </c>
+      <c r="M95" s="23">
+        <v>2.0097230000000001</v>
+      </c>
+      <c r="N95" s="24">
+        <v>0.124587</v>
+      </c>
+      <c r="O95" s="25">
+        <v>0.98968699999999998</v>
+      </c>
+      <c r="Z95" s="19"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <f t="shared" si="12"/>
         <v>90</v>
@@ -29416,17 +29798,18 @@
       <c r="L96" s="7">
         <v>1.0000690000000001</v>
       </c>
-      <c r="M96" s="5">
-        <v>2.0249380000000001</v>
-      </c>
-      <c r="N96" s="6">
-        <v>0.121644</v>
-      </c>
-      <c r="O96" s="7">
-        <v>0.98946900000000004</v>
-      </c>
+      <c r="M96" s="23">
+        <v>2.0251299999999999</v>
+      </c>
+      <c r="N96" s="24">
+        <v>0.121615</v>
+      </c>
+      <c r="O96" s="25">
+        <v>0.98953199999999997</v>
+      </c>
+      <c r="Z96" s="19"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <f t="shared" si="12"/>
         <v>91</v>
@@ -29471,17 +29854,18 @@
       <c r="L97" s="7">
         <v>1.0000659999999999</v>
       </c>
-      <c r="M97" s="5">
-        <v>2.040295</v>
-      </c>
-      <c r="N97" s="6">
-        <v>0.11874899999999999</v>
-      </c>
-      <c r="O97" s="7">
-        <v>0.98931400000000003</v>
-      </c>
+      <c r="M97" s="23">
+        <v>2.040486</v>
+      </c>
+      <c r="N97" s="24">
+        <v>0.11872099999999999</v>
+      </c>
+      <c r="O97" s="25">
+        <v>0.98937699999999995</v>
+      </c>
+      <c r="Z97" s="19"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <f t="shared" si="12"/>
         <v>92</v>
@@ -29526,17 +29910,18 @@
       <c r="L98" s="7">
         <v>1.0000629999999999</v>
       </c>
-      <c r="M98" s="5">
-        <v>2.0556000000000001</v>
-      </c>
-      <c r="N98" s="6">
-        <v>0.11593100000000001</v>
-      </c>
-      <c r="O98" s="7">
-        <v>0.98915900000000001</v>
-      </c>
+      <c r="M98" s="23">
+        <v>2.0557910000000001</v>
+      </c>
+      <c r="N98" s="24">
+        <v>0.11590300000000001</v>
+      </c>
+      <c r="O98" s="25">
+        <v>0.98922200000000005</v>
+      </c>
+      <c r="Z98" s="19"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <f t="shared" si="12"/>
         <v>93</v>
@@ -29581,17 +29966,18 @@
       <c r="L99" s="7">
         <v>1.000057</v>
       </c>
-      <c r="M99" s="5">
-        <v>2.0708530000000001</v>
-      </c>
-      <c r="N99" s="6">
-        <v>0.11318599999999999</v>
-      </c>
-      <c r="O99" s="7">
-        <v>0.98900399999999999</v>
-      </c>
+      <c r="M99" s="23">
+        <v>2.071043</v>
+      </c>
+      <c r="N99" s="24">
+        <v>0.11316</v>
+      </c>
+      <c r="O99" s="25">
+        <v>0.98906700000000003</v>
+      </c>
+      <c r="Z99" s="19"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <f t="shared" si="12"/>
         <v>94</v>
@@ -29636,17 +30022,18 @@
       <c r="L100" s="7">
         <v>1.0000500000000001</v>
       </c>
-      <c r="M100" s="5">
-        <v>2.0860539999999999</v>
-      </c>
-      <c r="N100" s="6">
-        <v>0.110515</v>
-      </c>
-      <c r="O100" s="7">
-        <v>0.98884899999999998</v>
-      </c>
+      <c r="M100" s="23">
+        <v>2.0862430000000001</v>
+      </c>
+      <c r="N100" s="24">
+        <v>0.110489</v>
+      </c>
+      <c r="O100" s="25">
+        <v>0.98891300000000004</v>
+      </c>
+      <c r="Z100" s="19"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <f t="shared" si="12"/>
         <v>95</v>
@@ -29691,17 +30078,18 @@
       <c r="L101" s="7">
         <v>1.000051</v>
       </c>
-      <c r="M101" s="5">
-        <v>2.1012019999999998</v>
-      </c>
-      <c r="N101" s="6">
-        <v>0.107914</v>
-      </c>
-      <c r="O101" s="7">
-        <v>0.98869499999999999</v>
-      </c>
+      <c r="M101" s="23">
+        <v>2.1013890000000002</v>
+      </c>
+      <c r="N101" s="24">
+        <v>0.107889</v>
+      </c>
+      <c r="O101" s="25">
+        <v>0.98875800000000003</v>
+      </c>
+      <c r="Z101" s="19"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <f t="shared" si="12"/>
         <v>96</v>
@@ -29746,17 +30134,18 @@
       <c r="L102" s="7">
         <v>1.0000739999999999</v>
       </c>
-      <c r="M102" s="5">
-        <v>2.1162960000000002</v>
-      </c>
-      <c r="N102" s="6">
-        <v>0.105382</v>
-      </c>
-      <c r="O102" s="7">
-        <v>0.988541</v>
-      </c>
+      <c r="M102" s="23">
+        <v>2.1164830000000001</v>
+      </c>
+      <c r="N102" s="24">
+        <v>0.10535799999999999</v>
+      </c>
+      <c r="O102" s="25">
+        <v>0.98860400000000004</v>
+      </c>
+      <c r="Z102" s="19"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <f t="shared" si="12"/>
         <v>97</v>
@@ -29801,17 +30190,18 @@
       <c r="L103" s="7">
         <v>1.0001070000000001</v>
       </c>
-      <c r="M103" s="5">
-        <v>2.1313360000000001</v>
-      </c>
-      <c r="N103" s="6">
-        <v>0.102918</v>
-      </c>
-      <c r="O103" s="7">
-        <v>0.98838700000000002</v>
-      </c>
+      <c r="M103" s="23">
+        <v>2.1315219999999999</v>
+      </c>
+      <c r="N103" s="24">
+        <v>0.102894</v>
+      </c>
+      <c r="O103" s="25">
+        <v>0.98845099999999997</v>
+      </c>
+      <c r="Z103" s="19"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <f t="shared" si="12"/>
         <v>98</v>
@@ -29856,17 +30246,18 @@
       <c r="L104" s="7">
         <v>1.0000770000000001</v>
       </c>
-      <c r="M104" s="5">
-        <v>2.1463220000000001</v>
-      </c>
-      <c r="N104" s="6">
-        <v>0.100518</v>
-      </c>
-      <c r="O104" s="7">
-        <v>0.98823399999999995</v>
-      </c>
+      <c r="M104" s="23">
+        <v>2.1465070000000002</v>
+      </c>
+      <c r="N104" s="24">
+        <v>0.100496</v>
+      </c>
+      <c r="O104" s="25">
+        <v>0.98829699999999998</v>
+      </c>
+      <c r="Z104" s="19"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <f t="shared" si="12"/>
         <v>99</v>
@@ -29911,17 +30302,18 @@
       <c r="L105" s="7">
         <v>0.99989499999999998</v>
       </c>
-      <c r="M105" s="5">
-        <v>2.1612529999999999</v>
-      </c>
-      <c r="N105" s="6">
-        <v>9.8183000000000006E-2</v>
-      </c>
-      <c r="O105" s="7">
-        <v>0.98808099999999999</v>
-      </c>
+      <c r="M105" s="23">
+        <v>2.161438</v>
+      </c>
+      <c r="N105" s="24">
+        <v>9.8160999999999998E-2</v>
+      </c>
+      <c r="O105" s="25">
+        <v>0.98814500000000005</v>
+      </c>
+      <c r="Z105" s="19"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <f t="shared" si="12"/>
         <v>100</v>
@@ -29966,17 +30358,19 @@
       <c r="L106" s="7">
         <v>0.999664</v>
       </c>
-      <c r="M106" s="5">
-        <v>2.1761300000000001</v>
-      </c>
-      <c r="N106" s="6">
-        <v>9.5908999999999994E-2</v>
-      </c>
-      <c r="O106" s="7">
-        <v>0.98792899999999995</v>
-      </c>
+      <c r="M106" s="23">
+        <v>2.1763140000000001</v>
+      </c>
+      <c r="N106" s="24">
+        <v>9.5888000000000001E-2</v>
+      </c>
+      <c r="O106" s="25">
+        <v>0.98799199999999998</v>
+      </c>
+      <c r="Y106" s="19"/>
+      <c r="Z106" s="19"/>
     </row>
-    <row r="107" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="10">
         <f>A106+1</f>
         <v>101</v>
@@ -30021,14 +30415,14 @@
       <c r="L107" s="12">
         <v>0.99989799999999995</v>
       </c>
-      <c r="M107" s="10">
-        <v>2.1761300000000001</v>
-      </c>
-      <c r="N107" s="11">
-        <v>9.5908999999999994E-2</v>
-      </c>
-      <c r="O107" s="12">
-        <v>0.98792899999999995</v>
+      <c r="M107" s="26">
+        <v>2.1763140000000001</v>
+      </c>
+      <c r="N107" s="27">
+        <v>9.5888000000000001E-2</v>
+      </c>
+      <c r="O107" s="28">
+        <v>0.98799199999999998</v>
       </c>
     </row>
   </sheetData>

--- a/laval_comparison.xlsx
+++ b/laval_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valni\Documents\GIT\compressible_flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA151F2D-93F9-4441-9E3F-B0CC70B09037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32CA1F-0778-4B9D-A015-BC754F293BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laval Stoß" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>Central with Dissip Complex</t>
   </si>
   <si>
-    <t>Roe (CFL = 0,35, sub_ext = 1, p_exit = 0,094)</t>
+    <t xml:space="preserve">Roe </t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -312,15 +312,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18008,8 +18008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG33" sqref="AG33"/>
+    <sheetView tabSelected="1" topLeftCell="R3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -24654,8 +24654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView topLeftCell="M25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
